--- a/flask_auth_app/backupdb.xlsx
+++ b/flask_auth_app/backupdb.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zach/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zach/Desktop/Aus/UWA/CITS3403/Project/Project 2/Akinator-clone/flask_auth_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A898F18-A397-A445-95EB-3C694AABC848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ACF8F4-BF86-F44A-B391-FA1C91DD9D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="6" r:id="rId1"/>
-    <sheet name="Metadata - Countries" sheetId="2" r:id="rId2"/>
+    <sheet name="completeData" sheetId="6" r:id="rId1"/>
+    <sheet name="Format" sheetId="2" r:id="rId2"/>
     <sheet name="countryCode" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">completeData!$A$1:$Q$218</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">countryCode!$A$1:$B$267</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Metadata - Countries'!$A$1:$B$266</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$Q$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Format!$A$1:$B$266</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,28 +39,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6321" uniqueCount="468">
   <si>
@@ -1471,7 +1449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1563,7 +1541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1596,13 +1574,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1925,14 +1896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15"/>
@@ -2013,16 +1984,16 @@
       <c r="T1" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="3" t="s">
         <v>467</v>
       </c>
       <c r="Y1" s="10" t="s">
@@ -2072,7 +2043,7 @@
       <c r="N2" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P2" s="12" t="s">
@@ -2090,16 +2061,16 @@
       <c r="T2" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X2" s="15" t="s">
+      <c r="U2" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y2" s="10" t="s">
@@ -2149,7 +2120,7 @@
       <c r="N3" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P3" s="12" t="s">
@@ -2167,16 +2138,16 @@
       <c r="T3" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X3" s="15" t="s">
+      <c r="U3" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y3" s="10" t="s">
@@ -2226,7 +2197,7 @@
       <c r="N4" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P4" s="12" t="s">
@@ -2244,16 +2215,16 @@
       <c r="T4" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W4" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X4" s="15" t="s">
+      <c r="U4" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y4" s="10" t="s">
@@ -2303,7 +2274,7 @@
       <c r="N5" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P5" s="12" t="s">
@@ -2321,16 +2292,16 @@
       <c r="T5" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U5" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X5" s="15" t="s">
+      <c r="U5" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y5" s="10" t="s">
@@ -2380,7 +2351,7 @@
       <c r="N6" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P6" s="12" t="s">
@@ -2398,16 +2369,16 @@
       <c r="T6" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U6" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X6" s="15" t="s">
+      <c r="U6" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y6" s="10" t="s">
@@ -2457,7 +2428,7 @@
       <c r="N7" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P7" s="12" t="s">
@@ -2475,16 +2446,16 @@
       <c r="T7" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U7" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V7" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X7" s="15" t="s">
+      <c r="U7" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y7" s="10" t="s">
@@ -2534,7 +2505,7 @@
       <c r="N8" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P8" s="12" t="s">
@@ -2552,16 +2523,16 @@
       <c r="T8" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U8" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V8" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X8" s="15" t="s">
+      <c r="U8" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X8" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y8" s="10" t="s">
@@ -2611,7 +2582,7 @@
       <c r="N9" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P9" s="12" t="s">
@@ -2629,16 +2600,16 @@
       <c r="T9" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U9" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V9" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X9" s="15" t="s">
+      <c r="U9" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y9" s="10" t="s">
@@ -2688,7 +2659,7 @@
       <c r="N10" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P10" s="12" t="s">
@@ -2706,16 +2677,16 @@
       <c r="T10" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U10" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X10" s="15" t="s">
+      <c r="U10" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y10" s="10" t="s">
@@ -2765,7 +2736,7 @@
       <c r="N11" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P11" s="12" t="s">
@@ -2783,16 +2754,16 @@
       <c r="T11" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U11" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X11" s="15" t="s">
+      <c r="U11" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y11" s="10" t="s">
@@ -2842,7 +2813,7 @@
       <c r="N12" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P12" s="12" t="s">
@@ -2860,16 +2831,16 @@
       <c r="T12" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U12" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X12" s="15" t="s">
+      <c r="U12" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X12" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y12" s="10" t="s">
@@ -2919,7 +2890,7 @@
       <c r="N13" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P13" s="12" t="s">
@@ -2937,16 +2908,16 @@
       <c r="T13" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U13" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X13" s="15" t="s">
+      <c r="U13" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X13" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y13" s="10" t="s">
@@ -2996,7 +2967,7 @@
       <c r="N14" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P14" s="12" t="s">
@@ -3014,16 +2985,16 @@
       <c r="T14" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U14" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X14" s="15" t="s">
+      <c r="U14" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y14" s="10" t="s">
@@ -3073,7 +3044,7 @@
       <c r="N15" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P15" s="12" t="s">
@@ -3091,16 +3062,16 @@
       <c r="T15" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U15" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X15" s="15" t="s">
+      <c r="U15" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X15" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y15" s="10" t="s">
@@ -3150,7 +3121,7 @@
       <c r="N16" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="O16" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P16" s="12" t="s">
@@ -3168,16 +3139,16 @@
       <c r="T16" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U16" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X16" s="15" t="s">
+      <c r="U16" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X16" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y16" s="10" t="s">
@@ -3227,7 +3198,7 @@
       <c r="N17" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O17" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P17" s="12" t="s">
@@ -3245,16 +3216,16 @@
       <c r="T17" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U17" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X17" s="15" t="s">
+      <c r="U17" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X17" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y17" s="10" t="s">
@@ -3304,7 +3275,7 @@
       <c r="N18" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O18" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P18" s="12" t="s">
@@ -3322,16 +3293,16 @@
       <c r="T18" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U18" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X18" s="15" t="s">
+      <c r="U18" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X18" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y18" s="10" t="s">
@@ -3381,7 +3352,7 @@
       <c r="N19" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O19" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P19" s="12" t="s">
@@ -3399,16 +3370,16 @@
       <c r="T19" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U19" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X19" s="15" t="s">
+      <c r="U19" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X19" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y19" s="10" t="s">
@@ -3458,7 +3429,7 @@
       <c r="N20" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O20" s="17" t="s">
+      <c r="O20" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P20" s="12" t="s">
@@ -3476,16 +3447,16 @@
       <c r="T20" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U20" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V20" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X20" s="15" t="s">
+      <c r="U20" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X20" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y20" s="10" t="s">
@@ -3535,7 +3506,7 @@
       <c r="N21" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="O21" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P21" s="12" t="s">
@@ -3553,16 +3524,16 @@
       <c r="T21" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U21" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V21" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W21" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X21" s="15" t="s">
+      <c r="U21" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X21" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y21" s="10" t="s">
@@ -3612,7 +3583,7 @@
       <c r="N22" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P22" s="12" t="s">
@@ -3630,16 +3601,16 @@
       <c r="T22" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U22" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V22" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W22" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X22" s="15" t="s">
+      <c r="U22" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y22" s="10" t="s">
@@ -3689,7 +3660,7 @@
       <c r="N23" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="O23" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P23" s="12" t="s">
@@ -3707,16 +3678,16 @@
       <c r="T23" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U23" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W23" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X23" s="15" t="s">
+      <c r="U23" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X23" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y23" s="10" t="s">
@@ -3766,7 +3737,7 @@
       <c r="N24" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O24" s="17" t="s">
+      <c r="O24" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P24" s="12" t="s">
@@ -3784,16 +3755,16 @@
       <c r="T24" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U24" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X24" s="15" t="s">
+      <c r="U24" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y24" s="10" t="s">
@@ -3843,7 +3814,7 @@
       <c r="N25" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O25" s="17" t="s">
+      <c r="O25" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P25" s="12" t="s">
@@ -3861,16 +3832,16 @@
       <c r="T25" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U25" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X25" s="15" t="s">
+      <c r="U25" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X25" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y25" s="10" t="s">
@@ -3920,7 +3891,7 @@
       <c r="N26" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O26" s="17" t="s">
+      <c r="O26" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P26" s="12" t="s">
@@ -3938,16 +3909,16 @@
       <c r="T26" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U26" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V26" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W26" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X26" s="15" t="s">
+      <c r="U26" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X26" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y26" s="10" t="s">
@@ -3997,7 +3968,7 @@
       <c r="N27" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O27" s="17" t="s">
+      <c r="O27" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P27" s="12" t="s">
@@ -4015,16 +3986,16 @@
       <c r="T27" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U27" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V27" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W27" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X27" s="15" t="s">
+      <c r="U27" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W27" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X27" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y27" s="10" t="s">
@@ -4074,7 +4045,7 @@
       <c r="N28" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O28" s="17" t="s">
+      <c r="O28" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P28" s="12" t="s">
@@ -4092,16 +4063,16 @@
       <c r="T28" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U28" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V28" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W28" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X28" s="15" t="s">
+      <c r="U28" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X28" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y28" s="10" t="s">
@@ -4151,7 +4122,7 @@
       <c r="N29" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O29" s="17" t="s">
+      <c r="O29" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P29" s="12" t="s">
@@ -4169,16 +4140,16 @@
       <c r="T29" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U29" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V29" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W29" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X29" s="15" t="s">
+      <c r="U29" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X29" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y29" s="10" t="s">
@@ -4228,7 +4199,7 @@
       <c r="N30" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O30" s="17" t="s">
+      <c r="O30" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P30" s="12" t="s">
@@ -4246,16 +4217,16 @@
       <c r="T30" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U30" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V30" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W30" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X30" s="15" t="s">
+      <c r="U30" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V30" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W30" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X30" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y30" s="10" t="s">
@@ -4305,7 +4276,7 @@
       <c r="N31" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="O31" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P31" s="12" t="s">
@@ -4323,16 +4294,16 @@
       <c r="T31" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U31" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V31" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W31" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X31" s="15" t="s">
+      <c r="U31" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X31" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y31" s="10" t="s">
@@ -4382,7 +4353,7 @@
       <c r="N32" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O32" s="17" t="s">
+      <c r="O32" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P32" s="12" t="s">
@@ -4400,16 +4371,16 @@
       <c r="T32" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U32" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V32" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W32" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X32" s="15" t="s">
+      <c r="U32" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V32" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W32" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X32" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y32" s="10" t="s">
@@ -4459,7 +4430,7 @@
       <c r="N33" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="O33" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P33" s="12" t="s">
@@ -4477,16 +4448,16 @@
       <c r="T33" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U33" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V33" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W33" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X33" s="15" t="s">
+      <c r="U33" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V33" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W33" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X33" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y33" s="10" t="s">
@@ -4536,7 +4507,7 @@
       <c r="N34" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O34" s="17" t="s">
+      <c r="O34" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P34" s="12" t="s">
@@ -4554,16 +4525,16 @@
       <c r="T34" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U34" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V34" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W34" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X34" s="15" t="s">
+      <c r="U34" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W34" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X34" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y34" s="10" t="s">
@@ -4613,7 +4584,7 @@
       <c r="N35" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O35" s="17" t="s">
+      <c r="O35" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P35" s="12" t="s">
@@ -4631,16 +4602,16 @@
       <c r="T35" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U35" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X35" s="15" t="s">
+      <c r="U35" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V35" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X35" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y35" s="10" t="s">
@@ -4690,7 +4661,7 @@
       <c r="N36" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O36" s="17" t="s">
+      <c r="O36" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P36" s="12" t="s">
@@ -4708,16 +4679,16 @@
       <c r="T36" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U36" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V36" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W36" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X36" s="15" t="s">
+      <c r="U36" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X36" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y36" s="10" t="s">
@@ -4767,7 +4738,7 @@
       <c r="N37" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O37" s="17" t="s">
+      <c r="O37" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P37" s="12" t="s">
@@ -4785,16 +4756,16 @@
       <c r="T37" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U37" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V37" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W37" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X37" s="15" t="s">
+      <c r="U37" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W37" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X37" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y37" s="10" t="s">
@@ -4844,7 +4815,7 @@
       <c r="N38" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O38" s="17" t="s">
+      <c r="O38" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P38" s="12" t="s">
@@ -4862,16 +4833,16 @@
       <c r="T38" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U38" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V38" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W38" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X38" s="15" t="s">
+      <c r="U38" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V38" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W38" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X38" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y38" s="10" t="s">
@@ -4921,7 +4892,7 @@
       <c r="N39" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O39" s="17" t="s">
+      <c r="O39" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P39" s="12" t="s">
@@ -4939,16 +4910,16 @@
       <c r="T39" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U39" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V39" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W39" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X39" s="15" t="s">
+      <c r="U39" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V39" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X39" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y39" s="10" t="s">
@@ -4998,7 +4969,7 @@
       <c r="N40" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O40" s="17" t="s">
+      <c r="O40" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P40" s="12" t="s">
@@ -5016,16 +4987,16 @@
       <c r="T40" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U40" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V40" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W40" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X40" s="15" t="s">
+      <c r="U40" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W40" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X40" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y40" s="10" t="s">
@@ -5075,7 +5046,7 @@
       <c r="N41" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O41" s="17" t="s">
+      <c r="O41" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P41" s="12" t="s">
@@ -5093,16 +5064,16 @@
       <c r="T41" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U41" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V41" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W41" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X41" s="15" t="s">
+      <c r="U41" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V41" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W41" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X41" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y41" s="10" t="s">
@@ -5152,7 +5123,7 @@
       <c r="N42" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O42" s="17" t="s">
+      <c r="O42" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P42" s="12" t="s">
@@ -5170,16 +5141,16 @@
       <c r="T42" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U42" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V42" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W42" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X42" s="15" t="s">
+      <c r="U42" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W42" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X42" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y42" s="10" t="s">
@@ -5229,7 +5200,7 @@
       <c r="N43" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O43" s="17" t="s">
+      <c r="O43" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P43" s="12" t="s">
@@ -5247,16 +5218,16 @@
       <c r="T43" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U43" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V43" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W43" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X43" s="15" t="s">
+      <c r="U43" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V43" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W43" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X43" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y43" s="10" t="s">
@@ -5306,7 +5277,7 @@
       <c r="N44" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O44" s="17" t="s">
+      <c r="O44" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P44" s="12" t="s">
@@ -5324,16 +5295,16 @@
       <c r="T44" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U44" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V44" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W44" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X44" s="15" t="s">
+      <c r="U44" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X44" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y44" s="10" t="s">
@@ -5383,7 +5354,7 @@
       <c r="N45" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O45" s="17" t="s">
+      <c r="O45" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P45" s="12" t="s">
@@ -5401,16 +5372,16 @@
       <c r="T45" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U45" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V45" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W45" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X45" s="15" t="s">
+      <c r="U45" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V45" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W45" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X45" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y45" s="10" t="s">
@@ -5460,7 +5431,7 @@
       <c r="N46" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O46" s="17" t="s">
+      <c r="O46" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P46" s="12" t="s">
@@ -5478,16 +5449,16 @@
       <c r="T46" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U46" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V46" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W46" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X46" s="15" t="s">
+      <c r="U46" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V46" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W46" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y46" s="10" t="s">
@@ -5537,7 +5508,7 @@
       <c r="N47" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O47" s="17" t="s">
+      <c r="O47" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P47" s="12" t="s">
@@ -5555,16 +5526,16 @@
       <c r="T47" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U47" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V47" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W47" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X47" s="15" t="s">
+      <c r="U47" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V47" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X47" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y47" s="10" t="s">
@@ -5614,7 +5585,7 @@
       <c r="N48" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O48" s="17" t="s">
+      <c r="O48" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P48" s="12" t="s">
@@ -5632,16 +5603,16 @@
       <c r="T48" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U48" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V48" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W48" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X48" s="15" t="s">
+      <c r="U48" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V48" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W48" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X48" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y48" s="10" t="s">
@@ -5691,7 +5662,7 @@
       <c r="N49" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O49" s="17" t="s">
+      <c r="O49" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P49" s="12" t="s">
@@ -5709,16 +5680,16 @@
       <c r="T49" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U49" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V49" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W49" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X49" s="15" t="s">
+      <c r="U49" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V49" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W49" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X49" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y49" s="10" t="s">
@@ -5768,7 +5739,7 @@
       <c r="N50" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O50" s="17" t="s">
+      <c r="O50" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P50" s="12" t="s">
@@ -5786,16 +5757,16 @@
       <c r="T50" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U50" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V50" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W50" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X50" s="15" t="s">
+      <c r="U50" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V50" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W50" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X50" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y50" s="10" t="s">
@@ -5845,7 +5816,7 @@
       <c r="N51" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O51" s="17" t="s">
+      <c r="O51" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P51" s="12" t="s">
@@ -5863,16 +5834,16 @@
       <c r="T51" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U51" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V51" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W51" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X51" s="15" t="s">
+      <c r="U51" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X51" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y51" s="10" t="s">
@@ -5922,7 +5893,7 @@
       <c r="N52" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O52" s="17" t="s">
+      <c r="O52" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P52" s="12" t="s">
@@ -5940,16 +5911,16 @@
       <c r="T52" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U52" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V52" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W52" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X52" s="15" t="s">
+      <c r="U52" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V52" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W52" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X52" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y52" s="10" t="s">
@@ -5999,7 +5970,7 @@
       <c r="N53" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O53" s="17" t="s">
+      <c r="O53" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P53" s="12" t="s">
@@ -6017,16 +5988,16 @@
       <c r="T53" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U53" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V53" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W53" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X53" s="15" t="s">
+      <c r="U53" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V53" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W53" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X53" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y53" s="10" t="s">
@@ -6076,7 +6047,7 @@
       <c r="N54" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O54" s="17" t="s">
+      <c r="O54" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P54" s="12" t="s">
@@ -6094,16 +6065,16 @@
       <c r="T54" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U54" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V54" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W54" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X54" s="15" t="s">
+      <c r="U54" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V54" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W54" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X54" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y54" s="10" t="s">
@@ -6153,7 +6124,7 @@
       <c r="N55" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O55" s="17" t="s">
+      <c r="O55" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P55" s="12" t="s">
@@ -6171,16 +6142,16 @@
       <c r="T55" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U55" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V55" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W55" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X55" s="15" t="s">
+      <c r="U55" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V55" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W55" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X55" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y55" s="10" t="s">
@@ -6230,7 +6201,7 @@
       <c r="N56" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O56" s="17" t="s">
+      <c r="O56" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P56" s="12" t="s">
@@ -6248,16 +6219,16 @@
       <c r="T56" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U56" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V56" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W56" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X56" s="15" t="s">
+      <c r="U56" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V56" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W56" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X56" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y56" s="10" t="s">
@@ -6307,7 +6278,7 @@
       <c r="N57" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O57" s="17" t="s">
+      <c r="O57" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P57" s="12" t="s">
@@ -6325,16 +6296,16 @@
       <c r="T57" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U57" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V57" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W57" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X57" s="15" t="s">
+      <c r="U57" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V57" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W57" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X57" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y57" s="10" t="s">
@@ -6384,7 +6355,7 @@
       <c r="N58" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O58" s="17" t="s">
+      <c r="O58" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P58" s="12" t="s">
@@ -6402,16 +6373,16 @@
       <c r="T58" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U58" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V58" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W58" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X58" s="15" t="s">
+      <c r="U58" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V58" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W58" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X58" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y58" s="10" t="s">
@@ -6461,7 +6432,7 @@
       <c r="N59" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O59" s="17" t="s">
+      <c r="O59" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P59" s="12" t="s">
@@ -6479,16 +6450,16 @@
       <c r="T59" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U59" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V59" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W59" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X59" s="15" t="s">
+      <c r="U59" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V59" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W59" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X59" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y59" s="10" t="s">
@@ -6538,7 +6509,7 @@
       <c r="N60" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O60" s="17" t="s">
+      <c r="O60" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P60" s="12" t="s">
@@ -6556,16 +6527,16 @@
       <c r="T60" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U60" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V60" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W60" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X60" s="15" t="s">
+      <c r="U60" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V60" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W60" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X60" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y60" s="10" t="s">
@@ -6615,7 +6586,7 @@
       <c r="N61" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O61" s="17" t="s">
+      <c r="O61" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P61" s="12" t="s">
@@ -6633,16 +6604,16 @@
       <c r="T61" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U61" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V61" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W61" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X61" s="15" t="s">
+      <c r="U61" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V61" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W61" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X61" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y61" s="10" t="s">
@@ -6692,7 +6663,7 @@
       <c r="N62" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O62" s="17" t="s">
+      <c r="O62" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P62" s="12" t="s">
@@ -6710,16 +6681,16 @@
       <c r="T62" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U62" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V62" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W62" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X62" s="15" t="s">
+      <c r="U62" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V62" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W62" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X62" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y62" s="10" t="s">
@@ -6769,7 +6740,7 @@
       <c r="N63" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O63" s="17" t="s">
+      <c r="O63" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P63" s="12" t="s">
@@ -6787,16 +6758,16 @@
       <c r="T63" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U63" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V63" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W63" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X63" s="15" t="s">
+      <c r="U63" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V63" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W63" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X63" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y63" s="10" t="s">
@@ -6846,7 +6817,7 @@
       <c r="N64" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O64" s="17" t="s">
+      <c r="O64" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P64" s="12" t="s">
@@ -6864,16 +6835,16 @@
       <c r="T64" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U64" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V64" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W64" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X64" s="15" t="s">
+      <c r="U64" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V64" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W64" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X64" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y64" s="10" t="s">
@@ -6923,7 +6894,7 @@
       <c r="N65" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O65" s="17" t="s">
+      <c r="O65" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P65" s="12" t="s">
@@ -6941,16 +6912,16 @@
       <c r="T65" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U65" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V65" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W65" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X65" s="15" t="s">
+      <c r="U65" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V65" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W65" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X65" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y65" s="10" t="s">
@@ -7000,7 +6971,7 @@
       <c r="N66" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O66" s="17" t="s">
+      <c r="O66" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P66" s="12" t="s">
@@ -7018,16 +6989,16 @@
       <c r="T66" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U66" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V66" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W66" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X66" s="15" t="s">
+      <c r="U66" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V66" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W66" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X66" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y66" s="10" t="s">
@@ -7077,7 +7048,7 @@
       <c r="N67" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O67" s="17" t="s">
+      <c r="O67" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P67" s="12" t="s">
@@ -7095,16 +7066,16 @@
       <c r="T67" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U67" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V67" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W67" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X67" s="15" t="s">
+      <c r="U67" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V67" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W67" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X67" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y67" s="10" t="s">
@@ -7154,7 +7125,7 @@
       <c r="N68" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O68" s="17" t="s">
+      <c r="O68" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P68" s="12" t="s">
@@ -7172,16 +7143,16 @@
       <c r="T68" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U68" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V68" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W68" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X68" s="15" t="s">
+      <c r="U68" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V68" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W68" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X68" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y68" s="10" t="s">
@@ -7231,7 +7202,7 @@
       <c r="N69" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O69" s="17" t="s">
+      <c r="O69" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P69" s="12" t="s">
@@ -7249,16 +7220,16 @@
       <c r="T69" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U69" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V69" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W69" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X69" s="15" t="s">
+      <c r="U69" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V69" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W69" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X69" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y69" s="10" t="s">
@@ -7308,7 +7279,7 @@
       <c r="N70" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O70" s="17" t="s">
+      <c r="O70" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P70" s="12" t="s">
@@ -7326,16 +7297,16 @@
       <c r="T70" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U70" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V70" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W70" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X70" s="15" t="s">
+      <c r="U70" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V70" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W70" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X70" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y70" s="10" t="s">
@@ -7385,7 +7356,7 @@
       <c r="N71" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O71" s="17" t="s">
+      <c r="O71" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P71" s="12" t="s">
@@ -7403,16 +7374,16 @@
       <c r="T71" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U71" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V71" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W71" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X71" s="15" t="s">
+      <c r="U71" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V71" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W71" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X71" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y71" s="10" t="s">
@@ -7462,7 +7433,7 @@
       <c r="N72" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O72" s="17" t="s">
+      <c r="O72" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P72" s="12" t="s">
@@ -7480,16 +7451,16 @@
       <c r="T72" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U72" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V72" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W72" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X72" s="15" t="s">
+      <c r="U72" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V72" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W72" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X72" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y72" s="10" t="s">
@@ -7539,7 +7510,7 @@
       <c r="N73" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O73" s="17" t="s">
+      <c r="O73" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P73" s="12" t="s">
@@ -7557,16 +7528,16 @@
       <c r="T73" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U73" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V73" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W73" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X73" s="15" t="s">
+      <c r="U73" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V73" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W73" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X73" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y73" s="10" t="s">
@@ -7616,7 +7587,7 @@
       <c r="N74" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O74" s="17" t="s">
+      <c r="O74" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P74" s="12" t="s">
@@ -7634,16 +7605,16 @@
       <c r="T74" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U74" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V74" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W74" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X74" s="15" t="s">
+      <c r="U74" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V74" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W74" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X74" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y74" s="10" t="s">
@@ -7693,7 +7664,7 @@
       <c r="N75" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O75" s="17" t="s">
+      <c r="O75" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P75" s="12" t="s">
@@ -7711,16 +7682,16 @@
       <c r="T75" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U75" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V75" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W75" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X75" s="15" t="s">
+      <c r="U75" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V75" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W75" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X75" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y75" s="10" t="s">
@@ -7770,7 +7741,7 @@
       <c r="N76" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O76" s="17" t="s">
+      <c r="O76" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P76" s="12" t="s">
@@ -7788,16 +7759,16 @@
       <c r="T76" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U76" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V76" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W76" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X76" s="15" t="s">
+      <c r="U76" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V76" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W76" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X76" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y76" s="10" t="s">
@@ -7847,7 +7818,7 @@
       <c r="N77" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O77" s="17" t="s">
+      <c r="O77" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P77" s="12" t="s">
@@ -7865,16 +7836,16 @@
       <c r="T77" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U77" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V77" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W77" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X77" s="15" t="s">
+      <c r="U77" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V77" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W77" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X77" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y77" s="10" t="s">
@@ -7924,7 +7895,7 @@
       <c r="N78" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O78" s="17" t="s">
+      <c r="O78" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P78" s="12" t="s">
@@ -7942,16 +7913,16 @@
       <c r="T78" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U78" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V78" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W78" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X78" s="15" t="s">
+      <c r="U78" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V78" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W78" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X78" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y78" s="10" t="s">
@@ -8001,7 +7972,7 @@
       <c r="N79" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O79" s="17" t="s">
+      <c r="O79" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P79" s="12" t="s">
@@ -8019,16 +7990,16 @@
       <c r="T79" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U79" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V79" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W79" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X79" s="15" t="s">
+      <c r="U79" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V79" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W79" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X79" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y79" s="10" t="s">
@@ -8078,7 +8049,7 @@
       <c r="N80" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O80" s="17" t="s">
+      <c r="O80" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P80" s="12" t="s">
@@ -8096,16 +8067,16 @@
       <c r="T80" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U80" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V80" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W80" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X80" s="15" t="s">
+      <c r="U80" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V80" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W80" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X80" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y80" s="10" t="s">
@@ -8155,7 +8126,7 @@
       <c r="N81" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O81" s="17" t="s">
+      <c r="O81" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P81" s="12" t="s">
@@ -8173,16 +8144,16 @@
       <c r="T81" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U81" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V81" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W81" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X81" s="15" t="s">
+      <c r="U81" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V81" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W81" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X81" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y81" s="10" t="s">
@@ -8232,7 +8203,7 @@
       <c r="N82" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O82" s="17" t="s">
+      <c r="O82" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P82" s="12" t="s">
@@ -8250,16 +8221,16 @@
       <c r="T82" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U82" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V82" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W82" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X82" s="15" t="s">
+      <c r="U82" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V82" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W82" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X82" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y82" s="10" t="s">
@@ -8309,7 +8280,7 @@
       <c r="N83" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O83" s="17" t="s">
+      <c r="O83" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P83" s="12" t="s">
@@ -8327,16 +8298,16 @@
       <c r="T83" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U83" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V83" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W83" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X83" s="15" t="s">
+      <c r="U83" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V83" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W83" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X83" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y83" s="10" t="s">
@@ -8386,7 +8357,7 @@
       <c r="N84" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O84" s="17" t="s">
+      <c r="O84" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P84" s="12" t="s">
@@ -8404,16 +8375,16 @@
       <c r="T84" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U84" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V84" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W84" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X84" s="15" t="s">
+      <c r="U84" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V84" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W84" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X84" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y84" s="10" t="s">
@@ -8463,7 +8434,7 @@
       <c r="N85" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O85" s="17" t="s">
+      <c r="O85" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P85" s="12" t="s">
@@ -8481,16 +8452,16 @@
       <c r="T85" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U85" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V85" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W85" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X85" s="15" t="s">
+      <c r="U85" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V85" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W85" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X85" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y85" s="10" t="s">
@@ -8540,7 +8511,7 @@
       <c r="N86" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O86" s="17" t="s">
+      <c r="O86" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P86" s="12" t="s">
@@ -8558,16 +8529,16 @@
       <c r="T86" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U86" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V86" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W86" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X86" s="15" t="s">
+      <c r="U86" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V86" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W86" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X86" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y86" s="10" t="s">
@@ -8617,7 +8588,7 @@
       <c r="N87" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O87" s="17" t="s">
+      <c r="O87" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P87" s="12" t="s">
@@ -8635,16 +8606,16 @@
       <c r="T87" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U87" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V87" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W87" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X87" s="15" t="s">
+      <c r="U87" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V87" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W87" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X87" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y87" s="10" t="s">
@@ -8694,7 +8665,7 @@
       <c r="N88" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O88" s="17" t="s">
+      <c r="O88" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P88" s="12" t="s">
@@ -8712,16 +8683,16 @@
       <c r="T88" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U88" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V88" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W88" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X88" s="15" t="s">
+      <c r="U88" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V88" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W88" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X88" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y88" s="10" t="s">
@@ -8771,7 +8742,7 @@
       <c r="N89" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O89" s="17" t="s">
+      <c r="O89" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P89" s="12" t="s">
@@ -8789,16 +8760,16 @@
       <c r="T89" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U89" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V89" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W89" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X89" s="15" t="s">
+      <c r="U89" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V89" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W89" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X89" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y89" s="10" t="s">
@@ -8848,7 +8819,7 @@
       <c r="N90" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O90" s="17" t="s">
+      <c r="O90" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P90" s="12" t="s">
@@ -8866,16 +8837,16 @@
       <c r="T90" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U90" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V90" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W90" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X90" s="15" t="s">
+      <c r="U90" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V90" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W90" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X90" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y90" s="10" t="s">
@@ -8925,7 +8896,7 @@
       <c r="N91" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O91" s="17" t="s">
+      <c r="O91" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P91" s="12" t="s">
@@ -8943,16 +8914,16 @@
       <c r="T91" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U91" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V91" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W91" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X91" s="15" t="s">
+      <c r="U91" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V91" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W91" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X91" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y91" s="10" t="s">
@@ -9002,7 +8973,7 @@
       <c r="N92" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O92" s="17" t="s">
+      <c r="O92" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P92" s="12" t="s">
@@ -9020,16 +8991,16 @@
       <c r="T92" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U92" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V92" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W92" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X92" s="15" t="s">
+      <c r="U92" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V92" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W92" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X92" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y92" s="10" t="s">
@@ -9079,7 +9050,7 @@
       <c r="N93" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O93" s="17" t="s">
+      <c r="O93" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P93" s="12" t="s">
@@ -9097,16 +9068,16 @@
       <c r="T93" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U93" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V93" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W93" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X93" s="15" t="s">
+      <c r="U93" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V93" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W93" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X93" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y93" s="10" t="s">
@@ -9156,7 +9127,7 @@
       <c r="N94" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O94" s="17" t="s">
+      <c r="O94" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P94" s="12" t="s">
@@ -9174,16 +9145,16 @@
       <c r="T94" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U94" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V94" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W94" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X94" s="15" t="s">
+      <c r="U94" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V94" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W94" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X94" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y94" s="10" t="s">
@@ -9233,7 +9204,7 @@
       <c r="N95" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O95" s="17" t="s">
+      <c r="O95" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P95" s="12" t="s">
@@ -9251,16 +9222,16 @@
       <c r="T95" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U95" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V95" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W95" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X95" s="15" t="s">
+      <c r="U95" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V95" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W95" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X95" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y95" s="10" t="s">
@@ -9310,7 +9281,7 @@
       <c r="N96" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O96" s="17" t="s">
+      <c r="O96" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P96" s="12" t="s">
@@ -9328,16 +9299,16 @@
       <c r="T96" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U96" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V96" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W96" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X96" s="15" t="s">
+      <c r="U96" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V96" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W96" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X96" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y96" s="10" t="s">
@@ -9387,7 +9358,7 @@
       <c r="N97" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O97" s="17" t="s">
+      <c r="O97" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P97" s="12" t="s">
@@ -9405,16 +9376,16 @@
       <c r="T97" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U97" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V97" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W97" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X97" s="15" t="s">
+      <c r="U97" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V97" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W97" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X97" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y97" s="10" t="s">
@@ -9464,7 +9435,7 @@
       <c r="N98" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O98" s="17" t="s">
+      <c r="O98" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P98" s="12" t="s">
@@ -9482,16 +9453,16 @@
       <c r="T98" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U98" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V98" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W98" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X98" s="15" t="s">
+      <c r="U98" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V98" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W98" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X98" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y98" s="10" t="s">
@@ -9541,7 +9512,7 @@
       <c r="N99" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O99" s="17" t="s">
+      <c r="O99" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P99" s="12" t="s">
@@ -9559,16 +9530,16 @@
       <c r="T99" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U99" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V99" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W99" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X99" s="15" t="s">
+      <c r="U99" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V99" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W99" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X99" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y99" s="10" t="s">
@@ -9618,7 +9589,7 @@
       <c r="N100" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O100" s="17" t="s">
+      <c r="O100" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P100" s="12" t="s">
@@ -9636,16 +9607,16 @@
       <c r="T100" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U100" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V100" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W100" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X100" s="15" t="s">
+      <c r="U100" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V100" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W100" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X100" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y100" s="10" t="s">
@@ -9695,7 +9666,7 @@
       <c r="N101" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O101" s="17" t="s">
+      <c r="O101" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P101" s="12" t="s">
@@ -9713,16 +9684,16 @@
       <c r="T101" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U101" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V101" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W101" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X101" s="15" t="s">
+      <c r="U101" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V101" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W101" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X101" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y101" s="10" t="s">
@@ -9772,7 +9743,7 @@
       <c r="N102" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O102" s="17" t="s">
+      <c r="O102" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P102" s="12" t="s">
@@ -9790,16 +9761,16 @@
       <c r="T102" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U102" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V102" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W102" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X102" s="15" t="s">
+      <c r="U102" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V102" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W102" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y102" s="10" t="s">
@@ -9849,7 +9820,7 @@
       <c r="N103" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O103" s="17" t="s">
+      <c r="O103" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P103" s="12" t="s">
@@ -9867,16 +9838,16 @@
       <c r="T103" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U103" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V103" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W103" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X103" s="15" t="s">
+      <c r="U103" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V103" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W103" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X103" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y103" s="10" t="s">
@@ -9926,7 +9897,7 @@
       <c r="N104" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O104" s="17" t="s">
+      <c r="O104" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P104" s="12" t="s">
@@ -9944,16 +9915,16 @@
       <c r="T104" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U104" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V104" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W104" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X104" s="15" t="s">
+      <c r="U104" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V104" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W104" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X104" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y104" s="10" t="s">
@@ -10003,7 +9974,7 @@
       <c r="N105" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O105" s="17" t="s">
+      <c r="O105" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P105" s="12" t="s">
@@ -10021,16 +9992,16 @@
       <c r="T105" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U105" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V105" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W105" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X105" s="15" t="s">
+      <c r="U105" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V105" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W105" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X105" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y105" s="10" t="s">
@@ -10080,7 +10051,7 @@
       <c r="N106" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O106" s="17" t="s">
+      <c r="O106" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P106" s="12" t="s">
@@ -10098,16 +10069,16 @@
       <c r="T106" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U106" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V106" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W106" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X106" s="15" t="s">
+      <c r="U106" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V106" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W106" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X106" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y106" s="10" t="s">
@@ -10157,7 +10128,7 @@
       <c r="N107" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O107" s="17" t="s">
+      <c r="O107" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P107" s="12" t="s">
@@ -10175,16 +10146,16 @@
       <c r="T107" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U107" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V107" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W107" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X107" s="15" t="s">
+      <c r="U107" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V107" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W107" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X107" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y107" s="10" t="s">
@@ -10234,7 +10205,7 @@
       <c r="N108" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O108" s="17" t="s">
+      <c r="O108" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P108" s="12" t="s">
@@ -10252,16 +10223,16 @@
       <c r="T108" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U108" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V108" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W108" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X108" s="15" t="s">
+      <c r="U108" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V108" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W108" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X108" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y108" s="10" t="s">
@@ -10311,7 +10282,7 @@
       <c r="N109" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O109" s="17" t="s">
+      <c r="O109" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P109" s="12" t="s">
@@ -10329,16 +10300,16 @@
       <c r="T109" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U109" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V109" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W109" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X109" s="15" t="s">
+      <c r="U109" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V109" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W109" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X109" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y109" s="10" t="s">
@@ -10388,7 +10359,7 @@
       <c r="N110" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O110" s="17" t="s">
+      <c r="O110" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P110" s="12" t="s">
@@ -10406,16 +10377,16 @@
       <c r="T110" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U110" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V110" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W110" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X110" s="15" t="s">
+      <c r="U110" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V110" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W110" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X110" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y110" s="10" t="s">
@@ -10465,7 +10436,7 @@
       <c r="N111" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O111" s="17" t="s">
+      <c r="O111" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P111" s="12" t="s">
@@ -10483,16 +10454,16 @@
       <c r="T111" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U111" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V111" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W111" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X111" s="15" t="s">
+      <c r="U111" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V111" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W111" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X111" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y111" s="10" t="s">
@@ -10542,7 +10513,7 @@
       <c r="N112" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O112" s="17" t="s">
+      <c r="O112" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P112" s="12" t="s">
@@ -10560,16 +10531,16 @@
       <c r="T112" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U112" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V112" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W112" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X112" s="15" t="s">
+      <c r="U112" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V112" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W112" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X112" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y112" s="10" t="s">
@@ -10619,7 +10590,7 @@
       <c r="N113" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O113" s="17" t="s">
+      <c r="O113" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P113" s="12" t="s">
@@ -10637,16 +10608,16 @@
       <c r="T113" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U113" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V113" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W113" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X113" s="15" t="s">
+      <c r="U113" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V113" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W113" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X113" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y113" s="10" t="s">
@@ -10696,7 +10667,7 @@
       <c r="N114" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O114" s="17" t="s">
+      <c r="O114" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P114" s="12" t="s">
@@ -10714,16 +10685,16 @@
       <c r="T114" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U114" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V114" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W114" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X114" s="15" t="s">
+      <c r="U114" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V114" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W114" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X114" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y114" s="10" t="s">
@@ -10773,7 +10744,7 @@
       <c r="N115" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O115" s="17" t="s">
+      <c r="O115" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P115" s="12" t="s">
@@ -10791,16 +10762,16 @@
       <c r="T115" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U115" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V115" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W115" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X115" s="15" t="s">
+      <c r="U115" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V115" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W115" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X115" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y115" s="10" t="s">
@@ -10850,7 +10821,7 @@
       <c r="N116" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O116" s="17" t="s">
+      <c r="O116" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P116" s="12" t="s">
@@ -10868,16 +10839,16 @@
       <c r="T116" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U116" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V116" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W116" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X116" s="15" t="s">
+      <c r="U116" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V116" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W116" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X116" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y116" s="10" t="s">
@@ -10927,7 +10898,7 @@
       <c r="N117" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O117" s="17" t="s">
+      <c r="O117" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P117" s="12" t="s">
@@ -10945,16 +10916,16 @@
       <c r="T117" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U117" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V117" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W117" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X117" s="15" t="s">
+      <c r="U117" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V117" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W117" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X117" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y117" s="10" t="s">
@@ -11004,7 +10975,7 @@
       <c r="N118" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O118" s="17" t="s">
+      <c r="O118" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P118" s="12" t="s">
@@ -11022,16 +10993,16 @@
       <c r="T118" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U118" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V118" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W118" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X118" s="15" t="s">
+      <c r="U118" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V118" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W118" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X118" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y118" s="10" t="s">
@@ -11081,7 +11052,7 @@
       <c r="N119" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O119" s="17" t="s">
+      <c r="O119" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P119" s="12" t="s">
@@ -11099,16 +11070,16 @@
       <c r="T119" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U119" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V119" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W119" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X119" s="15" t="s">
+      <c r="U119" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V119" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W119" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X119" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y119" s="10" t="s">
@@ -11158,7 +11129,7 @@
       <c r="N120" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O120" s="17" t="s">
+      <c r="O120" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P120" s="12" t="s">
@@ -11176,16 +11147,16 @@
       <c r="T120" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U120" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V120" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W120" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X120" s="15" t="s">
+      <c r="U120" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V120" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W120" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X120" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y120" s="10" t="s">
@@ -11235,7 +11206,7 @@
       <c r="N121" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O121" s="17" t="s">
+      <c r="O121" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P121" s="12" t="s">
@@ -11253,16 +11224,16 @@
       <c r="T121" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U121" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V121" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W121" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X121" s="15" t="s">
+      <c r="U121" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V121" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W121" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X121" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y121" s="10" t="s">
@@ -11312,7 +11283,7 @@
       <c r="N122" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O122" s="17" t="s">
+      <c r="O122" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P122" s="12" t="s">
@@ -11330,16 +11301,16 @@
       <c r="T122" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U122" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V122" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W122" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X122" s="15" t="s">
+      <c r="U122" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V122" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W122" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X122" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y122" s="10" t="s">
@@ -11389,7 +11360,7 @@
       <c r="N123" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O123" s="17" t="s">
+      <c r="O123" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P123" s="12" t="s">
@@ -11407,16 +11378,16 @@
       <c r="T123" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U123" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V123" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W123" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X123" s="15" t="s">
+      <c r="U123" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V123" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W123" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X123" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y123" s="10" t="s">
@@ -11466,7 +11437,7 @@
       <c r="N124" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O124" s="17" t="s">
+      <c r="O124" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P124" s="12" t="s">
@@ -11484,16 +11455,16 @@
       <c r="T124" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U124" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V124" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W124" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X124" s="15" t="s">
+      <c r="U124" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V124" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W124" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X124" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y124" s="10" t="s">
@@ -11543,7 +11514,7 @@
       <c r="N125" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O125" s="17" t="s">
+      <c r="O125" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P125" s="12" t="s">
@@ -11561,16 +11532,16 @@
       <c r="T125" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U125" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V125" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W125" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X125" s="15" t="s">
+      <c r="U125" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V125" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W125" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X125" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y125" s="10" t="s">
@@ -11620,7 +11591,7 @@
       <c r="N126" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O126" s="17" t="s">
+      <c r="O126" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P126" s="12" t="s">
@@ -11638,16 +11609,16 @@
       <c r="T126" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U126" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V126" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W126" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X126" s="15" t="s">
+      <c r="U126" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V126" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W126" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X126" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y126" s="10" t="s">
@@ -11697,7 +11668,7 @@
       <c r="N127" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O127" s="17" t="s">
+      <c r="O127" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P127" s="12" t="s">
@@ -11715,16 +11686,16 @@
       <c r="T127" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U127" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V127" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W127" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X127" s="15" t="s">
+      <c r="U127" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V127" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W127" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X127" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y127" s="10" t="s">
@@ -11774,7 +11745,7 @@
       <c r="N128" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O128" s="17" t="s">
+      <c r="O128" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P128" s="12" t="s">
@@ -11792,16 +11763,16 @@
       <c r="T128" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U128" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V128" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W128" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X128" s="15" t="s">
+      <c r="U128" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V128" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W128" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X128" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y128" s="10" t="s">
@@ -11851,7 +11822,7 @@
       <c r="N129" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O129" s="17" t="s">
+      <c r="O129" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P129" s="12" t="s">
@@ -11869,16 +11840,16 @@
       <c r="T129" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U129" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V129" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W129" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X129" s="15" t="s">
+      <c r="U129" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V129" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W129" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X129" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y129" s="10" t="s">
@@ -11928,7 +11899,7 @@
       <c r="N130" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O130" s="17" t="s">
+      <c r="O130" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P130" s="12" t="s">
@@ -11946,16 +11917,16 @@
       <c r="T130" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U130" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V130" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W130" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X130" s="15" t="s">
+      <c r="U130" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V130" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W130" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X130" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y130" s="10" t="s">
@@ -12005,7 +11976,7 @@
       <c r="N131" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O131" s="17" t="s">
+      <c r="O131" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P131" s="12" t="s">
@@ -12023,16 +11994,16 @@
       <c r="T131" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U131" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V131" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W131" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X131" s="15" t="s">
+      <c r="U131" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V131" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W131" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X131" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y131" s="10" t="s">
@@ -12082,7 +12053,7 @@
       <c r="N132" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O132" s="17" t="s">
+      <c r="O132" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P132" s="12" t="s">
@@ -12100,16 +12071,16 @@
       <c r="T132" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U132" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V132" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W132" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X132" s="15" t="s">
+      <c r="U132" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V132" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W132" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X132" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y132" s="10" t="s">
@@ -12159,7 +12130,7 @@
       <c r="N133" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O133" s="17" t="s">
+      <c r="O133" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P133" s="12" t="s">
@@ -12177,16 +12148,16 @@
       <c r="T133" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U133" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V133" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W133" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X133" s="15" t="s">
+      <c r="U133" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V133" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W133" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X133" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y133" s="10" t="s">
@@ -12236,7 +12207,7 @@
       <c r="N134" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O134" s="17" t="s">
+      <c r="O134" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P134" s="12" t="s">
@@ -12254,16 +12225,16 @@
       <c r="T134" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U134" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V134" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W134" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X134" s="15" t="s">
+      <c r="U134" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V134" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W134" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X134" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y134" s="10" t="s">
@@ -12313,7 +12284,7 @@
       <c r="N135" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O135" s="17" t="s">
+      <c r="O135" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P135" s="12" t="s">
@@ -12331,16 +12302,16 @@
       <c r="T135" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U135" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V135" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W135" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X135" s="15" t="s">
+      <c r="U135" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V135" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W135" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X135" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y135" s="10" t="s">
@@ -12390,7 +12361,7 @@
       <c r="N136" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O136" s="17" t="s">
+      <c r="O136" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P136" s="12" t="s">
@@ -12408,16 +12379,16 @@
       <c r="T136" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U136" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V136" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W136" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X136" s="15" t="s">
+      <c r="U136" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V136" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W136" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X136" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y136" s="10" t="s">
@@ -12467,7 +12438,7 @@
       <c r="N137" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O137" s="17" t="s">
+      <c r="O137" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P137" s="12" t="s">
@@ -12485,16 +12456,16 @@
       <c r="T137" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U137" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V137" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W137" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X137" s="15" t="s">
+      <c r="U137" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V137" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W137" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X137" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y137" s="10" t="s">
@@ -12544,7 +12515,7 @@
       <c r="N138" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O138" s="17" t="s">
+      <c r="O138" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P138" s="12" t="s">
@@ -12562,16 +12533,16 @@
       <c r="T138" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U138" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V138" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W138" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X138" s="15" t="s">
+      <c r="U138" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V138" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W138" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X138" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y138" s="10" t="s">
@@ -12621,7 +12592,7 @@
       <c r="N139" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O139" s="17" t="s">
+      <c r="O139" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P139" s="12" t="s">
@@ -12639,16 +12610,16 @@
       <c r="T139" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U139" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V139" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W139" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X139" s="15" t="s">
+      <c r="U139" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V139" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W139" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X139" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y139" s="10" t="s">
@@ -12698,7 +12669,7 @@
       <c r="N140" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O140" s="17" t="s">
+      <c r="O140" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P140" s="12" t="s">
@@ -12716,16 +12687,16 @@
       <c r="T140" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U140" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V140" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W140" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X140" s="15" t="s">
+      <c r="U140" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V140" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W140" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X140" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y140" s="10" t="s">
@@ -12775,7 +12746,7 @@
       <c r="N141" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O141" s="17" t="s">
+      <c r="O141" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P141" s="12" t="s">
@@ -12793,16 +12764,16 @@
       <c r="T141" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U141" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V141" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W141" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X141" s="15" t="s">
+      <c r="U141" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V141" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W141" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X141" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y141" s="10" t="s">
@@ -12852,7 +12823,7 @@
       <c r="N142" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O142" s="17" t="s">
+      <c r="O142" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P142" s="12" t="s">
@@ -12870,16 +12841,16 @@
       <c r="T142" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U142" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V142" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W142" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X142" s="15" t="s">
+      <c r="U142" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V142" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W142" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X142" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y142" s="10" t="s">
@@ -12929,7 +12900,7 @@
       <c r="N143" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O143" s="17" t="s">
+      <c r="O143" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P143" s="12" t="s">
@@ -12947,16 +12918,16 @@
       <c r="T143" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U143" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V143" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W143" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X143" s="15" t="s">
+      <c r="U143" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V143" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W143" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X143" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y143" s="10" t="s">
@@ -13006,7 +12977,7 @@
       <c r="N144" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O144" s="17" t="s">
+      <c r="O144" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P144" s="12" t="s">
@@ -13024,16 +12995,16 @@
       <c r="T144" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U144" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V144" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W144" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X144" s="15" t="s">
+      <c r="U144" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V144" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W144" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X144" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y144" s="10" t="s">
@@ -13083,7 +13054,7 @@
       <c r="N145" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O145" s="17" t="s">
+      <c r="O145" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P145" s="12" t="s">
@@ -13101,16 +13072,16 @@
       <c r="T145" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U145" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V145" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W145" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X145" s="15" t="s">
+      <c r="U145" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V145" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W145" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X145" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y145" s="10" t="s">
@@ -13160,7 +13131,7 @@
       <c r="N146" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O146" s="17" t="s">
+      <c r="O146" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P146" s="12" t="s">
@@ -13178,16 +13149,16 @@
       <c r="T146" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U146" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V146" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W146" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X146" s="15" t="s">
+      <c r="U146" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V146" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W146" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X146" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y146" s="10" t="s">
@@ -13237,7 +13208,7 @@
       <c r="N147" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O147" s="17" t="s">
+      <c r="O147" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P147" s="12" t="s">
@@ -13255,16 +13226,16 @@
       <c r="T147" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U147" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V147" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W147" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X147" s="15" t="s">
+      <c r="U147" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V147" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W147" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X147" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y147" s="10" t="s">
@@ -13314,7 +13285,7 @@
       <c r="N148" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O148" s="17" t="s">
+      <c r="O148" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P148" s="12" t="s">
@@ -13332,16 +13303,16 @@
       <c r="T148" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U148" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V148" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W148" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X148" s="15" t="s">
+      <c r="U148" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V148" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W148" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X148" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y148" s="10" t="s">
@@ -13391,7 +13362,7 @@
       <c r="N149" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O149" s="17" t="s">
+      <c r="O149" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P149" s="12" t="s">
@@ -13409,16 +13380,16 @@
       <c r="T149" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U149" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V149" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W149" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X149" s="15" t="s">
+      <c r="U149" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V149" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W149" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X149" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y149" s="10" t="s">
@@ -13468,7 +13439,7 @@
       <c r="N150" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O150" s="17" t="s">
+      <c r="O150" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P150" s="12" t="s">
@@ -13486,16 +13457,16 @@
       <c r="T150" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U150" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V150" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W150" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X150" s="15" t="s">
+      <c r="U150" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V150" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W150" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X150" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y150" s="10" t="s">
@@ -13545,7 +13516,7 @@
       <c r="N151" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O151" s="17" t="s">
+      <c r="O151" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P151" s="12" t="s">
@@ -13563,16 +13534,16 @@
       <c r="T151" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U151" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V151" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W151" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X151" s="15" t="s">
+      <c r="U151" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V151" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W151" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X151" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y151" s="10" t="s">
@@ -13622,7 +13593,7 @@
       <c r="N152" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O152" s="17" t="s">
+      <c r="O152" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P152" s="12" t="s">
@@ -13640,16 +13611,16 @@
       <c r="T152" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U152" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V152" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W152" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X152" s="15" t="s">
+      <c r="U152" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V152" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W152" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X152" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y152" s="10" t="s">
@@ -13699,7 +13670,7 @@
       <c r="N153" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O153" s="17" t="s">
+      <c r="O153" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P153" s="12" t="s">
@@ -13717,16 +13688,16 @@
       <c r="T153" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U153" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V153" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W153" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X153" s="15" t="s">
+      <c r="U153" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V153" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W153" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X153" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y153" s="10" t="s">
@@ -13776,7 +13747,7 @@
       <c r="N154" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O154" s="17" t="s">
+      <c r="O154" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P154" s="12" t="s">
@@ -13794,16 +13765,16 @@
       <c r="T154" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U154" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V154" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W154" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X154" s="15" t="s">
+      <c r="U154" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V154" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W154" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X154" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y154" s="10" t="s">
@@ -13853,7 +13824,7 @@
       <c r="N155" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O155" s="17" t="s">
+      <c r="O155" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P155" s="12" t="s">
@@ -13871,16 +13842,16 @@
       <c r="T155" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U155" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V155" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W155" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X155" s="15" t="s">
+      <c r="U155" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V155" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W155" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X155" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y155" s="10" t="s">
@@ -13930,7 +13901,7 @@
       <c r="N156" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O156" s="17" t="s">
+      <c r="O156" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P156" s="12" t="s">
@@ -13948,16 +13919,16 @@
       <c r="T156" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U156" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V156" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W156" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X156" s="15" t="s">
+      <c r="U156" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V156" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W156" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X156" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y156" s="10" t="s">
@@ -14007,7 +13978,7 @@
       <c r="N157" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O157" s="17" t="s">
+      <c r="O157" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P157" s="12" t="s">
@@ -14025,16 +13996,16 @@
       <c r="T157" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U157" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V157" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W157" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X157" s="15" t="s">
+      <c r="U157" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V157" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W157" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X157" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y157" s="10" t="s">
@@ -14084,7 +14055,7 @@
       <c r="N158" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O158" s="17" t="s">
+      <c r="O158" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P158" s="12" t="s">
@@ -14102,16 +14073,16 @@
       <c r="T158" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U158" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V158" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W158" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X158" s="15" t="s">
+      <c r="U158" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V158" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W158" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X158" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y158" s="10" t="s">
@@ -14161,7 +14132,7 @@
       <c r="N159" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O159" s="17" t="s">
+      <c r="O159" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P159" s="12" t="s">
@@ -14179,16 +14150,16 @@
       <c r="T159" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U159" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V159" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W159" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X159" s="15" t="s">
+      <c r="U159" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V159" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W159" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X159" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y159" s="10" t="s">
@@ -14238,7 +14209,7 @@
       <c r="N160" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O160" s="17" t="s">
+      <c r="O160" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P160" s="12" t="s">
@@ -14256,16 +14227,16 @@
       <c r="T160" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U160" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V160" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W160" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X160" s="15" t="s">
+      <c r="U160" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V160" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W160" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X160" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y160" s="10" t="s">
@@ -14315,7 +14286,7 @@
       <c r="N161" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O161" s="17" t="s">
+      <c r="O161" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P161" s="12" t="s">
@@ -14333,16 +14304,16 @@
       <c r="T161" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U161" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V161" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W161" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X161" s="15" t="s">
+      <c r="U161" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V161" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W161" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X161" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y161" s="10" t="s">
@@ -14392,7 +14363,7 @@
       <c r="N162" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O162" s="17" t="s">
+      <c r="O162" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P162" s="12" t="s">
@@ -14410,16 +14381,16 @@
       <c r="T162" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U162" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V162" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W162" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X162" s="15" t="s">
+      <c r="U162" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V162" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W162" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X162" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y162" s="10" t="s">
@@ -14469,7 +14440,7 @@
       <c r="N163" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O163" s="17" t="s">
+      <c r="O163" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P163" s="12" t="s">
@@ -14487,16 +14458,16 @@
       <c r="T163" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U163" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V163" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W163" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X163" s="15" t="s">
+      <c r="U163" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V163" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W163" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X163" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y163" s="10" t="s">
@@ -14546,7 +14517,7 @@
       <c r="N164" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O164" s="17" t="s">
+      <c r="O164" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P164" s="12" t="s">
@@ -14564,16 +14535,16 @@
       <c r="T164" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U164" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V164" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W164" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X164" s="15" t="s">
+      <c r="U164" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V164" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W164" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X164" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y164" s="10" t="s">
@@ -14623,7 +14594,7 @@
       <c r="N165" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O165" s="17" t="s">
+      <c r="O165" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P165" s="12" t="s">
@@ -14641,16 +14612,16 @@
       <c r="T165" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U165" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V165" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W165" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X165" s="15" t="s">
+      <c r="U165" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V165" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W165" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X165" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y165" s="10" t="s">
@@ -14700,7 +14671,7 @@
       <c r="N166" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O166" s="17" t="s">
+      <c r="O166" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P166" s="12" t="s">
@@ -14718,16 +14689,16 @@
       <c r="T166" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U166" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V166" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W166" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X166" s="15" t="s">
+      <c r="U166" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V166" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W166" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X166" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y166" s="10" t="s">
@@ -14777,7 +14748,7 @@
       <c r="N167" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O167" s="17" t="s">
+      <c r="O167" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P167" s="12" t="s">
@@ -14795,16 +14766,16 @@
       <c r="T167" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U167" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V167" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W167" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X167" s="15" t="s">
+      <c r="U167" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V167" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W167" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X167" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y167" s="10" t="s">
@@ -14854,7 +14825,7 @@
       <c r="N168" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O168" s="17" t="s">
+      <c r="O168" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P168" s="12" t="s">
@@ -14872,16 +14843,16 @@
       <c r="T168" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U168" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V168" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W168" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X168" s="15" t="s">
+      <c r="U168" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V168" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W168" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X168" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y168" s="10" t="s">
@@ -14931,7 +14902,7 @@
       <c r="N169" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O169" s="17" t="s">
+      <c r="O169" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P169" s="12" t="s">
@@ -14949,16 +14920,16 @@
       <c r="T169" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U169" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V169" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W169" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X169" s="15" t="s">
+      <c r="U169" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V169" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W169" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X169" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y169" s="10" t="s">
@@ -15008,7 +14979,7 @@
       <c r="N170" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O170" s="17" t="s">
+      <c r="O170" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P170" s="12" t="s">
@@ -15026,16 +14997,16 @@
       <c r="T170" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U170" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V170" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W170" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X170" s="15" t="s">
+      <c r="U170" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V170" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W170" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X170" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y170" s="10" t="s">
@@ -15085,7 +15056,7 @@
       <c r="N171" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O171" s="17" t="s">
+      <c r="O171" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P171" s="12" t="s">
@@ -15103,16 +15074,16 @@
       <c r="T171" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U171" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V171" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W171" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X171" s="15" t="s">
+      <c r="U171" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V171" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W171" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X171" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y171" s="10" t="s">
@@ -15162,7 +15133,7 @@
       <c r="N172" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O172" s="17" t="s">
+      <c r="O172" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P172" s="12" t="s">
@@ -15180,16 +15151,16 @@
       <c r="T172" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U172" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V172" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W172" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X172" s="15" t="s">
+      <c r="U172" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V172" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W172" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X172" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y172" s="10" t="s">
@@ -15239,7 +15210,7 @@
       <c r="N173" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O173" s="17" t="s">
+      <c r="O173" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P173" s="12" t="s">
@@ -15257,16 +15228,16 @@
       <c r="T173" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U173" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V173" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W173" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X173" s="15" t="s">
+      <c r="U173" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V173" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W173" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X173" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y173" s="10" t="s">
@@ -15316,7 +15287,7 @@
       <c r="N174" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O174" s="17" t="s">
+      <c r="O174" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P174" s="12" t="s">
@@ -15334,16 +15305,16 @@
       <c r="T174" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U174" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V174" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W174" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X174" s="15" t="s">
+      <c r="U174" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V174" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W174" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X174" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y174" s="10" t="s">
@@ -15393,7 +15364,7 @@
       <c r="N175" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O175" s="17" t="s">
+      <c r="O175" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P175" s="12" t="s">
@@ -15411,16 +15382,16 @@
       <c r="T175" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U175" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V175" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W175" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X175" s="15" t="s">
+      <c r="U175" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V175" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W175" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X175" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y175" s="10" t="s">
@@ -15470,7 +15441,7 @@
       <c r="N176" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O176" s="17" t="s">
+      <c r="O176" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P176" s="12" t="s">
@@ -15488,16 +15459,16 @@
       <c r="T176" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U176" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V176" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W176" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X176" s="15" t="s">
+      <c r="U176" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V176" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W176" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X176" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y176" s="10" t="s">
@@ -15547,7 +15518,7 @@
       <c r="N177" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O177" s="17" t="s">
+      <c r="O177" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P177" s="12" t="s">
@@ -15565,16 +15536,16 @@
       <c r="T177" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U177" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V177" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W177" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X177" s="15" t="s">
+      <c r="U177" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V177" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W177" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X177" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y177" s="10" t="s">
@@ -15624,7 +15595,7 @@
       <c r="N178" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O178" s="17" t="s">
+      <c r="O178" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P178" s="12" t="s">
@@ -15642,16 +15613,16 @@
       <c r="T178" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U178" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V178" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W178" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X178" s="15" t="s">
+      <c r="U178" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V178" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W178" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X178" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y178" s="10" t="s">
@@ -15701,7 +15672,7 @@
       <c r="N179" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O179" s="17" t="s">
+      <c r="O179" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P179" s="12" t="s">
@@ -15719,16 +15690,16 @@
       <c r="T179" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U179" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V179" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W179" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X179" s="15" t="s">
+      <c r="U179" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V179" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W179" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X179" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y179" s="10" t="s">
@@ -15778,7 +15749,7 @@
       <c r="N180" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O180" s="17" t="s">
+      <c r="O180" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P180" s="12" t="s">
@@ -15796,16 +15767,16 @@
       <c r="T180" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U180" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V180" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W180" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X180" s="15" t="s">
+      <c r="U180" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V180" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W180" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X180" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y180" s="10" t="s">
@@ -15855,7 +15826,7 @@
       <c r="N181" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O181" s="17" t="s">
+      <c r="O181" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P181" s="12" t="s">
@@ -15873,16 +15844,16 @@
       <c r="T181" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U181" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V181" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W181" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X181" s="15" t="s">
+      <c r="U181" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V181" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W181" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X181" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y181" s="10" t="s">
@@ -15932,7 +15903,7 @@
       <c r="N182" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O182" s="17" t="s">
+      <c r="O182" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P182" s="12" t="s">
@@ -15950,16 +15921,16 @@
       <c r="T182" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U182" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V182" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W182" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X182" s="15" t="s">
+      <c r="U182" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V182" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W182" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X182" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y182" s="10" t="s">
@@ -16009,7 +15980,7 @@
       <c r="N183" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O183" s="17" t="s">
+      <c r="O183" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P183" s="12" t="s">
@@ -16027,16 +15998,16 @@
       <c r="T183" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U183" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V183" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W183" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X183" s="15" t="s">
+      <c r="U183" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V183" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W183" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X183" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y183" s="10" t="s">
@@ -16086,7 +16057,7 @@
       <c r="N184" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O184" s="17" t="s">
+      <c r="O184" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P184" s="12" t="s">
@@ -16104,16 +16075,16 @@
       <c r="T184" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U184" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V184" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W184" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X184" s="15" t="s">
+      <c r="U184" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V184" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W184" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X184" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y184" s="10" t="s">
@@ -16163,7 +16134,7 @@
       <c r="N185" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O185" s="17" t="s">
+      <c r="O185" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P185" s="12" t="s">
@@ -16181,16 +16152,16 @@
       <c r="T185" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U185" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V185" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W185" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X185" s="15" t="s">
+      <c r="U185" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V185" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W185" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X185" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y185" s="10" t="s">
@@ -16240,7 +16211,7 @@
       <c r="N186" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O186" s="17" t="s">
+      <c r="O186" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P186" s="12" t="s">
@@ -16258,16 +16229,16 @@
       <c r="T186" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U186" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V186" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W186" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X186" s="15" t="s">
+      <c r="U186" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V186" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W186" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X186" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y186" s="10" t="s">
@@ -16317,7 +16288,7 @@
       <c r="N187" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O187" s="17" t="s">
+      <c r="O187" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P187" s="12" t="s">
@@ -16335,16 +16306,16 @@
       <c r="T187" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U187" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V187" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W187" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X187" s="15" t="s">
+      <c r="U187" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V187" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W187" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X187" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y187" s="10" t="s">
@@ -16394,7 +16365,7 @@
       <c r="N188" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O188" s="17" t="s">
+      <c r="O188" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P188" s="12" t="s">
@@ -16412,16 +16383,16 @@
       <c r="T188" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U188" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V188" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W188" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X188" s="15" t="s">
+      <c r="U188" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V188" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W188" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X188" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y188" s="10" t="s">
@@ -16471,7 +16442,7 @@
       <c r="N189" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O189" s="17" t="s">
+      <c r="O189" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P189" s="12" t="s">
@@ -16489,16 +16460,16 @@
       <c r="T189" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U189" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V189" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W189" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X189" s="15" t="s">
+      <c r="U189" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V189" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W189" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X189" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y189" s="10" t="s">
@@ -16548,7 +16519,7 @@
       <c r="N190" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O190" s="17" t="s">
+      <c r="O190" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P190" s="12" t="s">
@@ -16566,16 +16537,16 @@
       <c r="T190" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U190" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V190" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W190" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X190" s="15" t="s">
+      <c r="U190" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V190" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W190" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X190" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y190" s="10" t="s">
@@ -16625,7 +16596,7 @@
       <c r="N191" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O191" s="17" t="s">
+      <c r="O191" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P191" s="12" t="s">
@@ -16643,16 +16614,16 @@
       <c r="T191" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U191" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V191" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W191" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X191" s="15" t="s">
+      <c r="U191" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V191" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W191" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X191" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y191" s="10" t="s">
@@ -16702,7 +16673,7 @@
       <c r="N192" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O192" s="17" t="s">
+      <c r="O192" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P192" s="12" t="s">
@@ -16720,16 +16691,16 @@
       <c r="T192" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U192" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V192" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W192" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X192" s="15" t="s">
+      <c r="U192" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V192" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W192" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X192" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y192" s="10" t="s">
@@ -16779,7 +16750,7 @@
       <c r="N193" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O193" s="17" t="s">
+      <c r="O193" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P193" s="12" t="s">
@@ -16797,16 +16768,16 @@
       <c r="T193" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U193" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V193" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W193" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X193" s="15" t="s">
+      <c r="U193" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V193" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W193" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X193" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y193" s="10" t="s">
@@ -16856,7 +16827,7 @@
       <c r="N194" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O194" s="17" t="s">
+      <c r="O194" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P194" s="12" t="s">
@@ -16874,16 +16845,16 @@
       <c r="T194" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U194" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V194" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W194" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X194" s="15" t="s">
+      <c r="U194" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V194" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W194" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X194" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y194" s="10" t="s">
@@ -16933,7 +16904,7 @@
       <c r="N195" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O195" s="17" t="s">
+      <c r="O195" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P195" s="12" t="s">
@@ -16951,16 +16922,16 @@
       <c r="T195" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U195" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V195" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W195" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X195" s="15" t="s">
+      <c r="U195" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V195" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W195" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X195" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y195" s="10" t="s">
@@ -17010,7 +16981,7 @@
       <c r="N196" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O196" s="17" t="s">
+      <c r="O196" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P196" s="12" t="s">
@@ -17028,16 +16999,16 @@
       <c r="T196" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U196" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V196" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W196" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X196" s="15" t="s">
+      <c r="U196" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V196" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W196" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X196" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y196" s="10" t="s">
@@ -17087,7 +17058,7 @@
       <c r="N197" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O197" s="17" t="s">
+      <c r="O197" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P197" s="12" t="s">
@@ -17105,16 +17076,16 @@
       <c r="T197" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U197" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V197" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W197" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X197" s="15" t="s">
+      <c r="U197" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V197" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W197" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X197" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y197" s="10" t="s">
@@ -17164,7 +17135,7 @@
       <c r="N198" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O198" s="17" t="s">
+      <c r="O198" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P198" s="12" t="s">
@@ -17182,16 +17153,16 @@
       <c r="T198" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U198" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V198" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W198" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X198" s="15" t="s">
+      <c r="U198" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V198" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W198" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X198" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y198" s="10" t="s">
@@ -17241,7 +17212,7 @@
       <c r="N199" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O199" s="17" t="s">
+      <c r="O199" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P199" s="12" t="s">
@@ -17259,16 +17230,16 @@
       <c r="T199" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U199" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V199" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W199" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X199" s="15" t="s">
+      <c r="U199" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V199" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W199" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X199" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y199" s="10" t="s">
@@ -17318,7 +17289,7 @@
       <c r="N200" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O200" s="17" t="s">
+      <c r="O200" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P200" s="12" t="s">
@@ -17336,16 +17307,16 @@
       <c r="T200" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U200" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V200" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W200" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X200" s="15" t="s">
+      <c r="U200" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V200" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W200" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X200" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y200" s="10" t="s">
@@ -17395,7 +17366,7 @@
       <c r="N201" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O201" s="17" t="s">
+      <c r="O201" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P201" s="12" t="s">
@@ -17413,16 +17384,16 @@
       <c r="T201" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U201" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V201" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W201" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X201" s="15" t="s">
+      <c r="U201" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V201" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W201" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X201" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y201" s="10" t="s">
@@ -17472,7 +17443,7 @@
       <c r="N202" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O202" s="17" t="s">
+      <c r="O202" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P202" s="12" t="s">
@@ -17490,16 +17461,16 @@
       <c r="T202" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U202" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V202" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W202" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X202" s="15" t="s">
+      <c r="U202" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V202" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W202" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X202" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y202" s="10" t="s">
@@ -17549,7 +17520,7 @@
       <c r="N203" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O203" s="17" t="s">
+      <c r="O203" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P203" s="12" t="s">
@@ -17567,16 +17538,16 @@
       <c r="T203" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U203" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V203" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W203" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X203" s="15" t="s">
+      <c r="U203" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V203" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W203" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X203" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y203" s="10" t="s">
@@ -17626,7 +17597,7 @@
       <c r="N204" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O204" s="17" t="s">
+      <c r="O204" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P204" s="12" t="s">
@@ -17644,16 +17615,16 @@
       <c r="T204" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U204" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V204" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W204" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X204" s="15" t="s">
+      <c r="U204" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V204" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W204" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X204" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y204" s="10" t="s">
@@ -17703,7 +17674,7 @@
       <c r="N205" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O205" s="17" t="s">
+      <c r="O205" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P205" s="12" t="s">
@@ -17721,16 +17692,16 @@
       <c r="T205" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U205" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V205" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W205" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X205" s="15" t="s">
+      <c r="U205" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V205" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W205" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X205" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y205" s="10" t="s">
@@ -17780,7 +17751,7 @@
       <c r="N206" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O206" s="17" t="s">
+      <c r="O206" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P206" s="12" t="s">
@@ -17798,16 +17769,16 @@
       <c r="T206" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U206" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V206" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W206" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X206" s="15" t="s">
+      <c r="U206" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V206" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W206" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X206" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y206" s="10" t="s">
@@ -17857,7 +17828,7 @@
       <c r="N207" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O207" s="17" t="s">
+      <c r="O207" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P207" s="12" t="s">
@@ -17875,16 +17846,16 @@
       <c r="T207" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U207" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V207" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W207" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X207" s="15" t="s">
+      <c r="U207" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V207" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W207" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X207" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y207" s="10" t="s">
@@ -17934,7 +17905,7 @@
       <c r="N208" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O208" s="17" t="s">
+      <c r="O208" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P208" s="12" t="s">
@@ -17952,16 +17923,16 @@
       <c r="T208" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U208" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V208" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W208" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X208" s="15" t="s">
+      <c r="U208" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V208" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W208" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X208" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y208" s="10" t="s">
@@ -18011,7 +17982,7 @@
       <c r="N209" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O209" s="17" t="s">
+      <c r="O209" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P209" s="12" t="s">
@@ -18029,16 +18000,16 @@
       <c r="T209" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U209" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V209" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W209" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X209" s="15" t="s">
+      <c r="U209" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V209" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W209" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X209" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y209" s="10" t="s">
@@ -18088,7 +18059,7 @@
       <c r="N210" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O210" s="17" t="s">
+      <c r="O210" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P210" s="12" t="s">
@@ -18106,16 +18077,16 @@
       <c r="T210" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U210" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="V210" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W210" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X210" s="15" t="s">
+      <c r="U210" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="V210" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W210" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X210" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y210" s="10" t="s">
@@ -18165,7 +18136,7 @@
       <c r="N211" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O211" s="17" t="s">
+      <c r="O211" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P211" s="12" t="s">
@@ -18183,16 +18154,16 @@
       <c r="T211" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U211" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V211" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W211" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X211" s="15" t="s">
+      <c r="U211" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V211" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W211" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X211" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y211" s="10" t="s">
@@ -18242,7 +18213,7 @@
       <c r="N212" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O212" s="17" t="s">
+      <c r="O212" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P212" s="12" t="s">
@@ -18260,16 +18231,16 @@
       <c r="T212" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U212" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V212" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W212" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X212" s="15" t="s">
+      <c r="U212" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V212" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W212" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X212" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y212" s="10" t="s">
@@ -18319,7 +18290,7 @@
       <c r="N213" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O213" s="17" t="s">
+      <c r="O213" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P213" s="12" t="s">
@@ -18337,16 +18308,16 @@
       <c r="T213" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U213" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V213" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W213" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="X213" s="15" t="s">
+      <c r="U213" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V213" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W213" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="X213" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y213" s="10" t="s">
@@ -18396,7 +18367,7 @@
       <c r="N214" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O214" s="17" t="s">
+      <c r="O214" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P214" s="12" t="s">
@@ -18414,16 +18385,16 @@
       <c r="T214" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U214" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V214" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="W214" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X214" s="15" t="s">
+      <c r="U214" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V214" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="W214" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X214" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y214" s="10" t="s">
@@ -18473,7 +18444,7 @@
       <c r="N215" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O215" s="17" t="s">
+      <c r="O215" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P215" s="12" t="s">
@@ -18491,16 +18462,16 @@
       <c r="T215" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U215" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V215" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W215" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X215" s="15" t="s">
+      <c r="U215" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V215" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W215" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X215" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y215" s="10" t="s">
@@ -18550,7 +18521,7 @@
       <c r="N216" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O216" s="17" t="s">
+      <c r="O216" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P216" s="12" t="s">
@@ -18568,16 +18539,16 @@
       <c r="T216" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="U216" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V216" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W216" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X216" s="15" t="s">
+      <c r="U216" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V216" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W216" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X216" s="3" t="s">
         <v>441</v>
       </c>
       <c r="Y216" s="10" t="s">
@@ -18627,7 +18598,7 @@
       <c r="N217" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O217" s="17" t="s">
+      <c r="O217" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P217" s="12" t="s">
@@ -18645,16 +18616,16 @@
       <c r="T217" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U217" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V217" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W217" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X217" s="15" t="s">
+      <c r="U217" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V217" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W217" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X217" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y217" s="10" t="s">
@@ -18704,7 +18675,7 @@
       <c r="N218" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="O218" s="17" t="s">
+      <c r="O218" s="14" t="s">
         <v>441</v>
       </c>
       <c r="P218" s="12" t="s">
@@ -18722,16 +18693,16 @@
       <c r="T218" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="U218" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="V218" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="W218" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="X218" s="15" t="s">
+      <c r="U218" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V218" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="W218" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="X218" s="3" t="s">
         <v>440</v>
       </c>
       <c r="Y218" s="10" t="s">
@@ -18754,12 +18725,8 @@
       <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
       <c r="R219" s="3"/>
-      <c r="U219" s="15"/>
-      <c r="X219" s="15"/>
-    </row>
-    <row r="220" spans="1:25">
-      <c r="U220" s="16"/>
-      <c r="X220" s="16"/>
+      <c r="U219" s="3"/>
+      <c r="X219" s="3"/>
     </row>
     <row r="221" spans="1:25">
       <c r="B221" s="3"/>
@@ -18777,8 +18744,8 @@
       <c r="P221" s="3"/>
       <c r="Q221" s="3"/>
       <c r="R221" s="3"/>
-      <c r="U221" s="15"/>
-      <c r="X221" s="15"/>
+      <c r="U221" s="3"/>
+      <c r="X221" s="3"/>
     </row>
     <row r="222" spans="1:25">
       <c r="B222" s="7"/>
@@ -18796,8 +18763,8 @@
       <c r="P222" s="3"/>
       <c r="Q222" s="3"/>
       <c r="R222" s="3"/>
-      <c r="U222" s="15"/>
-      <c r="X222" s="15"/>
+      <c r="U222" s="3"/>
+      <c r="X222" s="3"/>
     </row>
     <row r="223" spans="1:25">
       <c r="B223" s="3"/>
@@ -18815,8 +18782,8 @@
       <c r="P223" s="3"/>
       <c r="Q223" s="3"/>
       <c r="R223" s="3"/>
-      <c r="U223" s="15"/>
-      <c r="X223" s="15"/>
+      <c r="U223" s="3"/>
+      <c r="X223" s="3"/>
     </row>
     <row r="224" spans="1:25">
       <c r="B224" s="7"/>
@@ -18834,8 +18801,8 @@
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
       <c r="R224" s="3"/>
-      <c r="U224" s="15"/>
-      <c r="X224" s="15"/>
+      <c r="U224" s="3"/>
+      <c r="X224" s="3"/>
     </row>
     <row r="225" spans="1:24">
       <c r="B225" s="7"/>
@@ -18853,8 +18820,8 @@
       <c r="P225" s="3"/>
       <c r="Q225" s="3"/>
       <c r="R225" s="3"/>
-      <c r="U225" s="15"/>
-      <c r="X225" s="15"/>
+      <c r="U225" s="3"/>
+      <c r="X225" s="3"/>
     </row>
     <row r="226" spans="1:24">
       <c r="B226" s="7"/>
@@ -18872,8 +18839,8 @@
       <c r="P226" s="3"/>
       <c r="Q226" s="3"/>
       <c r="R226" s="3"/>
-      <c r="U226" s="15"/>
-      <c r="X226" s="15"/>
+      <c r="U226" s="3"/>
+      <c r="X226" s="3"/>
     </row>
     <row r="227" spans="1:24">
       <c r="B227" s="7"/>
@@ -18891,8 +18858,8 @@
       <c r="P227" s="3"/>
       <c r="Q227" s="3"/>
       <c r="R227" s="3"/>
-      <c r="U227" s="15"/>
-      <c r="X227" s="15"/>
+      <c r="U227" s="3"/>
+      <c r="X227" s="3"/>
     </row>
     <row r="228" spans="1:24">
       <c r="B228" s="3"/>
@@ -18910,8 +18877,8 @@
       <c r="P228" s="3"/>
       <c r="Q228" s="3"/>
       <c r="R228" s="3"/>
-      <c r="U228" s="15"/>
-      <c r="X228" s="15"/>
+      <c r="U228" s="3"/>
+      <c r="X228" s="3"/>
     </row>
     <row r="229" spans="1:24">
       <c r="B229" s="7"/>
@@ -18929,8 +18896,8 @@
       <c r="P229" s="3"/>
       <c r="Q229" s="3"/>
       <c r="R229" s="3"/>
-      <c r="U229" s="15"/>
-      <c r="X229" s="15"/>
+      <c r="U229" s="3"/>
+      <c r="X229" s="3"/>
     </row>
     <row r="230" spans="1:24">
       <c r="B230" s="7"/>
@@ -18948,8 +18915,8 @@
       <c r="P230" s="3"/>
       <c r="Q230" s="3"/>
       <c r="R230" s="3"/>
-      <c r="U230" s="15"/>
-      <c r="X230" s="15"/>
+      <c r="U230" s="3"/>
+      <c r="X230" s="3"/>
     </row>
     <row r="231" spans="1:24">
       <c r="B231" s="7"/>
@@ -18967,8 +18934,8 @@
       <c r="P231" s="3"/>
       <c r="Q231" s="3"/>
       <c r="R231" s="3"/>
-      <c r="U231" s="15"/>
-      <c r="X231" s="15"/>
+      <c r="U231" s="3"/>
+      <c r="X231" s="3"/>
     </row>
     <row r="232" spans="1:24">
       <c r="B232" s="3"/>
@@ -18986,8 +18953,8 @@
       <c r="P232" s="3"/>
       <c r="Q232" s="3"/>
       <c r="R232" s="3"/>
-      <c r="U232" s="15"/>
-      <c r="X232" s="15"/>
+      <c r="U232" s="3"/>
+      <c r="X232" s="3"/>
     </row>
     <row r="233" spans="1:24">
       <c r="B233" s="7"/>
@@ -19005,8 +18972,8 @@
       <c r="P233" s="3"/>
       <c r="Q233" s="3"/>
       <c r="R233" s="3"/>
-      <c r="U233" s="15"/>
-      <c r="X233" s="15"/>
+      <c r="U233" s="3"/>
+      <c r="X233" s="3"/>
     </row>
     <row r="234" spans="1:24">
       <c r="A234" s="7"/>
@@ -19025,8 +18992,8 @@
       <c r="P234" s="3"/>
       <c r="Q234" s="3"/>
       <c r="R234" s="3"/>
-      <c r="U234" s="15"/>
-      <c r="X234" s="15"/>
+      <c r="U234" s="3"/>
+      <c r="X234" s="3"/>
     </row>
     <row r="235" spans="1:24">
       <c r="B235" s="7"/>
@@ -19044,8 +19011,8 @@
       <c r="P235" s="3"/>
       <c r="Q235" s="3"/>
       <c r="R235" s="3"/>
-      <c r="U235" s="15"/>
-      <c r="X235" s="15"/>
+      <c r="U235" s="3"/>
+      <c r="X235" s="3"/>
     </row>
     <row r="236" spans="1:24">
       <c r="B236" s="3"/>
@@ -19063,11 +19030,11 @@
       <c r="P236" s="3"/>
       <c r="Q236" s="3"/>
       <c r="R236" s="3"/>
-      <c r="U236" s="15"/>
-      <c r="X236" s="15"/>
+      <c r="U236" s="3"/>
+      <c r="X236" s="3"/>
     </row>
     <row r="237" spans="1:24">
-      <c r="A237" s="18"/>
+      <c r="A237" s="15"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -19083,11 +19050,11 @@
       <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
       <c r="R237" s="3"/>
-      <c r="U237" s="15"/>
-      <c r="X237" s="15"/>
+      <c r="U237" s="3"/>
+      <c r="X237" s="3"/>
     </row>
     <row r="238" spans="1:24">
-      <c r="A238" s="18"/>
+      <c r="A238" s="15"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -19103,11 +19070,11 @@
       <c r="P238" s="3"/>
       <c r="Q238" s="3"/>
       <c r="R238" s="3"/>
-      <c r="U238" s="15"/>
-      <c r="X238" s="15"/>
+      <c r="U238" s="3"/>
+      <c r="X238" s="3"/>
     </row>
     <row r="239" spans="1:24">
-      <c r="A239" s="18"/>
+      <c r="A239" s="15"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -19123,8 +19090,8 @@
       <c r="P239" s="3"/>
       <c r="Q239" s="3"/>
       <c r="R239" s="3"/>
-      <c r="U239" s="15"/>
-      <c r="X239" s="15"/>
+      <c r="U239" s="3"/>
+      <c r="X239" s="3"/>
     </row>
     <row r="240" spans="1:24">
       <c r="B240" s="7"/>
@@ -19142,8 +19109,8 @@
       <c r="P240" s="3"/>
       <c r="Q240" s="3"/>
       <c r="R240" s="3"/>
-      <c r="U240" s="15"/>
-      <c r="X240" s="15"/>
+      <c r="U240" s="3"/>
+      <c r="X240" s="3"/>
     </row>
     <row r="241" spans="1:24">
       <c r="B241" s="7"/>
@@ -19161,8 +19128,8 @@
       <c r="P241" s="3"/>
       <c r="Q241" s="3"/>
       <c r="R241" s="3"/>
-      <c r="U241" s="15"/>
-      <c r="X241" s="15"/>
+      <c r="U241" s="3"/>
+      <c r="X241" s="3"/>
     </row>
     <row r="242" spans="1:24">
       <c r="B242" s="7"/>
@@ -19180,8 +19147,8 @@
       <c r="P242" s="3"/>
       <c r="Q242" s="3"/>
       <c r="R242" s="3"/>
-      <c r="U242" s="15"/>
-      <c r="X242" s="15"/>
+      <c r="U242" s="3"/>
+      <c r="X242" s="3"/>
     </row>
     <row r="243" spans="1:24">
       <c r="A243" s="7"/>
@@ -19200,8 +19167,8 @@
       <c r="P243" s="3"/>
       <c r="Q243" s="3"/>
       <c r="R243" s="3"/>
-      <c r="U243" s="15"/>
-      <c r="X243" s="15"/>
+      <c r="U243" s="3"/>
+      <c r="X243" s="3"/>
     </row>
     <row r="244" spans="1:24">
       <c r="B244" s="5"/>
@@ -19219,8 +19186,8 @@
       <c r="P244" s="3"/>
       <c r="Q244" s="3"/>
       <c r="R244" s="3"/>
-      <c r="U244" s="15"/>
-      <c r="X244" s="15"/>
+      <c r="U244" s="3"/>
+      <c r="X244" s="3"/>
     </row>
     <row r="245" spans="1:24">
       <c r="B245" s="7"/>
@@ -19238,8 +19205,8 @@
       <c r="P245" s="3"/>
       <c r="Q245" s="3"/>
       <c r="R245" s="3"/>
-      <c r="U245" s="15"/>
-      <c r="X245" s="15"/>
+      <c r="U245" s="3"/>
+      <c r="X245" s="3"/>
     </row>
     <row r="246" spans="1:24">
       <c r="B246" s="7"/>
@@ -19257,8 +19224,8 @@
       <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
       <c r="R246" s="3"/>
-      <c r="U246" s="15"/>
-      <c r="X246" s="15"/>
+      <c r="U246" s="3"/>
+      <c r="X246" s="3"/>
     </row>
     <row r="247" spans="1:24">
       <c r="B247" s="3"/>
@@ -19276,8 +19243,8 @@
       <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
       <c r="R247" s="3"/>
-      <c r="U247" s="15"/>
-      <c r="X247" s="15"/>
+      <c r="U247" s="3"/>
+      <c r="X247" s="3"/>
     </row>
     <row r="248" spans="1:24">
       <c r="B248" s="7"/>
@@ -19295,8 +19262,8 @@
       <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
       <c r="R248" s="3"/>
-      <c r="U248" s="15"/>
-      <c r="X248" s="15"/>
+      <c r="U248" s="3"/>
+      <c r="X248" s="3"/>
     </row>
     <row r="249" spans="1:24">
       <c r="B249" s="7"/>
@@ -19314,8 +19281,8 @@
       <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
       <c r="R249" s="3"/>
-      <c r="U249" s="15"/>
-      <c r="X249" s="15"/>
+      <c r="U249" s="3"/>
+      <c r="X249" s="3"/>
     </row>
     <row r="250" spans="1:24">
       <c r="B250" s="3"/>
@@ -19333,8 +19300,8 @@
       <c r="P250" s="3"/>
       <c r="Q250" s="3"/>
       <c r="R250" s="3"/>
-      <c r="U250" s="15"/>
-      <c r="X250" s="15"/>
+      <c r="U250" s="3"/>
+      <c r="X250" s="3"/>
     </row>
     <row r="251" spans="1:24">
       <c r="B251" s="7"/>
@@ -19352,8 +19319,8 @@
       <c r="P251" s="3"/>
       <c r="Q251" s="3"/>
       <c r="R251" s="3"/>
-      <c r="U251" s="15"/>
-      <c r="X251" s="15"/>
+      <c r="U251" s="3"/>
+      <c r="X251" s="3"/>
     </row>
     <row r="252" spans="1:24">
       <c r="B252" s="3"/>
@@ -19371,10 +19338,8 @@
       <c r="P252" s="3"/>
       <c r="Q252" s="3"/>
       <c r="R252" s="3"/>
-      <c r="U252" s="15"/>
-      <c r="V252" s="16"/>
-      <c r="W252" s="16"/>
-      <c r="X252" s="15"/>
+      <c r="U252" s="3"/>
+      <c r="X252" s="3"/>
     </row>
     <row r="253" spans="1:24">
       <c r="B253" s="7"/>
@@ -19392,7 +19357,7 @@
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
       <c r="R253" s="3"/>
-      <c r="U253" s="15"/>
+      <c r="U253" s="3"/>
     </row>
     <row r="254" spans="1:24">
       <c r="B254" s="7"/>
@@ -19410,7 +19375,7 @@
       <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
       <c r="R254" s="3"/>
-      <c r="U254" s="15"/>
+      <c r="U254" s="3"/>
     </row>
     <row r="255" spans="1:24">
       <c r="B255" s="7"/>
@@ -19428,7 +19393,7 @@
       <c r="P255" s="3"/>
       <c r="Q255" s="3"/>
       <c r="R255" s="3"/>
-      <c r="U255" s="15"/>
+      <c r="U255" s="3"/>
     </row>
     <row r="256" spans="1:24">
       <c r="B256" s="5"/>
@@ -19446,7 +19411,7 @@
       <c r="P256" s="3"/>
       <c r="Q256" s="3"/>
       <c r="R256" s="3"/>
-      <c r="U256" s="15"/>
+      <c r="U256" s="3"/>
     </row>
     <row r="257" spans="1:24">
       <c r="B257" s="7"/>
@@ -19464,7 +19429,7 @@
       <c r="P257" s="3"/>
       <c r="Q257" s="3"/>
       <c r="R257" s="3"/>
-      <c r="U257" s="15"/>
+      <c r="U257" s="3"/>
     </row>
     <row r="258" spans="1:24">
       <c r="B258" s="7"/>
@@ -19482,7 +19447,7 @@
       <c r="P258" s="3"/>
       <c r="Q258" s="3"/>
       <c r="R258" s="3"/>
-      <c r="U258" s="15"/>
+      <c r="U258" s="3"/>
     </row>
     <row r="259" spans="1:24">
       <c r="B259" s="7"/>
@@ -19500,7 +19465,7 @@
       <c r="P259" s="3"/>
       <c r="Q259" s="3"/>
       <c r="R259" s="3"/>
-      <c r="U259" s="15"/>
+      <c r="U259" s="3"/>
     </row>
     <row r="260" spans="1:24">
       <c r="B260" s="7"/>
@@ -19518,7 +19483,7 @@
       <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
       <c r="R260" s="3"/>
-      <c r="U260" s="15"/>
+      <c r="U260" s="3"/>
     </row>
     <row r="261" spans="1:24">
       <c r="B261" s="3"/>
@@ -19536,7 +19501,7 @@
       <c r="P261" s="3"/>
       <c r="Q261" s="3"/>
       <c r="R261" s="3"/>
-      <c r="U261" s="15"/>
+      <c r="U261" s="3"/>
     </row>
     <row r="262" spans="1:24">
       <c r="B262" s="7"/>
@@ -19554,7 +19519,7 @@
       <c r="P262" s="3"/>
       <c r="Q262" s="3"/>
       <c r="R262" s="3"/>
-      <c r="U262" s="15"/>
+      <c r="U262" s="3"/>
     </row>
     <row r="263" spans="1:24">
       <c r="B263" s="7"/>
@@ -19572,7 +19537,7 @@
       <c r="P263" s="3"/>
       <c r="Q263" s="3"/>
       <c r="R263" s="3"/>
-      <c r="U263" s="15"/>
+      <c r="U263" s="3"/>
     </row>
     <row r="264" spans="1:24">
       <c r="B264" s="7"/>
@@ -19590,10 +19555,8 @@
       <c r="P264" s="3"/>
       <c r="Q264" s="3"/>
       <c r="R264" s="3"/>
-      <c r="U264" s="15"/>
-      <c r="V264" s="16"/>
-      <c r="W264" s="16"/>
-      <c r="X264" s="15"/>
+      <c r="U264" s="3"/>
+      <c r="X264" s="3"/>
     </row>
     <row r="265" spans="1:24">
       <c r="B265" s="7"/>
@@ -19611,10 +19574,8 @@
       <c r="P265" s="3"/>
       <c r="Q265" s="3"/>
       <c r="R265" s="3"/>
-      <c r="U265" s="15"/>
-      <c r="V265" s="16"/>
-      <c r="W265" s="16"/>
-      <c r="X265" s="15"/>
+      <c r="U265" s="3"/>
+      <c r="X265" s="3"/>
     </row>
     <row r="266" spans="1:24">
       <c r="B266" s="7"/>
@@ -19632,10 +19593,8 @@
       <c r="P266" s="3"/>
       <c r="Q266" s="3"/>
       <c r="R266" s="3"/>
-      <c r="U266" s="15"/>
-      <c r="V266" s="16"/>
-      <c r="W266" s="16"/>
-      <c r="X266" s="15"/>
+      <c r="U266" s="3"/>
+      <c r="X266" s="3"/>
     </row>
     <row r="267" spans="1:24">
       <c r="B267" s="7"/>
@@ -19653,10 +19612,8 @@
       <c r="P267" s="3"/>
       <c r="Q267" s="3"/>
       <c r="R267" s="3"/>
-      <c r="U267" s="15"/>
-      <c r="V267" s="16"/>
-      <c r="W267" s="16"/>
-      <c r="X267" s="15"/>
+      <c r="U267" s="3"/>
+      <c r="X267" s="3"/>
     </row>
     <row r="268" spans="1:24">
       <c r="B268" s="7"/>
@@ -19674,10 +19631,8 @@
       <c r="P268" s="3"/>
       <c r="Q268" s="3"/>
       <c r="R268" s="3"/>
-      <c r="U268" s="15"/>
-      <c r="V268" s="16"/>
-      <c r="W268" s="16"/>
-      <c r="X268" s="15"/>
+      <c r="U268" s="3"/>
+      <c r="X268" s="3"/>
     </row>
     <row r="269" spans="1:24">
       <c r="B269" s="7"/>
@@ -19695,10 +19650,8 @@
       <c r="P269" s="3"/>
       <c r="Q269" s="3"/>
       <c r="R269" s="3"/>
-      <c r="U269" s="15"/>
-      <c r="V269" s="16"/>
-      <c r="W269" s="16"/>
-      <c r="X269" s="15"/>
+      <c r="U269" s="3"/>
+      <c r="X269" s="3"/>
     </row>
     <row r="270" spans="1:24">
       <c r="B270" s="3"/>
@@ -19720,7 +19673,7 @@
       <c r="X270" s="3"/>
     </row>
     <row r="271" spans="1:24">
-      <c r="A271" s="18"/>
+      <c r="A271" s="15"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -20025,7 +19978,7 @@
       <c r="X286" s="3"/>
     </row>
     <row r="287" spans="1:24">
-      <c r="A287" s="18"/>
+      <c r="A287" s="15"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -20045,7 +19998,7 @@
       <c r="X287" s="3"/>
     </row>
     <row r="288" spans="1:24">
-      <c r="A288" s="18"/>
+      <c r="A288" s="15"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -20141,7 +20094,7 @@
       <c r="X292" s="3"/>
     </row>
     <row r="293" spans="1:24">
-      <c r="A293" s="18"/>
+      <c r="A293" s="15"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -20750,7 +20703,7 @@
       <c r="X324" s="3"/>
     </row>
     <row r="325" spans="1:24">
-      <c r="A325" s="19"/>
+      <c r="A325" s="16"/>
       <c r="B325" s="7"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
@@ -20790,7 +20743,7 @@
       <c r="X326" s="3"/>
     </row>
     <row r="327" spans="1:24">
-      <c r="A327" s="18"/>
+      <c r="A327" s="15"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
       <c r="D327" s="7"/>
@@ -20848,7 +20801,7 @@
       <c r="X329" s="3"/>
     </row>
     <row r="330" spans="1:24">
-      <c r="A330" s="18"/>
+      <c r="A330" s="15"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
       <c r="D330" s="7"/>
@@ -20868,7 +20821,7 @@
       <c r="X330" s="3"/>
     </row>
     <row r="331" spans="1:24">
-      <c r="A331" s="18"/>
+      <c r="A331" s="15"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -32931,21 +32884,16 @@
       <c r="X1000" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q218">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q218">
-      <sortCondition ref="A1:A218"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C266"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B266"/>
   <sheetViews>
     <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E65536"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -32955,7 +32903,7 @@
     <col min="7" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>287</v>
       </c>
@@ -32963,22 +32911,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>202</v>
       </c>
-      <c r="C2" t="e" cm="1">
-        <f t="array" ref="C2">if</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>378</v>
       </c>
@@ -32986,10 +32930,10 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="13"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -32997,7 +32941,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -33005,7 +32949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>435</v>
       </c>
@@ -33013,10 +32957,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -33024,7 +32968,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>297</v>
       </c>
@@ -33032,7 +32976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -33040,7 +32984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -33048,7 +32992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>296</v>
       </c>
@@ -33056,7 +33000,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -33064,7 +33008,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -34845,7 +34789,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B266">
+  <autoFilter ref="A1:B266" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B266">
       <sortCondition ref="A1:A266"/>
     </sortState>
@@ -34856,10 +34800,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+    <sheetView zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
       <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
@@ -36653,7 +36597,7 @@
       <c r="C331" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B267">
+  <autoFilter ref="A1:B267" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B267">
       <sortCondition ref="B1:B267"/>
     </sortState>

--- a/flask_auth_app/backupdb.xlsx
+++ b/flask_auth_app/backupdb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zach/Desktop/Aus/UWA/CITS3403/Project/Project 2/Akinator-clone/flask_auth_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ACF8F4-BF86-F44A-B391-FA1C91DD9D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D53F15-55B2-E849-BEB7-BE779DF4AB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="completeData" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6321" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6322" uniqueCount="469">
   <si>
     <t>Iraq</t>
   </si>
@@ -1444,6 +1444,9 @@
   </si>
   <si>
     <t>greater than 100000 sq. km but smaller than 1000000 sq. km?</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -1899,11 +1902,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15"/>
@@ -32892,8 +32895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B266"/>
   <sheetViews>
-    <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -34703,6 +34706,9 @@
     <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>188</v>
+      </c>
+      <c r="B255" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="256" spans="1:2">

--- a/flask_auth_app/backupdb.xlsx
+++ b/flask_auth_app/backupdb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zach/Desktop/Aus/UWA/CITS3403/Project/Project 2/Akinator-clone/flask_auth_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D53F15-55B2-E849-BEB7-BE779DF4AB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B4ACC0-9234-674D-B413-8ABC840667F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="completeData" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">completeData!$A$1:$Q$218</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">countryCode!$A$1:$B$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">countryCode!$A$1:$D$218</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Format!$A$1:$B$266</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6322" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7194" uniqueCount="474">
   <si>
     <t>Iraq</t>
   </si>
@@ -1447,6 +1447,21 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>a coastal country?</t>
+  </si>
+  <si>
+    <t>coastal</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>an island?</t>
   </si>
 </sst>
 </file>
@@ -1900,13 +1915,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B199" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomRight" activeCell="AB209" sqref="AB209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15"/>
@@ -1920,13 +1935,12 @@
     <col min="20" max="20" width="11" style="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.6640625" style="10"/>
     <col min="22" max="23" width="17.5" style="10" customWidth="1"/>
-    <col min="24" max="26" width="12.6640625" style="10"/>
-    <col min="27" max="27" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="12.6640625" style="10"/>
+    <col min="24" max="25" width="12.6640625" style="10"/>
+    <col min="26" max="26" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="12.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>442</v>
       </c>
@@ -2002,8 +2016,15 @@
       <c r="Y1" s="10" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z1" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD1" s="14"/>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -2079,8 +2100,15 @@
       <c r="Y2" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z2" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD2" s="14"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>378</v>
       </c>
@@ -2156,8 +2184,15 @@
       <c r="Y3" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z3" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD3" s="14"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -2233,8 +2268,15 @@
       <c r="Y4" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD4" s="14"/>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="10" t="s">
         <v>268</v>
       </c>
@@ -2310,8 +2352,15 @@
       <c r="Y5" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z5" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD5" s="14"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>435</v>
       </c>
@@ -2387,8 +2436,15 @@
       <c r="Y6" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z6" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD6" s="14"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>127</v>
       </c>
@@ -2464,8 +2520,15 @@
       <c r="Y7" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z7" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD7" s="14"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>297</v>
       </c>
@@ -2541,8 +2604,15 @@
       <c r="Y8" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z8" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD8" s="14"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>168</v>
       </c>
@@ -2618,8 +2688,15 @@
       <c r="Y9" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z9" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD9" s="14"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>208</v>
       </c>
@@ -2695,8 +2772,15 @@
       <c r="Y10" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z10" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD10" s="14"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>296</v>
       </c>
@@ -2772,8 +2856,15 @@
       <c r="Y11" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z11" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD11" s="14"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>178</v>
       </c>
@@ -2849,8 +2940,15 @@
       <c r="Y12" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z12" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD12" s="14"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>209</v>
       </c>
@@ -2926,8 +3024,15 @@
       <c r="Y13" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z13" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD13" s="14"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>316</v>
       </c>
@@ -3003,8 +3108,15 @@
       <c r="Y14" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z14" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA14" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD14" s="14"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>328</v>
       </c>
@@ -3080,8 +3192,15 @@
       <c r="Y15" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z15" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD15" s="14"/>
+    </row>
+    <row r="16" spans="1:30" ht="15.75" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -3157,8 +3276,15 @@
       <c r="Y16" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z16" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA16" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD16" s="14"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>197</v>
       </c>
@@ -3234,8 +3360,15 @@
       <c r="Y17" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z17" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD17" s="14"/>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>269</v>
       </c>
@@ -3311,8 +3444,15 @@
       <c r="Y18" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z18" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA18" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD18" s="14"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>92</v>
       </c>
@@ -3388,8 +3528,15 @@
       <c r="Y19" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z19" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA19" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD19" s="14"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>93</v>
       </c>
@@ -3465,8 +3612,15 @@
       <c r="Y20" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z20" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA20" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD20" s="14"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>43</v>
       </c>
@@ -3542,8 +3696,15 @@
       <c r="Y21" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z21" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA21" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD21" s="14"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>173</v>
       </c>
@@ -3619,8 +3780,15 @@
       <c r="Y22" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z22" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA22" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD22" s="14"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>333</v>
       </c>
@@ -3696,8 +3864,15 @@
       <c r="Y23" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z23" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA23" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD23" s="14"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>131</v>
       </c>
@@ -3773,8 +3948,15 @@
       <c r="Y24" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z24" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA24" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD24" s="14"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>171</v>
       </c>
@@ -3850,8 +4032,15 @@
       <c r="Y25" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1">
+      <c r="Z25" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA25" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD25" s="14"/>
+    </row>
+    <row r="26" spans="1:30" ht="15" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>384</v>
       </c>
@@ -3927,8 +4116,15 @@
       <c r="Y26" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" ht="14" customHeight="1">
+      <c r="Z26" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA26" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD26" s="14"/>
+    </row>
+    <row r="27" spans="1:30" ht="14" customHeight="1">
       <c r="A27" s="10" t="s">
         <v>309</v>
       </c>
@@ -4004,8 +4200,15 @@
       <c r="Y27" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1">
+      <c r="Z27" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA27" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD27" s="14"/>
+    </row>
+    <row r="28" spans="1:30" ht="15" customHeight="1">
       <c r="A28" s="10" t="s">
         <v>195</v>
       </c>
@@ -4081,8 +4284,15 @@
       <c r="Y28" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA28" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD28" s="14"/>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="10" t="s">
         <v>229</v>
       </c>
@@ -4158,8 +4368,15 @@
       <c r="Y29" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z29" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA29" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD29" s="14"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>81</v>
       </c>
@@ -4235,8 +4452,15 @@
       <c r="Y30" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z30" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA30" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD30" s="14"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" customHeight="1">
       <c r="A31" s="10" t="s">
         <v>76</v>
       </c>
@@ -4312,8 +4536,15 @@
       <c r="Y31" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z31" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA31" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD31" s="14"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
         <v>233</v>
       </c>
@@ -4389,8 +4620,15 @@
       <c r="Y32" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z32" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA32" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD32" s="14"/>
+    </row>
+    <row r="33" spans="1:30" ht="15.75" customHeight="1">
       <c r="A33" s="10" t="s">
         <v>290</v>
       </c>
@@ -4466,8 +4704,15 @@
       <c r="Y33" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA33" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD33" s="14"/>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="10" t="s">
         <v>340</v>
       </c>
@@ -4543,8 +4788,15 @@
       <c r="Y34" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z34" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA34" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD34" s="14"/>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>390</v>
       </c>
@@ -4620,8 +4872,15 @@
       <c r="Y35" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z35" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA35" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD35" s="14"/>
+    </row>
+    <row r="36" spans="1:30" ht="15.75" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>185</v>
       </c>
@@ -4697,8 +4956,15 @@
       <c r="Y36" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z36" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA36" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD36" s="14"/>
+    </row>
+    <row r="37" spans="1:30" ht="15.75" customHeight="1">
       <c r="A37" s="10" t="s">
         <v>394</v>
       </c>
@@ -4774,8 +5040,15 @@
       <c r="Y37" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA37" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD37" s="14"/>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" s="10" t="s">
         <v>114</v>
       </c>
@@ -4851,8 +5124,15 @@
       <c r="Y38" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA38" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD38" s="14"/>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" s="10" t="s">
         <v>194</v>
       </c>
@@ -4928,8 +5208,15 @@
       <c r="Y39" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA39" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD39" s="14"/>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" s="10" t="s">
         <v>48</v>
       </c>
@@ -5005,8 +5292,15 @@
       <c r="Y40" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA40" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD40" s="14"/>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" s="10" t="s">
         <v>133</v>
       </c>
@@ -5082,8 +5376,15 @@
       <c r="Y41" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA41" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD41" s="14"/>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" s="10" t="s">
         <v>238</v>
       </c>
@@ -5159,8 +5460,15 @@
       <c r="Y42" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA42" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD42" s="14"/>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" s="10" t="s">
         <v>176</v>
       </c>
@@ -5236,8 +5544,15 @@
       <c r="Y43" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA43" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD43" s="14"/>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" s="10" t="s">
         <v>207</v>
       </c>
@@ -5313,8 +5628,15 @@
       <c r="Y44" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA44" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD44" s="14"/>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" s="10" t="s">
         <v>344</v>
       </c>
@@ -5390,8 +5712,15 @@
       <c r="Y45" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA45" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD45" s="14"/>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
@@ -5467,8 +5796,15 @@
       <c r="Y46" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA46" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD46" s="14"/>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" s="10" t="s">
         <v>147</v>
       </c>
@@ -5544,8 +5880,15 @@
       <c r="Y47" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA47" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD47" s="14"/>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" s="10" t="s">
         <v>63</v>
       </c>
@@ -5621,8 +5964,15 @@
       <c r="Y48" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA48" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD48" s="14"/>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" s="10" t="s">
         <v>392</v>
       </c>
@@ -5698,8 +6048,15 @@
       <c r="Y49" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA49" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD49" s="14"/>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" s="10" t="s">
         <v>148</v>
       </c>
@@ -5775,8 +6132,15 @@
       <c r="Y50" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA50" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD50" s="14"/>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" s="10" t="s">
         <v>402</v>
       </c>
@@ -5852,8 +6216,15 @@
       <c r="Y51" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA51" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD51" s="14"/>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" s="10" t="s">
         <v>288</v>
       </c>
@@ -5929,8 +6300,15 @@
       <c r="Y52" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA52" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD52" s="14"/>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" s="10" t="s">
         <v>142</v>
       </c>
@@ -6006,8 +6384,15 @@
       <c r="Y53" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA53" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD53" s="14"/>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" s="10" t="s">
         <v>154</v>
       </c>
@@ -6083,8 +6468,15 @@
       <c r="Y54" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA54" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD54" s="14"/>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" s="10" t="s">
         <v>318</v>
       </c>
@@ -6160,8 +6552,15 @@
       <c r="Y55" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA55" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD55" s="14"/>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" s="10" t="s">
         <v>427</v>
       </c>
@@ -6237,8 +6636,15 @@
       <c r="Y56" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA56" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD56" s="14"/>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" s="10" t="s">
         <v>18</v>
       </c>
@@ -6314,8 +6720,15 @@
       <c r="Y57" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA57" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD57" s="14"/>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" s="10" t="s">
         <v>69</v>
       </c>
@@ -6391,8 +6804,15 @@
       <c r="Y58" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA58" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD58" s="14"/>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" s="10" t="s">
         <v>405</v>
       </c>
@@ -6468,8 +6888,15 @@
       <c r="Y59" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA59" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD59" s="14"/>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" s="10" t="s">
         <v>105</v>
       </c>
@@ -6545,8 +6972,15 @@
       <c r="Y60" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA60" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD60" s="14"/>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" s="10" t="s">
         <v>146</v>
       </c>
@@ -6622,8 +7056,15 @@
       <c r="Y61" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA61" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD61" s="14"/>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" s="10" t="s">
         <v>396</v>
       </c>
@@ -6699,8 +7140,15 @@
       <c r="Y62" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="Z62" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA62" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD62" s="14"/>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" s="10" t="s">
         <v>65</v>
       </c>
@@ -6776,8 +7224,15 @@
       <c r="Y63" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA63" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD63" s="14"/>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" s="10" t="s">
         <v>16</v>
       </c>
@@ -6853,8 +7308,15 @@
       <c r="Y64" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA64" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD64" s="14"/>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" s="10" t="s">
         <v>226</v>
       </c>
@@ -6930,8 +7392,15 @@
       <c r="Y65" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA65" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD65" s="14"/>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" s="10" t="s">
         <v>377</v>
       </c>
@@ -7007,8 +7476,15 @@
       <c r="Y66" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA66" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD66" s="14"/>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" s="10" t="s">
         <v>277</v>
       </c>
@@ -7084,8 +7560,15 @@
       <c r="Y67" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA67" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD67" s="14"/>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" s="10" t="s">
         <v>163</v>
       </c>
@@ -7161,8 +7644,15 @@
       <c r="Y68" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Z68" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA68" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD68" s="14"/>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" s="10" t="s">
         <v>215</v>
       </c>
@@ -7238,8 +7728,15 @@
       <c r="Y69" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="Z69" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA69" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD69" s="14"/>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" s="10" t="s">
         <v>357</v>
       </c>
@@ -7315,8 +7812,15 @@
       <c r="Y70" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="Z70" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA70" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD70" s="14"/>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" s="10" t="s">
         <v>273</v>
       </c>
@@ -7392,8 +7896,15 @@
       <c r="Y71" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="Z71" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA71" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD71" s="14"/>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" s="10" t="s">
         <v>329</v>
       </c>
@@ -7469,8 +7980,15 @@
       <c r="Y72" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="Z72" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA72" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD72" s="14"/>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" s="10" t="s">
         <v>411</v>
       </c>
@@ -7546,8 +8064,15 @@
       <c r="Y73" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="Z73" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA73" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD73" s="14"/>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" s="10" t="s">
         <v>346</v>
       </c>
@@ -7623,8 +8148,15 @@
       <c r="Y74" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="Z74" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA74" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD74" s="14"/>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" s="10" t="s">
         <v>53</v>
       </c>
@@ -7700,8 +8232,15 @@
       <c r="Y75" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="Z75" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA75" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD75" s="14"/>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" s="10" t="s">
         <v>99</v>
       </c>
@@ -7777,8 +8316,15 @@
       <c r="Y76" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="Z76" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA76" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD76" s="14"/>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" s="10" t="s">
         <v>136</v>
       </c>
@@ -7854,8 +8400,15 @@
       <c r="Y77" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="78" spans="1:25">
+      <c r="Z77" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA77" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD77" s="14"/>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" s="10" t="s">
         <v>326</v>
       </c>
@@ -7931,8 +8484,15 @@
       <c r="Y78" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="79" spans="1:25">
+      <c r="Z78" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA78" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD78" s="14"/>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" s="10" t="s">
         <v>364</v>
       </c>
@@ -8008,8 +8568,15 @@
       <c r="Y79" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="80" spans="1:25">
+      <c r="Z79" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA79" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD79" s="14"/>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" s="10" t="s">
         <v>398</v>
       </c>
@@ -8085,8 +8652,15 @@
       <c r="Y80" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="81" spans="1:25">
+      <c r="Z80" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA80" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD80" s="14"/>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" s="10" t="s">
         <v>86</v>
       </c>
@@ -8162,8 +8736,15 @@
       <c r="Y81" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="82" spans="1:25">
+      <c r="Z81" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA81" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD81" s="14"/>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" s="10" t="s">
         <v>23</v>
       </c>
@@ -8239,8 +8820,15 @@
       <c r="Y82" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="83" spans="1:25">
+      <c r="Z82" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA82" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD82" s="14"/>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" s="10" t="s">
         <v>320</v>
       </c>
@@ -8316,8 +8904,15 @@
       <c r="Y83" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="84" spans="1:25">
+      <c r="Z83" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA83" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD83" s="14"/>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" s="10" t="s">
         <v>196</v>
       </c>
@@ -8393,8 +8988,15 @@
       <c r="Y84" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="Z84" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA84" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD84" s="14"/>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" s="10" t="s">
         <v>40</v>
       </c>
@@ -8470,8 +9072,15 @@
       <c r="Y85" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="86" spans="1:25">
+      <c r="Z85" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA85" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD85" s="14"/>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" s="10" t="s">
         <v>376</v>
       </c>
@@ -8547,8 +9156,15 @@
       <c r="Y86" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="87" spans="1:25">
+      <c r="Z86" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA86" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD86" s="14"/>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" s="10" t="s">
         <v>57</v>
       </c>
@@ -8624,8 +9240,15 @@
       <c r="Y87" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="88" spans="1:25">
+      <c r="Z87" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA87" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD87" s="14"/>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" s="10" t="s">
         <v>383</v>
       </c>
@@ -8701,8 +9324,15 @@
       <c r="Y88" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="89" spans="1:25">
+      <c r="Z88" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA88" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD88" s="14"/>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" s="10" t="s">
         <v>280</v>
       </c>
@@ -8778,8 +9408,15 @@
       <c r="Y89" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="Z89" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA89" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD89" s="14"/>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" s="10" t="s">
         <v>72</v>
       </c>
@@ -8855,8 +9492,15 @@
       <c r="Y90" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="Z90" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA90" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD90" s="14"/>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" s="10" t="s">
         <v>362</v>
       </c>
@@ -8932,8 +9576,15 @@
       <c r="Y91" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="92" spans="1:25">
+      <c r="Z91" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA91" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD91" s="14"/>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" s="10" t="s">
         <v>35</v>
       </c>
@@ -9009,8 +9660,15 @@
       <c r="Y92" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="Z92" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA92" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD92" s="14"/>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" s="10" t="s">
         <v>110</v>
       </c>
@@ -9086,8 +9744,15 @@
       <c r="Y93" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="94" spans="1:25">
+      <c r="Z93" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA93" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD93" s="14"/>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" s="10" t="s">
         <v>323</v>
       </c>
@@ -9163,8 +9828,15 @@
       <c r="Y94" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="95" spans="1:25">
+      <c r="Z94" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA94" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD94" s="14"/>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95" s="10" t="s">
         <v>89</v>
       </c>
@@ -9240,8 +9912,15 @@
       <c r="Y95" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="96" spans="1:25">
+      <c r="Z95" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA95" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD95" s="14"/>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96" s="10" t="s">
         <v>404</v>
       </c>
@@ -9317,8 +9996,15 @@
       <c r="Y96" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="97" spans="1:25">
+      <c r="Z96" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA96" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD96" s="14"/>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97" s="10" t="s">
         <v>341</v>
       </c>
@@ -9394,8 +10080,15 @@
       <c r="Y97" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="98" spans="1:25">
+      <c r="Z97" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA97" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD97" s="14"/>
+    </row>
+    <row r="98" spans="1:30">
       <c r="A98" s="10" t="s">
         <v>423</v>
       </c>
@@ -9471,8 +10164,15 @@
       <c r="Y98" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="99" spans="1:25">
+      <c r="Z98" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA98" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD98" s="14"/>
+    </row>
+    <row r="99" spans="1:30">
       <c r="A99" s="10" t="s">
         <v>180</v>
       </c>
@@ -9548,8 +10248,15 @@
       <c r="Y99" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="100" spans="1:25">
+      <c r="Z99" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA99" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD99" s="14"/>
+    </row>
+    <row r="100" spans="1:30">
       <c r="A100" s="10" t="s">
         <v>342</v>
       </c>
@@ -9625,8 +10332,15 @@
       <c r="Y100" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="101" spans="1:25">
+      <c r="Z100" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA100" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD100" s="14"/>
+    </row>
+    <row r="101" spans="1:30">
       <c r="A101" s="10" t="s">
         <v>167</v>
       </c>
@@ -9702,8 +10416,15 @@
       <c r="Y101" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="102" spans="1:25">
+      <c r="Z101" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA101" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD101" s="14"/>
+    </row>
+    <row r="102" spans="1:30">
       <c r="A102" s="10" t="s">
         <v>420</v>
       </c>
@@ -9779,8 +10500,15 @@
       <c r="Y102" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="103" spans="1:25">
+      <c r="Z102" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA102" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD102" s="14"/>
+    </row>
+    <row r="103" spans="1:30">
       <c r="A103" s="10" t="s">
         <v>246</v>
       </c>
@@ -9856,8 +10584,15 @@
       <c r="Y103" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="104" spans="1:25">
+      <c r="Z103" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA103" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD103" s="14"/>
+    </row>
+    <row r="104" spans="1:30">
       <c r="A104" s="10" t="s">
         <v>426</v>
       </c>
@@ -9933,8 +10668,15 @@
       <c r="Y104" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="105" spans="1:25">
+      <c r="Z104" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA104" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD104" s="14"/>
+    </row>
+    <row r="105" spans="1:30">
       <c r="A105" s="10" t="s">
         <v>315</v>
       </c>
@@ -10010,8 +10752,15 @@
       <c r="Y105" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="106" spans="1:25">
+      <c r="Z105" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA105" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD105" s="14"/>
+    </row>
+    <row r="106" spans="1:30">
       <c r="A106" s="10" t="s">
         <v>227</v>
       </c>
@@ -10087,8 +10836,15 @@
       <c r="Y106" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="107" spans="1:25">
+      <c r="Z106" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA106" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD106" s="14"/>
+    </row>
+    <row r="107" spans="1:30">
       <c r="A107" s="10" t="s">
         <v>401</v>
       </c>
@@ -10164,8 +10920,15 @@
       <c r="Y107" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="108" spans="1:25">
+      <c r="Z107" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA107" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD107" s="14"/>
+    </row>
+    <row r="108" spans="1:30">
       <c r="A108" s="10" t="s">
         <v>303</v>
       </c>
@@ -10241,8 +11004,15 @@
       <c r="Y108" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="109" spans="1:25">
+      <c r="Z108" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA108" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD108" s="14"/>
+    </row>
+    <row r="109" spans="1:30">
       <c r="A109" s="10" t="s">
         <v>137</v>
       </c>
@@ -10318,8 +11088,15 @@
       <c r="Y109" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="110" spans="1:25">
+      <c r="Z109" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA109" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD109" s="14"/>
+    </row>
+    <row r="110" spans="1:30">
       <c r="A110" s="10" t="s">
         <v>153</v>
       </c>
@@ -10395,8 +11172,15 @@
       <c r="Y110" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="111" spans="1:25">
+      <c r="Z110" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA110" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD110" s="14"/>
+    </row>
+    <row r="111" spans="1:30">
       <c r="A111" s="10" t="s">
         <v>397</v>
       </c>
@@ -10472,8 +11256,15 @@
       <c r="Y111" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="112" spans="1:25">
+      <c r="Z111" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA111" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD111" s="14"/>
+    </row>
+    <row r="112" spans="1:30">
       <c r="A112" s="10" t="s">
         <v>400</v>
       </c>
@@ -10549,8 +11340,15 @@
       <c r="Y112" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="113" spans="1:25">
+      <c r="Z112" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA112" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD112" s="14"/>
+    </row>
+    <row r="113" spans="1:30">
       <c r="A113" s="10" t="s">
         <v>221</v>
       </c>
@@ -10626,8 +11424,15 @@
       <c r="Y113" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="114" spans="1:25">
+      <c r="Z113" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA113" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD113" s="14"/>
+    </row>
+    <row r="114" spans="1:30">
       <c r="A114" s="10" t="s">
         <v>205</v>
       </c>
@@ -10703,8 +11508,15 @@
       <c r="Y114" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="115" spans="1:25">
+      <c r="Z114" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA114" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD114" s="14"/>
+    </row>
+    <row r="115" spans="1:30">
       <c r="A115" s="10" t="s">
         <v>414</v>
       </c>
@@ -10780,8 +11592,15 @@
       <c r="Y115" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="116" spans="1:25">
+      <c r="Z115" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA115" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD115" s="14"/>
+    </row>
+    <row r="116" spans="1:30">
       <c r="A116" s="10" t="s">
         <v>149</v>
       </c>
@@ -10857,8 +11676,15 @@
       <c r="Y116" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="117" spans="1:25">
+      <c r="Z116" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA116" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD116" s="14"/>
+    </row>
+    <row r="117" spans="1:30">
       <c r="A117" s="10" t="s">
         <v>71</v>
       </c>
@@ -10934,8 +11760,15 @@
       <c r="Y117" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="118" spans="1:25">
+      <c r="Z117" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA117" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD117" s="14"/>
+    </row>
+    <row r="118" spans="1:30">
       <c r="A118" s="10" t="s">
         <v>327</v>
       </c>
@@ -11011,8 +11844,15 @@
       <c r="Y118" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="119" spans="1:25">
+      <c r="Z118" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA118" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD118" s="14"/>
+    </row>
+    <row r="119" spans="1:30">
       <c r="A119" s="10" t="s">
         <v>275</v>
       </c>
@@ -11088,8 +11928,15 @@
       <c r="Y119" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="120" spans="1:25">
+      <c r="Z119" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA119" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD119" s="14"/>
+    </row>
+    <row r="120" spans="1:30">
       <c r="A120" s="10" t="s">
         <v>177</v>
       </c>
@@ -11165,8 +12012,15 @@
       <c r="Y120" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="121" spans="1:25">
+      <c r="Z120" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA120" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD120" s="14"/>
+    </row>
+    <row r="121" spans="1:30">
       <c r="A121" s="10" t="s">
         <v>278</v>
       </c>
@@ -11242,8 +12096,15 @@
       <c r="Y121" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="122" spans="1:25">
+      <c r="Z121" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA121" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD121" s="14"/>
+    </row>
+    <row r="122" spans="1:30">
       <c r="A122" s="10" t="s">
         <v>122</v>
       </c>
@@ -11319,8 +12180,15 @@
       <c r="Y122" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="123" spans="1:25">
+      <c r="Z122" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA122" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD122" s="14"/>
+    </row>
+    <row r="123" spans="1:30">
       <c r="A123" s="10" t="s">
         <v>4</v>
       </c>
@@ -11396,8 +12264,15 @@
       <c r="Y123" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="124" spans="1:25">
+      <c r="Z123" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA123" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD123" s="14"/>
+    </row>
+    <row r="124" spans="1:30">
       <c r="A124" s="10" t="s">
         <v>55</v>
       </c>
@@ -11473,8 +12348,15 @@
       <c r="Y124" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="125" spans="1:25">
+      <c r="Z124" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA124" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD124" s="14"/>
+    </row>
+    <row r="125" spans="1:30">
       <c r="A125" s="10" t="s">
         <v>10</v>
       </c>
@@ -11550,8 +12432,15 @@
       <c r="Y125" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="126" spans="1:25">
+      <c r="Z125" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA125" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD125" s="14"/>
+    </row>
+    <row r="126" spans="1:30">
       <c r="A126" s="10" t="s">
         <v>60</v>
       </c>
@@ -11627,8 +12516,15 @@
       <c r="Y126" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="127" spans="1:25">
+      <c r="Z126" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA126" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD126" s="14"/>
+    </row>
+    <row r="127" spans="1:30">
       <c r="A127" s="10" t="s">
         <v>179</v>
       </c>
@@ -11704,8 +12600,15 @@
       <c r="Y127" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="128" spans="1:25">
+      <c r="Z127" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA127" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD127" s="14"/>
+    </row>
+    <row r="128" spans="1:30">
       <c r="A128" s="10" t="s">
         <v>385</v>
       </c>
@@ -11781,8 +12684,15 @@
       <c r="Y128" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="129" spans="1:25">
+      <c r="Z128" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA128" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD128" s="14"/>
+    </row>
+    <row r="129" spans="1:30">
       <c r="A129" s="10" t="s">
         <v>393</v>
       </c>
@@ -11858,8 +12768,15 @@
       <c r="Y129" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="130" spans="1:25">
+      <c r="Z129" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA129" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD129" s="14"/>
+    </row>
+    <row r="130" spans="1:30">
       <c r="A130" s="10" t="s">
         <v>369</v>
       </c>
@@ -11935,8 +12852,15 @@
       <c r="Y130" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="131" spans="1:25">
+      <c r="Z130" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA130" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD130" s="14"/>
+    </row>
+    <row r="131" spans="1:30">
       <c r="A131" s="10" t="s">
         <v>73</v>
       </c>
@@ -12012,8 +12936,15 @@
       <c r="Y131" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="132" spans="1:25">
+      <c r="Z131" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA131" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD131" s="14"/>
+    </row>
+    <row r="132" spans="1:30">
       <c r="A132" s="10" t="s">
         <v>42</v>
       </c>
@@ -12089,8 +13020,15 @@
       <c r="Y132" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="133" spans="1:25">
+      <c r="Z132" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA132" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD132" s="14"/>
+    </row>
+    <row r="133" spans="1:30">
       <c r="A133" s="10" t="s">
         <v>120</v>
       </c>
@@ -12166,8 +13104,15 @@
       <c r="Y133" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="134" spans="1:25">
+      <c r="Z133" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA133" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD133" s="14"/>
+    </row>
+    <row r="134" spans="1:30">
       <c r="A134" s="10" t="s">
         <v>282</v>
       </c>
@@ -12243,8 +13188,15 @@
       <c r="Y134" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="135" spans="1:25">
+      <c r="Z134" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA134" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD134" s="14"/>
+    </row>
+    <row r="135" spans="1:30">
       <c r="A135" s="10" t="s">
         <v>370</v>
       </c>
@@ -12320,8 +13272,15 @@
       <c r="Y135" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="136" spans="1:25">
+      <c r="Z135" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA135" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD135" s="14"/>
+    </row>
+    <row r="136" spans="1:30">
       <c r="A136" s="10" t="s">
         <v>87</v>
       </c>
@@ -12397,8 +13356,15 @@
       <c r="Y136" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="137" spans="1:25">
+      <c r="Z136" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA136" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD136" s="14"/>
+    </row>
+    <row r="137" spans="1:30">
       <c r="A137" s="10" t="s">
         <v>243</v>
       </c>
@@ -12474,8 +13440,15 @@
       <c r="Y137" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="138" spans="1:25">
+      <c r="Z137" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA137" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD137" s="14"/>
+    </row>
+    <row r="138" spans="1:30">
       <c r="A138" s="10" t="s">
         <v>249</v>
       </c>
@@ -12551,8 +13524,15 @@
       <c r="Y138" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="139" spans="1:25">
+      <c r="Z138" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA138" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD138" s="14"/>
+    </row>
+    <row r="139" spans="1:30">
       <c r="A139" s="10" t="s">
         <v>139</v>
       </c>
@@ -12628,8 +13608,15 @@
       <c r="Y139" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="140" spans="1:25">
+      <c r="Z139" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA139" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD139" s="14"/>
+    </row>
+    <row r="140" spans="1:30">
       <c r="A140" s="10" t="s">
         <v>358</v>
       </c>
@@ -12705,8 +13692,15 @@
       <c r="Y140" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="141" spans="1:25">
+      <c r="Z140" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA140" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD140" s="14"/>
+    </row>
+    <row r="141" spans="1:30">
       <c r="A141" s="10" t="s">
         <v>157</v>
       </c>
@@ -12782,8 +13776,15 @@
       <c r="Y141" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" spans="1:25">
+      <c r="Z141" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA141" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD141" s="14"/>
+    </row>
+    <row r="142" spans="1:30">
       <c r="A142" s="10" t="s">
         <v>118</v>
       </c>
@@ -12859,8 +13860,15 @@
       <c r="Y142" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="143" spans="1:25">
+      <c r="Z142" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA142" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD142" s="14"/>
+    </row>
+    <row r="143" spans="1:30">
       <c r="A143" s="10" t="s">
         <v>88</v>
       </c>
@@ -12936,8 +13944,15 @@
       <c r="Y143" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="144" spans="1:25">
+      <c r="Z143" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA143" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD143" s="14"/>
+    </row>
+    <row r="144" spans="1:30">
       <c r="A144" s="10" t="s">
         <v>412</v>
       </c>
@@ -13013,8 +14028,15 @@
       <c r="Y144" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="145" spans="1:25">
+      <c r="Z144" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA144" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD144" s="14"/>
+    </row>
+    <row r="145" spans="1:30">
       <c r="A145" s="10" t="s">
         <v>129</v>
       </c>
@@ -13090,8 +14112,15 @@
       <c r="Y145" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="146" spans="1:25">
+      <c r="Z145" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA145" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD145" s="14"/>
+    </row>
+    <row r="146" spans="1:30">
       <c r="A146" s="10" t="s">
         <v>308</v>
       </c>
@@ -13167,8 +14196,15 @@
       <c r="Y146" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="147" spans="1:25">
+      <c r="Z146" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA146" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD146" s="14"/>
+    </row>
+    <row r="147" spans="1:30">
       <c r="A147" s="10" t="s">
         <v>363</v>
       </c>
@@ -13244,8 +14280,15 @@
       <c r="Y147" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="148" spans="1:25">
+      <c r="Z147" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA147" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD147" s="14"/>
+    </row>
+    <row r="148" spans="1:30">
       <c r="A148" s="10" t="s">
         <v>428</v>
       </c>
@@ -13321,8 +14364,15 @@
       <c r="Y148" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="149" spans="1:25">
+      <c r="Z148" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA148" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD148" s="14"/>
+    </row>
+    <row r="149" spans="1:30">
       <c r="A149" s="10" t="s">
         <v>158</v>
       </c>
@@ -13398,8 +14448,15 @@
       <c r="Y149" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="150" spans="1:25">
+      <c r="Z149" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA149" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD149" s="14"/>
+    </row>
+    <row r="150" spans="1:30">
       <c r="A150" s="10" t="s">
         <v>169</v>
       </c>
@@ -13475,8 +14532,15 @@
       <c r="Y150" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="151" spans="1:25">
+      <c r="Z150" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA150" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD150" s="14"/>
+    </row>
+    <row r="151" spans="1:30">
       <c r="A151" s="10" t="s">
         <v>343</v>
       </c>
@@ -13552,8 +14616,15 @@
       <c r="Y151" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="152" spans="1:25">
+      <c r="Z151" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA151" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD151" s="14"/>
+    </row>
+    <row r="152" spans="1:30">
       <c r="A152" s="10" t="s">
         <v>83</v>
       </c>
@@ -13629,8 +14700,15 @@
       <c r="Y152" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="153" spans="1:25">
+      <c r="Z152" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA152" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD152" s="14"/>
+    </row>
+    <row r="153" spans="1:30">
       <c r="A153" s="10" t="s">
         <v>270</v>
       </c>
@@ -13706,8 +14784,15 @@
       <c r="Y153" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="154" spans="1:25">
+      <c r="Z153" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA153" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD153" s="14"/>
+    </row>
+    <row r="154" spans="1:30">
       <c r="A154" s="10" t="s">
         <v>170</v>
       </c>
@@ -13783,8 +14868,15 @@
       <c r="Y154" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="155" spans="1:25">
+      <c r="Z154" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA154" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD154" s="14"/>
+    </row>
+    <row r="155" spans="1:30">
       <c r="A155" s="10" t="s">
         <v>354</v>
       </c>
@@ -13860,8 +14952,15 @@
       <c r="Y155" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="156" spans="1:25">
+      <c r="Z155" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA155" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD155" s="14"/>
+    </row>
+    <row r="156" spans="1:30">
       <c r="A156" s="10" t="s">
         <v>222</v>
       </c>
@@ -13937,8 +15036,15 @@
       <c r="Y156" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="157" spans="1:25">
+      <c r="Z156" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA156" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD156" s="14"/>
+    </row>
+    <row r="157" spans="1:30">
       <c r="A157" s="10" t="s">
         <v>151</v>
       </c>
@@ -14014,8 +15120,15 @@
       <c r="Y157" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="158" spans="1:25">
+      <c r="Z157" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA157" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD157" s="14"/>
+    </row>
+    <row r="158" spans="1:30">
       <c r="A158" s="10" t="s">
         <v>24</v>
       </c>
@@ -14091,8 +15204,15 @@
       <c r="Y158" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="159" spans="1:25">
+      <c r="Z158" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA158" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD158" s="14"/>
+    </row>
+    <row r="159" spans="1:30">
       <c r="A159" s="10" t="s">
         <v>413</v>
       </c>
@@ -14168,8 +15288,15 @@
       <c r="Y159" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="160" spans="1:25">
+      <c r="Z159" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA159" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD159" s="14"/>
+    </row>
+    <row r="160" spans="1:30">
       <c r="A160" s="10" t="s">
         <v>37</v>
       </c>
@@ -14245,8 +15372,15 @@
       <c r="Y160" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="161" spans="1:25">
+      <c r="Z160" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA160" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD160" s="14"/>
+    </row>
+    <row r="161" spans="1:30">
       <c r="A161" s="10" t="s">
         <v>116</v>
       </c>
@@ -14322,8 +15456,15 @@
       <c r="Y161" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="162" spans="1:25">
+      <c r="Z161" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA161" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD161" s="14"/>
+    </row>
+    <row r="162" spans="1:30">
       <c r="A162" s="10" t="s">
         <v>44</v>
       </c>
@@ -14399,8 +15540,15 @@
       <c r="Y162" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="163" spans="1:25">
+      <c r="Z162" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA162" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD162" s="14"/>
+    </row>
+    <row r="163" spans="1:30">
       <c r="A163" s="10" t="s">
         <v>119</v>
       </c>
@@ -14476,8 +15624,15 @@
       <c r="Y163" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="164" spans="1:25">
+      <c r="Z163" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA163" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD163" s="14"/>
+    </row>
+    <row r="164" spans="1:30">
       <c r="A164" s="10" t="s">
         <v>352</v>
       </c>
@@ -14553,8 +15708,15 @@
       <c r="Y164" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="165" spans="1:25">
+      <c r="Z164" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA164" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD164" s="14"/>
+    </row>
+    <row r="165" spans="1:30">
       <c r="A165" s="10" t="s">
         <v>14</v>
       </c>
@@ -14630,8 +15792,15 @@
       <c r="Y165" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="166" spans="1:25">
+      <c r="Z165" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA165" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD165" s="14"/>
+    </row>
+    <row r="166" spans="1:30">
       <c r="A166" s="10" t="s">
         <v>191</v>
       </c>
@@ -14707,8 +15876,15 @@
       <c r="Y166" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="167" spans="1:25">
+      <c r="Z166" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA166" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD166" s="14"/>
+    </row>
+    <row r="167" spans="1:30">
       <c r="A167" s="10" t="s">
         <v>204</v>
       </c>
@@ -14784,8 +15960,15 @@
       <c r="Y167" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="168" spans="1:25">
+      <c r="Z167" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA167" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD167" s="14"/>
+    </row>
+    <row r="168" spans="1:30">
       <c r="A168" s="10" t="s">
         <v>58</v>
       </c>
@@ -14861,8 +16044,15 @@
       <c r="Y168" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="169" spans="1:25">
+      <c r="Z168" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA168" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD168" s="14"/>
+    </row>
+    <row r="169" spans="1:30">
       <c r="A169" s="10" t="s">
         <v>141</v>
       </c>
@@ -14938,8 +16128,15 @@
       <c r="Y169" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="170" spans="1:25">
+      <c r="Z169" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA169" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD169" s="14"/>
+    </row>
+    <row r="170" spans="1:30">
       <c r="A170" s="10" t="s">
         <v>271</v>
       </c>
@@ -15015,8 +16212,15 @@
       <c r="Y170" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="171" spans="1:25">
+      <c r="Z170" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA170" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD170" s="14"/>
+    </row>
+    <row r="171" spans="1:30">
       <c r="A171" s="10" t="s">
         <v>337</v>
       </c>
@@ -15092,8 +16296,15 @@
       <c r="Y171" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="172" spans="1:25">
+      <c r="Z171" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA171" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD171" s="14"/>
+    </row>
+    <row r="172" spans="1:30">
       <c r="A172" s="10" t="s">
         <v>51</v>
       </c>
@@ -15169,8 +16380,15 @@
       <c r="Y172" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="173" spans="1:25">
+      <c r="Z172" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA172" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD172" s="14"/>
+    </row>
+    <row r="173" spans="1:30">
       <c r="A173" s="10" t="s">
         <v>183</v>
       </c>
@@ -15246,8 +16464,15 @@
       <c r="Y173" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="174" spans="1:25">
+      <c r="Z173" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA173" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD173" s="14"/>
+    </row>
+    <row r="174" spans="1:30">
       <c r="A174" s="10" t="s">
         <v>387</v>
       </c>
@@ -15323,8 +16548,15 @@
       <c r="Y174" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="175" spans="1:25">
+      <c r="Z174" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA174" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD174" s="14"/>
+    </row>
+    <row r="175" spans="1:30">
       <c r="A175" s="10" t="s">
         <v>59</v>
       </c>
@@ -15400,8 +16632,15 @@
       <c r="Y175" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="176" spans="1:25">
+      <c r="Z175" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA175" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD175" s="14"/>
+    </row>
+    <row r="176" spans="1:30">
       <c r="A176" s="10" t="s">
         <v>310</v>
       </c>
@@ -15477,8 +16716,15 @@
       <c r="Y176" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="177" spans="1:25">
+      <c r="Z176" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA176" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD176" s="14"/>
+    </row>
+    <row r="177" spans="1:30">
       <c r="A177" s="10" t="s">
         <v>19</v>
       </c>
@@ -15554,8 +16800,15 @@
       <c r="Y177" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="178" spans="1:25">
+      <c r="Z177" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA177" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD177" s="14"/>
+    </row>
+    <row r="178" spans="1:30">
       <c r="A178" s="10" t="s">
         <v>260</v>
       </c>
@@ -15631,8 +16884,15 @@
       <c r="Y178" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="179" spans="1:25">
+      <c r="Z178" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA178" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD178" s="14"/>
+    </row>
+    <row r="179" spans="1:30">
       <c r="A179" s="10" t="s">
         <v>39</v>
       </c>
@@ -15708,8 +16968,15 @@
       <c r="Y179" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="180" spans="1:25">
+      <c r="Z179" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA179" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD179" s="14"/>
+    </row>
+    <row r="180" spans="1:30">
       <c r="A180" s="10" t="s">
         <v>263</v>
       </c>
@@ -15785,8 +17052,15 @@
       <c r="Y180" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="181" spans="1:25">
+      <c r="Z180" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA180" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD180" s="14"/>
+    </row>
+    <row r="181" spans="1:30">
       <c r="A181" s="10" t="s">
         <v>41</v>
       </c>
@@ -15862,8 +17136,15 @@
       <c r="Y181" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="182" spans="1:25">
+      <c r="Z181" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA181" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD181" s="14"/>
+    </row>
+    <row r="182" spans="1:30">
       <c r="A182" s="10" t="s">
         <v>91</v>
       </c>
@@ -15939,8 +17220,15 @@
       <c r="Y182" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="183" spans="1:25">
+      <c r="Z182" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA182" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD182" s="14"/>
+    </row>
+    <row r="183" spans="1:30">
       <c r="A183" s="10" t="s">
         <v>192</v>
       </c>
@@ -16016,8 +17304,15 @@
       <c r="Y183" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="184" spans="1:25">
+      <c r="Z183" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA183" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD183" s="14"/>
+    </row>
+    <row r="184" spans="1:30">
       <c r="A184" s="10" t="s">
         <v>166</v>
       </c>
@@ -16093,8 +17388,15 @@
       <c r="Y184" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="185" spans="1:25">
+      <c r="Z184" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA184" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD184" s="14"/>
+    </row>
+    <row r="185" spans="1:30">
       <c r="A185" s="10" t="s">
         <v>85</v>
       </c>
@@ -16170,8 +17472,15 @@
       <c r="Y185" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="186" spans="1:25">
+      <c r="Z185" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA185" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD185" s="14"/>
+    </row>
+    <row r="186" spans="1:30">
       <c r="A186" s="10" t="s">
         <v>242</v>
       </c>
@@ -16247,8 +17556,15 @@
       <c r="Y186" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="187" spans="1:25">
+      <c r="Z186" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA186" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD186" s="14"/>
+    </row>
+    <row r="187" spans="1:30">
       <c r="A187" s="10" t="s">
         <v>94</v>
       </c>
@@ -16324,8 +17640,15 @@
       <c r="Y187" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="188" spans="1:25">
+      <c r="Z187" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA187" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD187" s="14"/>
+    </row>
+    <row r="188" spans="1:30">
       <c r="A188" s="10" t="s">
         <v>130</v>
       </c>
@@ -16401,8 +17724,15 @@
       <c r="Y188" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="189" spans="1:25">
+      <c r="Z188" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA188" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD188" s="14"/>
+    </row>
+    <row r="189" spans="1:30">
       <c r="A189" s="10" t="s">
         <v>135</v>
       </c>
@@ -16478,8 +17808,15 @@
       <c r="Y189" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="190" spans="1:25">
+      <c r="Z189" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA189" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD189" s="14"/>
+    </row>
+    <row r="190" spans="1:30">
       <c r="A190" s="10" t="s">
         <v>356</v>
       </c>
@@ -16555,8 +17892,15 @@
       <c r="Y190" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="191" spans="1:25">
+      <c r="Z190" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA190" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD190" s="14"/>
+    </row>
+    <row r="191" spans="1:30">
       <c r="A191" s="10" t="s">
         <v>224</v>
       </c>
@@ -16632,8 +17976,15 @@
       <c r="Y191" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="192" spans="1:25">
+      <c r="Z191" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA191" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD191" s="14"/>
+    </row>
+    <row r="192" spans="1:30">
       <c r="A192" s="10" t="s">
         <v>264</v>
       </c>
@@ -16709,8 +18060,15 @@
       <c r="Y192" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="193" spans="1:25">
+      <c r="Z192" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA192" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD192" s="14"/>
+    </row>
+    <row r="193" spans="1:30">
       <c r="A193" s="10" t="s">
         <v>28</v>
       </c>
@@ -16786,8 +18144,15 @@
       <c r="Y193" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="194" spans="1:25">
+      <c r="Z193" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA193" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD193" s="14"/>
+    </row>
+    <row r="194" spans="1:30">
       <c r="A194" s="10" t="s">
         <v>155</v>
       </c>
@@ -16863,8 +18228,15 @@
       <c r="Y194" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="195" spans="1:25">
+      <c r="Z194" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA194" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD194" s="14"/>
+    </row>
+    <row r="195" spans="1:30">
       <c r="A195" s="10" t="s">
         <v>165</v>
       </c>
@@ -16940,8 +18312,15 @@
       <c r="Y195" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="196" spans="1:25">
+      <c r="Z195" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA195" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD195" s="14"/>
+    </row>
+    <row r="196" spans="1:30">
       <c r="A196" s="10" t="s">
         <v>375</v>
       </c>
@@ -17017,8 +18396,15 @@
       <c r="Y196" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="197" spans="1:25">
+      <c r="Z196" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA196" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD196" s="14"/>
+    </row>
+    <row r="197" spans="1:30">
       <c r="A197" s="10" t="s">
         <v>107</v>
       </c>
@@ -17094,8 +18480,15 @@
       <c r="Y197" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="198" spans="1:25">
+      <c r="Z197" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA197" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD197" s="14"/>
+    </row>
+    <row r="198" spans="1:30">
       <c r="A198" s="10" t="s">
         <v>12</v>
       </c>
@@ -17171,8 +18564,15 @@
       <c r="Y198" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="199" spans="1:25">
+      <c r="Z198" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA198" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD198" s="14"/>
+    </row>
+    <row r="199" spans="1:30">
       <c r="A199" s="10" t="s">
         <v>250</v>
       </c>
@@ -17248,8 +18648,15 @@
       <c r="Y199" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="200" spans="1:25">
+      <c r="Z199" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA199" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD199" s="14"/>
+    </row>
+    <row r="200" spans="1:30">
       <c r="A200" s="10" t="s">
         <v>61</v>
       </c>
@@ -17325,8 +18732,15 @@
       <c r="Y200" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="201" spans="1:25">
+      <c r="Z200" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA200" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD200" s="14"/>
+    </row>
+    <row r="201" spans="1:30">
       <c r="A201" s="10" t="s">
         <v>272</v>
       </c>
@@ -17402,8 +18816,15 @@
       <c r="Y201" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="202" spans="1:25">
+      <c r="Z201" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA201" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD201" s="14"/>
+    </row>
+    <row r="202" spans="1:30">
       <c r="A202" s="10" t="s">
         <v>98</v>
       </c>
@@ -17479,8 +18900,15 @@
       <c r="Y202" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="203" spans="1:25">
+      <c r="Z202" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA202" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD202" s="14"/>
+    </row>
+    <row r="203" spans="1:30">
       <c r="A203" s="10" t="s">
         <v>304</v>
       </c>
@@ -17556,8 +18984,15 @@
       <c r="Y203" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="204" spans="1:25">
+      <c r="Z203" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA203" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD203" s="14"/>
+    </row>
+    <row r="204" spans="1:30">
       <c r="A204" s="10" t="s">
         <v>432</v>
       </c>
@@ -17633,8 +19068,15 @@
       <c r="Y204" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="205" spans="1:25">
+      <c r="Z204" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA204" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD204" s="14"/>
+    </row>
+    <row r="205" spans="1:30">
       <c r="A205" s="10" t="s">
         <v>373</v>
       </c>
@@ -17710,8 +19152,15 @@
       <c r="Y205" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="206" spans="1:25">
+      <c r="Z205" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA205" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD205" s="14"/>
+    </row>
+    <row r="206" spans="1:30">
       <c r="A206" s="10" t="s">
         <v>96</v>
       </c>
@@ -17787,8 +19236,15 @@
       <c r="Y206" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="207" spans="1:25">
+      <c r="Z206" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA206" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD206" s="14"/>
+    </row>
+    <row r="207" spans="1:30">
       <c r="A207" s="10" t="s">
         <v>66</v>
       </c>
@@ -17864,8 +19320,15 @@
       <c r="Y207" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="208" spans="1:25">
+      <c r="Z207" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA207" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD207" s="14"/>
+    </row>
+    <row r="208" spans="1:30">
       <c r="A208" s="10" t="s">
         <v>188</v>
       </c>
@@ -17941,8 +19404,15 @@
       <c r="Y208" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="209" spans="1:25">
+      <c r="Z208" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA208" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD208" s="14"/>
+    </row>
+    <row r="209" spans="1:30">
       <c r="A209" s="10" t="s">
         <v>361</v>
       </c>
@@ -18018,8 +19488,15 @@
       <c r="Y209" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="210" spans="1:25">
+      <c r="Z209" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA209" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD209" s="14"/>
+    </row>
+    <row r="210" spans="1:30">
       <c r="A210" s="10" t="s">
         <v>84</v>
       </c>
@@ -18095,8 +19572,15 @@
       <c r="Y210" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="211" spans="1:25">
+      <c r="Z210" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA210" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD210" s="14"/>
+    </row>
+    <row r="211" spans="1:30">
       <c r="A211" s="10" t="s">
         <v>382</v>
       </c>
@@ -18172,8 +19656,15 @@
       <c r="Y211" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="212" spans="1:25">
+      <c r="Z211" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA211" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD211" s="14"/>
+    </row>
+    <row r="212" spans="1:30">
       <c r="A212" s="10" t="s">
         <v>79</v>
       </c>
@@ -18249,8 +19740,15 @@
       <c r="Y212" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="213" spans="1:25">
+      <c r="Z212" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA212" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD212" s="14"/>
+    </row>
+    <row r="213" spans="1:30">
       <c r="A213" s="10" t="s">
         <v>289</v>
       </c>
@@ -18326,8 +19824,15 @@
       <c r="Y213" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="214" spans="1:25">
+      <c r="Z213" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA213" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD213" s="14"/>
+    </row>
+    <row r="214" spans="1:30">
       <c r="A214" s="10" t="s">
         <v>128</v>
       </c>
@@ -18403,8 +19908,15 @@
       <c r="Y214" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="215" spans="1:25">
+      <c r="Z214" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA214" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD214" s="14"/>
+    </row>
+    <row r="215" spans="1:30">
       <c r="A215" s="10" t="s">
         <v>9</v>
       </c>
@@ -18480,8 +19992,15 @@
       <c r="Y215" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="216" spans="1:25">
+      <c r="Z215" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA215" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD215" s="14"/>
+    </row>
+    <row r="216" spans="1:30">
       <c r="A216" s="10" t="s">
         <v>231</v>
       </c>
@@ -18557,8 +20076,15 @@
       <c r="Y216" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="217" spans="1:25">
+      <c r="Z216" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA216" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD216" s="14"/>
+    </row>
+    <row r="217" spans="1:30">
       <c r="A217" s="10" t="s">
         <v>255</v>
       </c>
@@ -18634,8 +20160,15 @@
       <c r="Y217" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="218" spans="1:25">
+      <c r="Z217" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA217" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD217" s="14"/>
+    </row>
+    <row r="218" spans="1:30">
       <c r="A218" s="10" t="s">
         <v>200</v>
       </c>
@@ -18711,8 +20244,15 @@
       <c r="Y218" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="219" spans="1:25">
+      <c r="Z218" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA218" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD218" s="14"/>
+    </row>
+    <row r="219" spans="1:30">
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
@@ -18730,8 +20270,11 @@
       <c r="R219" s="3"/>
       <c r="U219" s="3"/>
       <c r="X219" s="3"/>
-    </row>
-    <row r="221" spans="1:25">
+      <c r="Z219" s="14"/>
+      <c r="AA219" s="14"/>
+      <c r="AD219" s="14"/>
+    </row>
+    <row r="221" spans="1:30">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -18750,7 +20293,7 @@
       <c r="U221" s="3"/>
       <c r="X221" s="3"/>
     </row>
-    <row r="222" spans="1:25">
+    <row r="222" spans="1:30">
       <c r="B222" s="7"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -18769,7 +20312,7 @@
       <c r="U222" s="3"/>
       <c r="X222" s="3"/>
     </row>
-    <row r="223" spans="1:25">
+    <row r="223" spans="1:30">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -18788,7 +20331,7 @@
       <c r="U223" s="3"/>
       <c r="X223" s="3"/>
     </row>
-    <row r="224" spans="1:25">
+    <row r="224" spans="1:30">
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
@@ -32895,7 +34438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+    <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
       <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
@@ -34807,1758 +36350,3065 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C331"/>
+  <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+      <selection activeCell="F221" sqref="F221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>454</v>
       </c>
       <c r="B1" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>193</v>
       </c>
       <c r="B3" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>201</v>
       </c>
       <c r="B6" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>184</v>
       </c>
       <c r="B8" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>241</v>
       </c>
       <c r="B11" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>256</v>
       </c>
       <c r="B12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" t="s">
+        <v>441</v>
+      </c>
+      <c r="D13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>321</v>
       </c>
       <c r="B14" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>279</v>
       </c>
       <c r="B15" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>386</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>379</v>
       </c>
       <c r="B17" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>74</v>
       </c>
       <c r="B18" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>367</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>440</v>
+      </c>
+      <c r="D20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>214</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>440</v>
+      </c>
+      <c r="D21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>103</v>
       </c>
       <c r="B22" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>232</v>
       </c>
       <c r="B23" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>440</v>
+      </c>
+      <c r="D23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>359</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>441</v>
+      </c>
+      <c r="D24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>187</v>
       </c>
       <c r="B25" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>440</v>
+      </c>
+      <c r="D25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>219</v>
       </c>
       <c r="B26" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>441</v>
+      </c>
+      <c r="D27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>360</v>
       </c>
       <c r="B28" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>440</v>
+      </c>
+      <c r="D28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>339</v>
       </c>
       <c r="B29" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>440</v>
+      </c>
+      <c r="D29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>253</v>
       </c>
       <c r="B30" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>440</v>
+      </c>
+      <c r="D30" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>347</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>441</v>
+      </c>
+      <c r="D32" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>113</v>
       </c>
       <c r="B33" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>441</v>
+      </c>
+      <c r="D33" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>121</v>
       </c>
       <c r="B34" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>115</v>
       </c>
       <c r="B35" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>441</v>
+      </c>
+      <c r="D35" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>230</v>
       </c>
       <c r="B36" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>440</v>
+      </c>
+      <c r="D36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>101</v>
       </c>
       <c r="B37" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>440</v>
+      </c>
+      <c r="D37" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>301</v>
       </c>
       <c r="B38" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>440</v>
+      </c>
+      <c r="D38" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>415</v>
       </c>
       <c r="B39" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>440</v>
+      </c>
+      <c r="D39" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>439</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>440</v>
+      </c>
+      <c r="D40" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>295</v>
       </c>
       <c r="B41" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>440</v>
+      </c>
+      <c r="D41" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>228</v>
       </c>
       <c r="B42" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>440</v>
+      </c>
+      <c r="D42" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>335</v>
       </c>
       <c r="B43" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>440</v>
+      </c>
+      <c r="D43" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>210</v>
       </c>
       <c r="B44" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>294</v>
       </c>
       <c r="B45" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>440</v>
+      </c>
+      <c r="D45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>199</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>440</v>
+      </c>
+      <c r="D46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>62</v>
       </c>
       <c r="B47" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>440</v>
+      </c>
+      <c r="D47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>217</v>
       </c>
       <c r="B48" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>440</v>
+      </c>
+      <c r="D48" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>283</v>
       </c>
       <c r="B49" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>440</v>
+      </c>
+      <c r="D49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>262</v>
       </c>
       <c r="B50" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>440</v>
+      </c>
+      <c r="D50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>203</v>
       </c>
       <c r="B51" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>441</v>
+      </c>
+      <c r="D51" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>285</v>
       </c>
       <c r="B52" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="s">
+        <v>440</v>
+      </c>
+      <c r="D52" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" t="s">
+        <v>440</v>
+      </c>
+      <c r="D53" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>417</v>
       </c>
       <c r="B54" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="s">
+        <v>440</v>
+      </c>
+      <c r="D54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>181</v>
       </c>
       <c r="B55" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" t="s">
+        <v>440</v>
+      </c>
+      <c r="D55" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>245</v>
       </c>
       <c r="B56" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" t="s">
+        <v>440</v>
+      </c>
+      <c r="D56" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>416</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="s">
+        <v>440</v>
+      </c>
+      <c r="D57" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>143</v>
       </c>
       <c r="B58" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" t="s">
+        <v>440</v>
+      </c>
+      <c r="D58" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>152</v>
       </c>
       <c r="B59" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="s">
+        <v>440</v>
+      </c>
+      <c r="D59" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>431</v>
       </c>
       <c r="B60" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" t="s">
+        <v>440</v>
+      </c>
+      <c r="D60" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>50</v>
       </c>
       <c r="B61" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" t="s">
+        <v>440</v>
+      </c>
+      <c r="D61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>307</v>
       </c>
       <c r="B62" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" t="s">
+        <v>440</v>
+      </c>
+      <c r="D62" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>97</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" t="s">
+        <v>441</v>
+      </c>
+      <c r="D63" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>32</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="s">
+        <v>440</v>
+      </c>
+      <c r="D64" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>90</v>
       </c>
       <c r="B65" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="s">
+        <v>440</v>
+      </c>
+      <c r="D65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>220</v>
       </c>
       <c r="B66" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="s">
+        <v>440</v>
+      </c>
+      <c r="D66" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>198</v>
       </c>
       <c r="B67" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" t="s">
+        <v>440</v>
+      </c>
+      <c r="D67" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>225</v>
       </c>
       <c r="B68" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="s">
+        <v>440</v>
+      </c>
+      <c r="D68" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>298</v>
       </c>
       <c r="B69" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" t="s">
+        <v>440</v>
+      </c>
+      <c r="D69" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>403</v>
       </c>
       <c r="B70" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" t="s">
+        <v>440</v>
+      </c>
+      <c r="D70" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>374</v>
       </c>
       <c r="B71" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" t="s">
+        <v>440</v>
+      </c>
+      <c r="D71" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>104</v>
       </c>
       <c r="B72" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" t="s">
+        <v>440</v>
+      </c>
+      <c r="D72" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>82</v>
       </c>
       <c r="B73" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" t="s">
+        <v>440</v>
+      </c>
+      <c r="D73" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>351</v>
       </c>
       <c r="B74" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" t="s">
+        <v>440</v>
+      </c>
+      <c r="D74" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>15</v>
       </c>
       <c r="B75" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" t="s">
+        <v>440</v>
+      </c>
+      <c r="D75" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>355</v>
       </c>
       <c r="B76" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" t="s">
+        <v>440</v>
+      </c>
+      <c r="D76" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>388</v>
       </c>
       <c r="B77" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" t="s">
+        <v>440</v>
+      </c>
+      <c r="D77" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>418</v>
       </c>
       <c r="B78" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" t="s">
+        <v>440</v>
+      </c>
+      <c r="D78" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>47</v>
       </c>
       <c r="B79" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" t="s">
+        <v>440</v>
+      </c>
+      <c r="D79" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>314</v>
       </c>
       <c r="B80" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" t="s">
+        <v>440</v>
+      </c>
+      <c r="D80" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>156</v>
       </c>
       <c r="B81" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" t="s">
+        <v>440</v>
+      </c>
+      <c r="D81" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>434</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" t="s">
+        <v>440</v>
+      </c>
+      <c r="D82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>212</v>
       </c>
       <c r="B83" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" t="s">
+        <v>440</v>
+      </c>
+      <c r="D83" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>160</v>
       </c>
       <c r="B84" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" t="s">
+        <v>440</v>
+      </c>
+      <c r="D84" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>330</v>
       </c>
       <c r="B85" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" t="s">
+        <v>440</v>
+      </c>
+      <c r="D85" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>311</v>
       </c>
       <c r="B86" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" t="s">
+        <v>440</v>
+      </c>
+      <c r="D86" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>3</v>
       </c>
       <c r="B87" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" t="s">
+        <v>440</v>
+      </c>
+      <c r="D87" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>31</v>
       </c>
       <c r="B88" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" t="s">
+        <v>441</v>
+      </c>
+      <c r="D88" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>276</v>
       </c>
       <c r="B89" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" t="s">
+        <v>440</v>
+      </c>
+      <c r="D89" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>174</v>
       </c>
       <c r="B90" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" t="s">
+        <v>440</v>
+      </c>
+      <c r="D90" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>124</v>
       </c>
       <c r="B91" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" t="s">
+        <v>440</v>
+      </c>
+      <c r="D91" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>68</v>
       </c>
       <c r="B92" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" t="s">
+        <v>440</v>
+      </c>
+      <c r="D92" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>244</v>
       </c>
       <c r="B93" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" t="s">
+        <v>440</v>
+      </c>
+      <c r="D93" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" t="s">
+        <v>440</v>
+      </c>
+      <c r="D94" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>17</v>
       </c>
       <c r="B95" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" t="s">
+        <v>440</v>
+      </c>
+      <c r="D95" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>286</v>
       </c>
       <c r="B96" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" t="s">
+        <v>440</v>
+      </c>
+      <c r="D96" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>106</v>
       </c>
       <c r="B97" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" t="s">
+        <v>440</v>
+      </c>
+      <c r="D97" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>80</v>
       </c>
       <c r="B98" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" t="s">
+        <v>440</v>
+      </c>
+      <c r="D98" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>350</v>
       </c>
       <c r="B99" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" t="s">
+        <v>440</v>
+      </c>
+      <c r="D99" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>433</v>
       </c>
       <c r="B100" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" t="s">
+        <v>440</v>
+      </c>
+      <c r="D100" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>52</v>
       </c>
       <c r="B101" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101" t="s">
+        <v>440</v>
+      </c>
+      <c r="D101" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>436</v>
       </c>
       <c r="B102" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102" t="s">
+        <v>472</v>
+      </c>
+      <c r="D102" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>274</v>
       </c>
       <c r="B103" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103" t="s">
+        <v>441</v>
+      </c>
+      <c r="D103" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>407</v>
       </c>
       <c r="B104" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104" t="s">
+        <v>440</v>
+      </c>
+      <c r="D104" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>381</v>
       </c>
       <c r="B105" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105" t="s">
+        <v>440</v>
+      </c>
+      <c r="D105" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>102</v>
       </c>
       <c r="B106" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106" t="s">
+        <v>440</v>
+      </c>
+      <c r="D106" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>117</v>
       </c>
       <c r="B107" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107" t="s">
+        <v>440</v>
+      </c>
+      <c r="D107" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>430</v>
       </c>
       <c r="B108" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108" t="s">
+        <v>440</v>
+      </c>
+      <c r="D108" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>349</v>
       </c>
       <c r="B109" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109" t="s">
+        <v>441</v>
+      </c>
+      <c r="D109" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>261</v>
       </c>
       <c r="B110" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110" t="s">
+        <v>440</v>
+      </c>
+      <c r="D110" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>140</v>
       </c>
       <c r="B111" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111" t="s">
+        <v>440</v>
+      </c>
+      <c r="D111" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>332</v>
       </c>
       <c r="B112" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112" t="s">
+        <v>440</v>
+      </c>
+      <c r="D112" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>306</v>
       </c>
       <c r="B113" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113" t="s">
+        <v>440</v>
+      </c>
+      <c r="D113" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>372</v>
       </c>
       <c r="B114" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114" t="s">
+        <v>441</v>
+      </c>
+      <c r="D114" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>2</v>
       </c>
       <c r="B115" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115" t="s">
+        <v>440</v>
+      </c>
+      <c r="D115" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>299</v>
       </c>
       <c r="B116" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116" t="s">
+        <v>441</v>
+      </c>
+      <c r="D116" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>247</v>
       </c>
       <c r="B117" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117" t="s">
+        <v>440</v>
+      </c>
+      <c r="D117" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>172</v>
       </c>
       <c r="B118" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118" t="s">
+        <v>441</v>
+      </c>
+      <c r="D118" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>161</v>
       </c>
       <c r="B119" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119" t="s">
+        <v>440</v>
+      </c>
+      <c r="D119" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>353</v>
       </c>
       <c r="B120" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120" t="s">
+        <v>440</v>
+      </c>
+      <c r="D120" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>235</v>
       </c>
       <c r="B121" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121" t="s">
+        <v>440</v>
+      </c>
+      <c r="D121" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>21</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122" t="s">
+        <v>440</v>
+      </c>
+      <c r="D122" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>240</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123" t="s">
+        <v>440</v>
+      </c>
+      <c r="D123" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>284</v>
       </c>
       <c r="B124" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124" t="s">
+        <v>441</v>
+      </c>
+      <c r="D124" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>248</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125" t="s">
+        <v>440</v>
+      </c>
+      <c r="D125" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>132</v>
       </c>
       <c r="B126" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126" t="s">
+        <v>440</v>
+      </c>
+      <c r="D126" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>138</v>
       </c>
       <c r="B127" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127" t="s">
+        <v>440</v>
+      </c>
+      <c r="D127" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>425</v>
       </c>
       <c r="B128" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128" t="s">
+        <v>440</v>
+      </c>
+      <c r="D128" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>77</v>
       </c>
       <c r="B129" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129" t="s">
+        <v>441</v>
+      </c>
+      <c r="D129" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>206</v>
       </c>
       <c r="B130" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130" t="s">
+        <v>441</v>
+      </c>
+      <c r="D130" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>236</v>
       </c>
       <c r="B131" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131" t="s">
+        <v>440</v>
+      </c>
+      <c r="D131" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>251</v>
       </c>
       <c r="B132" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132" t="s">
+        <v>440</v>
+      </c>
+      <c r="D132" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>239</v>
       </c>
       <c r="B133" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133" t="s">
+        <v>440</v>
+      </c>
+      <c r="D133" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>234</v>
       </c>
       <c r="B134" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134" t="s">
+        <v>441</v>
+      </c>
+      <c r="D134" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>111</v>
       </c>
       <c r="B135" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135" t="s">
+        <v>440</v>
+      </c>
+      <c r="D135" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>366</v>
       </c>
       <c r="B136" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136" t="s">
+        <v>440</v>
+      </c>
+      <c r="D136" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>36</v>
       </c>
       <c r="B137" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137" t="s">
+        <v>440</v>
+      </c>
+      <c r="D137" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>30</v>
       </c>
       <c r="B138" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138" t="s">
+        <v>440</v>
+      </c>
+      <c r="D138" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>325</v>
       </c>
       <c r="B139" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139" t="s">
+        <v>441</v>
+      </c>
+      <c r="D139" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>265</v>
       </c>
       <c r="B140" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="C140" t="s">
+        <v>440</v>
+      </c>
+      <c r="D140" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>95</v>
       </c>
       <c r="B141" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="C141" t="s">
+        <v>440</v>
+      </c>
+      <c r="D141" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>429</v>
       </c>
       <c r="B142" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="C142" t="s">
+        <v>440</v>
+      </c>
+      <c r="D142" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>109</v>
       </c>
       <c r="B143" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="C143" t="s">
+        <v>441</v>
+      </c>
+      <c r="D143" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>175</v>
       </c>
       <c r="B144" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144" t="s">
+        <v>440</v>
+      </c>
+      <c r="D144" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>365</v>
       </c>
       <c r="B145" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="C145" t="s">
+        <v>440</v>
+      </c>
+      <c r="D145" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>8</v>
       </c>
       <c r="B146" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="C146" t="s">
+        <v>440</v>
+      </c>
+      <c r="D146" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>409</v>
       </c>
       <c r="B147" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="C147" t="s">
+        <v>440</v>
+      </c>
+      <c r="D147" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>126</v>
       </c>
       <c r="B148" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="C148" t="s">
+        <v>441</v>
+      </c>
+      <c r="D148" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>67</v>
       </c>
       <c r="B149" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="C149" t="s">
+        <v>440</v>
+      </c>
+      <c r="D149" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>338</v>
       </c>
       <c r="B150" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="C150" t="s">
+        <v>440</v>
+      </c>
+      <c r="D150" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>421</v>
       </c>
       <c r="B151" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="C151" t="s">
+        <v>440</v>
+      </c>
+      <c r="D151" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>437</v>
       </c>
       <c r="B152" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152" t="s">
+        <v>440</v>
+      </c>
+      <c r="D152" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>324</v>
       </c>
       <c r="B153" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="C153" t="s">
+        <v>440</v>
+      </c>
+      <c r="D153" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>293</v>
       </c>
       <c r="B154" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="C154" t="s">
+        <v>440</v>
+      </c>
+      <c r="D154" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>162</v>
       </c>
       <c r="B155" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="C155" t="s">
+        <v>440</v>
+      </c>
+      <c r="D155" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>408</v>
       </c>
       <c r="B156" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="C156" t="s">
+        <v>440</v>
+      </c>
+      <c r="D156" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>266</v>
       </c>
       <c r="B157" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="C157" t="s">
+        <v>440</v>
+      </c>
+      <c r="D157" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>46</v>
       </c>
       <c r="B158" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="C158" t="s">
+        <v>440</v>
+      </c>
+      <c r="D158" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>336</v>
       </c>
       <c r="B159" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="C159" t="s">
+        <v>440</v>
+      </c>
+      <c r="D159" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>313</v>
       </c>
       <c r="B160" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="C160" t="s">
+        <v>440</v>
+      </c>
+      <c r="D160" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>252</v>
       </c>
       <c r="B161" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="C161" t="s">
+        <v>440</v>
+      </c>
+      <c r="D161" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>292</v>
       </c>
       <c r="B162" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="C162" t="s">
+        <v>441</v>
+      </c>
+      <c r="D162" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>54</v>
       </c>
       <c r="B163" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="C163" t="s">
+        <v>440</v>
+      </c>
+      <c r="D163" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>211</v>
       </c>
       <c r="B164" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="C164" t="s">
+        <v>440</v>
+      </c>
+      <c r="D164" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>371</v>
       </c>
       <c r="B165" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="C165" t="s">
+        <v>440</v>
+      </c>
+      <c r="D165" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>331</v>
       </c>
       <c r="B166" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="C166" t="s">
+        <v>440</v>
+      </c>
+      <c r="D166" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>1</v>
       </c>
       <c r="B167" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167" t="s">
+        <v>440</v>
+      </c>
+      <c r="D167" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>159</v>
       </c>
       <c r="B168" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="C168" t="s">
+        <v>441</v>
+      </c>
+      <c r="D168" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>281</v>
       </c>
       <c r="B169" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="C169" t="s">
+        <v>440</v>
+      </c>
+      <c r="D169" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>134</v>
       </c>
       <c r="B170" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="C170" t="s">
+        <v>440</v>
+      </c>
+      <c r="D170" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>20</v>
       </c>
       <c r="B171" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="C171" t="s">
+        <v>440</v>
+      </c>
+      <c r="D171" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>302</v>
       </c>
       <c r="B172" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172" t="s">
+        <v>440</v>
+      </c>
+      <c r="D172" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>64</v>
       </c>
       <c r="B173" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="C173" t="s">
+        <v>440</v>
+      </c>
+      <c r="D173" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>424</v>
       </c>
       <c r="B174" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="C174" t="s">
+        <v>440</v>
+      </c>
+      <c r="D174" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>348</v>
       </c>
       <c r="B175" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="C175" t="s">
+        <v>440</v>
+      </c>
+      <c r="D175" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>267</v>
       </c>
       <c r="B176" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176" t="s">
+        <v>441</v>
+      </c>
+      <c r="D176" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>322</v>
       </c>
       <c r="B177" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="C177" t="s">
+        <v>440</v>
+      </c>
+      <c r="D177" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>186</v>
       </c>
       <c r="B178" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="C178" t="s">
+        <v>441</v>
+      </c>
+      <c r="D178" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>164</v>
       </c>
       <c r="B179" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="C179" t="s">
+        <v>441</v>
+      </c>
+      <c r="D179" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>144</v>
       </c>
       <c r="B180" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="C180" t="s">
+        <v>440</v>
+      </c>
+      <c r="D180" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>305</v>
       </c>
       <c r="B181" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="C181" t="s">
+        <v>440</v>
+      </c>
+      <c r="D181" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>223</v>
       </c>
       <c r="B182" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="C182" t="s">
+        <v>441</v>
+      </c>
+      <c r="D182" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>218</v>
       </c>
       <c r="B183" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="C183" t="s">
+        <v>440</v>
+      </c>
+      <c r="D183" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>45</v>
       </c>
       <c r="B184" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="C184" t="s">
+        <v>440</v>
+      </c>
+      <c r="D184" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>395</v>
       </c>
       <c r="B185" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="C185" t="s">
+        <v>441</v>
+      </c>
+      <c r="D185" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>213</v>
       </c>
       <c r="B186" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="C186" t="s">
+        <v>440</v>
+      </c>
+      <c r="D186" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>300</v>
       </c>
       <c r="B187" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="C187" t="s">
+        <v>440</v>
+      </c>
+      <c r="D187" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>108</v>
       </c>
       <c r="B188" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="C188" t="s">
+        <v>440</v>
+      </c>
+      <c r="D188" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>78</v>
       </c>
       <c r="B189" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="C189" t="s">
+        <v>440</v>
+      </c>
+      <c r="D189" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>368</v>
       </c>
       <c r="B190" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="C190" t="s">
+        <v>441</v>
+      </c>
+      <c r="D190" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>150</v>
       </c>
       <c r="B191" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="C191" t="s">
+        <v>440</v>
+      </c>
+      <c r="D191" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>334</v>
       </c>
       <c r="B192" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="C192" t="s">
+        <v>440</v>
+      </c>
+      <c r="D192" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>26</v>
       </c>
       <c r="B193" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="C193" t="s">
+        <v>441</v>
+      </c>
+      <c r="D193" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>312</v>
       </c>
       <c r="B194" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
+      <c r="C194" t="s">
+        <v>440</v>
+      </c>
+      <c r="D194" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>406</v>
       </c>
       <c r="B195" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="C195" t="s">
+        <v>440</v>
+      </c>
+      <c r="D195" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>389</v>
       </c>
       <c r="B196" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="C196" t="s">
+        <v>440</v>
+      </c>
+      <c r="D196" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>399</v>
       </c>
       <c r="B197" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="C197" t="s">
+        <v>440</v>
+      </c>
+      <c r="D197" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>125</v>
       </c>
       <c r="B198" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="C198" t="s">
+        <v>440</v>
+      </c>
+      <c r="D198" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>75</v>
       </c>
       <c r="B199" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="C199" t="s">
+        <v>440</v>
+      </c>
+      <c r="D199" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>259</v>
       </c>
       <c r="B200" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="C200" t="s">
+        <v>440</v>
+      </c>
+      <c r="D200" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>345</v>
       </c>
       <c r="B201" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="C201" t="s">
+        <v>440</v>
+      </c>
+      <c r="D201" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>419</v>
       </c>
       <c r="B202" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
+      <c r="C202" t="s">
+        <v>440</v>
+      </c>
+      <c r="D202" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>257</v>
       </c>
       <c r="B203" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
+      <c r="C203" t="s">
+        <v>440</v>
+      </c>
+      <c r="D203" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>319</v>
       </c>
       <c r="B204" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
+      <c r="C204" t="s">
+        <v>440</v>
+      </c>
+      <c r="D204" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>237</v>
       </c>
       <c r="B205" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
+      <c r="C205" t="s">
+        <v>440</v>
+      </c>
+      <c r="D205" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>182</v>
       </c>
       <c r="B206" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
+      <c r="C206" t="s">
+        <v>441</v>
+      </c>
+      <c r="D206" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>33</v>
       </c>
       <c r="B207" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="C207" t="s">
+        <v>440</v>
+      </c>
+      <c r="D207" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>49</v>
       </c>
       <c r="B208" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="C208" t="s">
+        <v>440</v>
+      </c>
+      <c r="D208" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>190</v>
       </c>
       <c r="B209" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="C209" t="s">
+        <v>440</v>
+      </c>
+      <c r="D209" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>254</v>
       </c>
       <c r="B210" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
+      <c r="C210" t="s">
+        <v>440</v>
+      </c>
+      <c r="D210" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>145</v>
       </c>
       <c r="B211" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="C211" t="s">
+        <v>440</v>
+      </c>
+      <c r="D211" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>380</v>
       </c>
       <c r="B212" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="C212" t="s">
+        <v>440</v>
+      </c>
+      <c r="D212" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>112</v>
       </c>
       <c r="B213" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="C213" t="s">
+        <v>440</v>
+      </c>
+      <c r="D213" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>258</v>
       </c>
       <c r="B214" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="C214" t="s">
+        <v>441</v>
+      </c>
+      <c r="D214" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>422</v>
       </c>
       <c r="B215" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="C215" t="s">
+        <v>440</v>
+      </c>
+      <c r="D215" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>291</v>
       </c>
       <c r="B216" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="C216" t="s">
+        <v>440</v>
+      </c>
+      <c r="D216" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>5</v>
       </c>
       <c r="B217" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="C217" t="s">
+        <v>441</v>
+      </c>
+      <c r="D217" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>438</v>
       </c>
       <c r="B218" t="s">
         <v>200</v>
       </c>
+      <c r="C218" t="s">
+        <v>441</v>
+      </c>
+      <c r="D218" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="234" spans="3:3">
       <c r="C234" s="6"/>
@@ -36603,9 +39453,9 @@
       <c r="C331" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B267" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B267">
-      <sortCondition ref="B1:B267"/>
+  <autoFilter ref="A1:D218" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D218">
+      <sortCondition ref="B1:B218"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flask_auth_app/backupdb.xlsx
+++ b/flask_auth_app/backupdb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zach/Desktop/Aus/UWA/CITS3403/Project/Project 2/Akinator-clone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zach/Desktop/Aus/UWA/CITS3403/Project/Project 2/Akinator-clone/flask_auth_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6596BE13-F4BC-4346-9449-6CF7F4505E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597365CA-C01A-2E47-816B-A855DDB37A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="760" windowWidth="28600" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="464">
   <si>
     <t>countryName</t>
   </si>
@@ -1416,6 +1416,9 @@
   </si>
   <si>
     <t>with more than 100 million people?</t>
+  </si>
+  <si>
+    <t>famous for Kangorros?</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1583,6 +1586,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1890,11 +1896,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AD1000"/>
+  <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE201" sqref="AE201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1914,7 +1920,8 @@
     <col min="25" max="25" width="12.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.5" style="16" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" style="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="13" style="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
@@ -1999,6 +2006,9 @@
       <c r="AA1" s="12" t="s">
         <v>453</v>
       </c>
+      <c r="AB1" s="21" t="s">
+        <v>463</v>
+      </c>
       <c r="AD1" s="13"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
@@ -2083,6 +2093,9 @@
       <c r="AA2" s="12">
         <v>1</v>
       </c>
+      <c r="AB2" s="21">
+        <v>0</v>
+      </c>
       <c r="AD2" s="13"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1">
@@ -2167,6 +2180,9 @@
       <c r="AA3" s="12">
         <v>0</v>
       </c>
+      <c r="AB3" s="21">
+        <v>0</v>
+      </c>
       <c r="AD3" s="13"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1">
@@ -2251,6 +2267,9 @@
       <c r="AA4" s="12">
         <v>0</v>
       </c>
+      <c r="AB4" s="21">
+        <v>0</v>
+      </c>
       <c r="AD4" s="13"/>
     </row>
     <row r="5" spans="1:30" ht="18" customHeight="1">
@@ -2335,6 +2354,9 @@
       <c r="AA5" s="12">
         <v>0</v>
       </c>
+      <c r="AB5" s="21">
+        <v>0</v>
+      </c>
       <c r="AD5" s="13"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1">
@@ -2419,6 +2441,9 @@
       <c r="AA6" s="12">
         <v>0</v>
       </c>
+      <c r="AB6" s="21">
+        <v>0</v>
+      </c>
       <c r="AD6" s="13"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1">
@@ -2503,6 +2528,9 @@
       <c r="AA7" s="12">
         <v>0</v>
       </c>
+      <c r="AB7" s="21">
+        <v>0</v>
+      </c>
       <c r="AD7" s="13"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1">
@@ -2587,6 +2615,9 @@
       <c r="AA8" s="12">
         <v>0</v>
       </c>
+      <c r="AB8" s="21">
+        <v>0</v>
+      </c>
       <c r="AD8" s="13"/>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1">
@@ -2671,6 +2702,9 @@
       <c r="AA9" s="12">
         <v>0</v>
       </c>
+      <c r="AB9" s="21">
+        <v>0</v>
+      </c>
       <c r="AD9" s="13"/>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1">
@@ -2755,6 +2789,9 @@
       <c r="AA10" s="12">
         <v>1</v>
       </c>
+      <c r="AB10" s="21">
+        <v>0</v>
+      </c>
       <c r="AD10" s="13"/>
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
@@ -2839,6 +2876,9 @@
       <c r="AA11" s="12">
         <v>1</v>
       </c>
+      <c r="AB11" s="21">
+        <v>0</v>
+      </c>
       <c r="AD11" s="13"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
@@ -2923,6 +2963,9 @@
       <c r="AA12" s="12">
         <v>1</v>
       </c>
+      <c r="AB12" s="21">
+        <v>1</v>
+      </c>
       <c r="AD12" s="13"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
@@ -3007,6 +3050,9 @@
       <c r="AA13" s="12">
         <v>0</v>
       </c>
+      <c r="AB13" s="21">
+        <v>0</v>
+      </c>
       <c r="AD13" s="13"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1">
@@ -3091,6 +3137,9 @@
       <c r="AA14" s="12">
         <v>0</v>
       </c>
+      <c r="AB14" s="21">
+        <v>0</v>
+      </c>
       <c r="AD14" s="13"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1">
@@ -3175,6 +3224,9 @@
       <c r="AA15" s="12">
         <v>0</v>
       </c>
+      <c r="AB15" s="21">
+        <v>0</v>
+      </c>
       <c r="AD15" s="13"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
@@ -3259,6 +3311,9 @@
       <c r="AA16" s="12">
         <v>0</v>
       </c>
+      <c r="AB16" s="21">
+        <v>0</v>
+      </c>
       <c r="AD16" s="13"/>
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1">
@@ -3343,6 +3398,9 @@
       <c r="AA17" s="12">
         <v>0</v>
       </c>
+      <c r="AB17" s="21">
+        <v>0</v>
+      </c>
       <c r="AD17" s="13"/>
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1">
@@ -3427,6 +3485,9 @@
       <c r="AA18" s="12">
         <v>0</v>
       </c>
+      <c r="AB18" s="21">
+        <v>0</v>
+      </c>
       <c r="AD18" s="13"/>
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1">
@@ -3511,6 +3572,9 @@
       <c r="AA19" s="12">
         <v>0</v>
       </c>
+      <c r="AB19" s="21">
+        <v>0</v>
+      </c>
       <c r="AD19" s="13"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1">
@@ -3595,6 +3659,9 @@
       <c r="AA20" s="12">
         <v>0</v>
       </c>
+      <c r="AB20" s="21">
+        <v>0</v>
+      </c>
       <c r="AD20" s="13"/>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1">
@@ -3679,6 +3746,9 @@
       <c r="AA21" s="12">
         <v>1</v>
       </c>
+      <c r="AB21" s="21">
+        <v>0</v>
+      </c>
       <c r="AD21" s="13"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1">
@@ -3763,6 +3833,9 @@
       <c r="AA22" s="12">
         <v>1</v>
       </c>
+      <c r="AB22" s="21">
+        <v>0</v>
+      </c>
       <c r="AD22" s="13"/>
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1">
@@ -3847,6 +3920,9 @@
       <c r="AA23" s="12">
         <v>0</v>
       </c>
+      <c r="AB23" s="21">
+        <v>0</v>
+      </c>
       <c r="AD23" s="13"/>
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1">
@@ -3931,6 +4007,9 @@
       <c r="AA24" s="12">
         <v>0</v>
       </c>
+      <c r="AB24" s="21">
+        <v>0</v>
+      </c>
       <c r="AD24" s="13"/>
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1">
@@ -4015,6 +4094,9 @@
       <c r="AA25" s="12">
         <v>0</v>
       </c>
+      <c r="AB25" s="21">
+        <v>0</v>
+      </c>
       <c r="AD25" s="13"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1">
@@ -4099,6 +4181,9 @@
       <c r="AA26" s="12">
         <v>1</v>
       </c>
+      <c r="AB26" s="21">
+        <v>0</v>
+      </c>
       <c r="AD26" s="13"/>
     </row>
     <row r="27" spans="1:30" ht="14" customHeight="1">
@@ -4183,6 +4268,9 @@
       <c r="AA27" s="12">
         <v>0</v>
       </c>
+      <c r="AB27" s="21">
+        <v>0</v>
+      </c>
       <c r="AD27" s="13"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1">
@@ -4267,6 +4355,9 @@
       <c r="AA28" s="12">
         <v>0</v>
       </c>
+      <c r="AB28" s="21">
+        <v>0</v>
+      </c>
       <c r="AD28" s="13"/>
     </row>
     <row r="29" spans="1:30" ht="18" customHeight="1">
@@ -4351,6 +4442,9 @@
       <c r="AA29" s="12">
         <v>1</v>
       </c>
+      <c r="AB29" s="21">
+        <v>0</v>
+      </c>
       <c r="AD29" s="13"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" customHeight="1">
@@ -4435,6 +4529,9 @@
       <c r="AA30" s="12">
         <v>0</v>
       </c>
+      <c r="AB30" s="21">
+        <v>0</v>
+      </c>
       <c r="AD30" s="13"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1">
@@ -4519,6 +4616,9 @@
       <c r="AA31" s="12">
         <v>0</v>
       </c>
+      <c r="AB31" s="21">
+        <v>0</v>
+      </c>
       <c r="AD31" s="13"/>
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1">
@@ -4603,6 +4703,9 @@
       <c r="AA32" s="12">
         <v>0</v>
       </c>
+      <c r="AB32" s="21">
+        <v>0</v>
+      </c>
       <c r="AD32" s="13"/>
     </row>
     <row r="33" spans="1:30" ht="15.75" customHeight="1">
@@ -4687,6 +4790,9 @@
       <c r="AA33" s="12">
         <v>0</v>
       </c>
+      <c r="AB33" s="21">
+        <v>0</v>
+      </c>
       <c r="AD33" s="13"/>
     </row>
     <row r="34" spans="1:30" ht="18" customHeight="1">
@@ -4771,6 +4877,9 @@
       <c r="AA34" s="12">
         <v>0</v>
       </c>
+      <c r="AB34" s="21">
+        <v>0</v>
+      </c>
       <c r="AD34" s="13"/>
     </row>
     <row r="35" spans="1:30" ht="15.75" customHeight="1">
@@ -4855,6 +4964,9 @@
       <c r="AA35" s="12">
         <v>0</v>
       </c>
+      <c r="AB35" s="21">
+        <v>0</v>
+      </c>
       <c r="AD35" s="13"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1">
@@ -4939,6 +5051,9 @@
       <c r="AA36" s="12">
         <v>1</v>
       </c>
+      <c r="AB36" s="21">
+        <v>0</v>
+      </c>
       <c r="AD36" s="13"/>
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1">
@@ -5023,6 +5138,9 @@
       <c r="AA37" s="12">
         <v>0</v>
       </c>
+      <c r="AB37" s="21">
+        <v>0</v>
+      </c>
       <c r="AD37" s="13"/>
     </row>
     <row r="38" spans="1:30" ht="18" customHeight="1">
@@ -5107,6 +5225,9 @@
       <c r="AA38" s="12">
         <v>0</v>
       </c>
+      <c r="AB38" s="21">
+        <v>0</v>
+      </c>
       <c r="AD38" s="13"/>
     </row>
     <row r="39" spans="1:30" ht="18" customHeight="1">
@@ -5191,6 +5312,9 @@
       <c r="AA39" s="12">
         <v>0</v>
       </c>
+      <c r="AB39" s="21">
+        <v>0</v>
+      </c>
       <c r="AD39" s="13"/>
     </row>
     <row r="40" spans="1:30" ht="18" customHeight="1">
@@ -5275,6 +5399,9 @@
       <c r="AA40" s="12">
         <v>0</v>
       </c>
+      <c r="AB40" s="21">
+        <v>0</v>
+      </c>
       <c r="AD40" s="13"/>
     </row>
     <row r="41" spans="1:30" ht="18" customHeight="1">
@@ -5359,6 +5486,9 @@
       <c r="AA41" s="12">
         <v>0</v>
       </c>
+      <c r="AB41" s="21">
+        <v>0</v>
+      </c>
       <c r="AD41" s="13"/>
     </row>
     <row r="42" spans="1:30" ht="18" customHeight="1">
@@ -5443,6 +5573,9 @@
       <c r="AA42" s="12">
         <v>0</v>
       </c>
+      <c r="AB42" s="21">
+        <v>0</v>
+      </c>
       <c r="AD42" s="13"/>
     </row>
     <row r="43" spans="1:30" ht="18" customHeight="1">
@@ -5527,6 +5660,9 @@
       <c r="AA43" s="12">
         <v>0</v>
       </c>
+      <c r="AB43" s="21">
+        <v>0</v>
+      </c>
       <c r="AD43" s="13"/>
     </row>
     <row r="44" spans="1:30" ht="18" customHeight="1">
@@ -5611,6 +5747,9 @@
       <c r="AA44" s="12">
         <v>1</v>
       </c>
+      <c r="AB44" s="21">
+        <v>0</v>
+      </c>
       <c r="AD44" s="13"/>
     </row>
     <row r="45" spans="1:30" ht="18" customHeight="1">
@@ -5695,6 +5834,9 @@
       <c r="AA45" s="12">
         <v>1</v>
       </c>
+      <c r="AB45" s="21">
+        <v>0</v>
+      </c>
       <c r="AD45" s="13"/>
     </row>
     <row r="46" spans="1:30" ht="18" customHeight="1">
@@ -5779,6 +5921,9 @@
       <c r="AA46" s="12">
         <v>0</v>
       </c>
+      <c r="AB46" s="21">
+        <v>0</v>
+      </c>
       <c r="AD46" s="13"/>
     </row>
     <row r="47" spans="1:30" ht="18" customHeight="1">
@@ -5863,6 +6008,9 @@
       <c r="AA47" s="12">
         <v>1</v>
       </c>
+      <c r="AB47" s="21">
+        <v>0</v>
+      </c>
       <c r="AD47" s="13"/>
     </row>
     <row r="48" spans="1:30" ht="18" customHeight="1">
@@ -5947,6 +6095,9 @@
       <c r="AA48" s="12">
         <v>1</v>
       </c>
+      <c r="AB48" s="21">
+        <v>0</v>
+      </c>
       <c r="AD48" s="13"/>
     </row>
     <row r="49" spans="1:30" ht="18" customHeight="1">
@@ -6031,6 +6182,9 @@
       <c r="AA49" s="12">
         <v>1</v>
       </c>
+      <c r="AB49" s="21">
+        <v>0</v>
+      </c>
       <c r="AD49" s="13"/>
     </row>
     <row r="50" spans="1:30" ht="18" customHeight="1">
@@ -6115,6 +6269,9 @@
       <c r="AA50" s="12">
         <v>1</v>
       </c>
+      <c r="AB50" s="21">
+        <v>0</v>
+      </c>
       <c r="AD50" s="13"/>
     </row>
     <row r="51" spans="1:30" ht="18" customHeight="1">
@@ -6199,6 +6356,9 @@
       <c r="AA51" s="12">
         <v>0</v>
       </c>
+      <c r="AB51" s="21">
+        <v>0</v>
+      </c>
       <c r="AD51" s="13"/>
     </row>
     <row r="52" spans="1:30" ht="18" customHeight="1">
@@ -6283,6 +6443,9 @@
       <c r="AA52" s="12">
         <v>0</v>
       </c>
+      <c r="AB52" s="21">
+        <v>0</v>
+      </c>
       <c r="AD52" s="13"/>
     </row>
     <row r="53" spans="1:30" ht="18" customHeight="1">
@@ -6367,6 +6530,9 @@
       <c r="AA53" s="12">
         <v>0</v>
       </c>
+      <c r="AB53" s="21">
+        <v>0</v>
+      </c>
       <c r="AD53" s="13"/>
     </row>
     <row r="54" spans="1:30" ht="18" customHeight="1">
@@ -6451,6 +6617,9 @@
       <c r="AA54" s="12">
         <v>1</v>
       </c>
+      <c r="AB54" s="21">
+        <v>0</v>
+      </c>
       <c r="AD54" s="13"/>
     </row>
     <row r="55" spans="1:30" ht="18" customHeight="1">
@@ -6535,6 +6704,9 @@
       <c r="AA55" s="12">
         <v>0</v>
       </c>
+      <c r="AB55" s="21">
+        <v>0</v>
+      </c>
       <c r="AD55" s="13"/>
     </row>
     <row r="56" spans="1:30" ht="18" customHeight="1">
@@ -6619,6 +6791,9 @@
       <c r="AA56" s="12">
         <v>0</v>
       </c>
+      <c r="AB56" s="21">
+        <v>0</v>
+      </c>
       <c r="AD56" s="13"/>
     </row>
     <row r="57" spans="1:30" ht="18" customHeight="1">
@@ -6703,6 +6878,9 @@
       <c r="AA57" s="12">
         <v>0</v>
       </c>
+      <c r="AB57" s="21">
+        <v>0</v>
+      </c>
       <c r="AD57" s="13"/>
     </row>
     <row r="58" spans="1:30" ht="18" customHeight="1">
@@ -6787,6 +6965,9 @@
       <c r="AA58" s="12">
         <v>0</v>
       </c>
+      <c r="AB58" s="21">
+        <v>0</v>
+      </c>
       <c r="AD58" s="13"/>
     </row>
     <row r="59" spans="1:30" ht="18" customHeight="1">
@@ -6871,6 +7052,9 @@
       <c r="AA59" s="12">
         <v>0</v>
       </c>
+      <c r="AB59" s="21">
+        <v>0</v>
+      </c>
       <c r="AD59" s="13"/>
     </row>
     <row r="60" spans="1:30" ht="18" customHeight="1">
@@ -6955,6 +7139,9 @@
       <c r="AA60" s="12">
         <v>0</v>
       </c>
+      <c r="AB60" s="21">
+        <v>0</v>
+      </c>
       <c r="AD60" s="13"/>
     </row>
     <row r="61" spans="1:30" ht="18" customHeight="1">
@@ -7039,6 +7226,9 @@
       <c r="AA61" s="12">
         <v>0</v>
       </c>
+      <c r="AB61" s="21">
+        <v>0</v>
+      </c>
       <c r="AD61" s="13"/>
     </row>
     <row r="62" spans="1:30" ht="18" customHeight="1">
@@ -7123,6 +7313,9 @@
       <c r="AA62" s="12">
         <v>0</v>
       </c>
+      <c r="AB62" s="21">
+        <v>0</v>
+      </c>
       <c r="AD62" s="13"/>
     </row>
     <row r="63" spans="1:30" ht="18" customHeight="1">
@@ -7207,6 +7400,9 @@
       <c r="AA63" s="12">
         <v>0</v>
       </c>
+      <c r="AB63" s="21">
+        <v>0</v>
+      </c>
       <c r="AD63" s="13"/>
     </row>
     <row r="64" spans="1:30" ht="18" customHeight="1">
@@ -7291,6 +7487,9 @@
       <c r="AA64" s="12">
         <v>0</v>
       </c>
+      <c r="AB64" s="21">
+        <v>0</v>
+      </c>
       <c r="AD64" s="13"/>
     </row>
     <row r="65" spans="1:30" ht="18" customHeight="1">
@@ -7375,6 +7574,9 @@
       <c r="AA65" s="12">
         <v>1</v>
       </c>
+      <c r="AB65" s="21">
+        <v>0</v>
+      </c>
       <c r="AD65" s="13"/>
     </row>
     <row r="66" spans="1:30" ht="18" customHeight="1">
@@ -7459,6 +7661,9 @@
       <c r="AA66" s="12">
         <v>0</v>
       </c>
+      <c r="AB66" s="21">
+        <v>0</v>
+      </c>
       <c r="AD66" s="13"/>
     </row>
     <row r="67" spans="1:30" ht="18" customHeight="1">
@@ -7543,6 +7748,9 @@
       <c r="AA67" s="12">
         <v>1</v>
       </c>
+      <c r="AB67" s="21">
+        <v>0</v>
+      </c>
       <c r="AD67" s="13"/>
     </row>
     <row r="68" spans="1:30" ht="18" customHeight="1">
@@ -7627,6 +7835,9 @@
       <c r="AA68" s="12">
         <v>1</v>
       </c>
+      <c r="AB68" s="21">
+        <v>0</v>
+      </c>
       <c r="AD68" s="13"/>
     </row>
     <row r="69" spans="1:30" ht="18" customHeight="1">
@@ -7711,6 +7922,9 @@
       <c r="AA69" s="12">
         <v>0</v>
       </c>
+      <c r="AB69" s="21">
+        <v>0</v>
+      </c>
       <c r="AD69" s="13"/>
     </row>
     <row r="70" spans="1:30" ht="18" customHeight="1">
@@ -7795,6 +8009,9 @@
       <c r="AA70" s="12">
         <v>1</v>
       </c>
+      <c r="AB70" s="21">
+        <v>0</v>
+      </c>
       <c r="AD70" s="13"/>
     </row>
     <row r="71" spans="1:30" ht="18" customHeight="1">
@@ -7879,6 +8096,9 @@
       <c r="AA71" s="12">
         <v>0</v>
       </c>
+      <c r="AB71" s="21">
+        <v>0</v>
+      </c>
       <c r="AD71" s="13"/>
     </row>
     <row r="72" spans="1:30" ht="18" customHeight="1">
@@ -7963,6 +8183,9 @@
       <c r="AA72" s="12">
         <v>0</v>
       </c>
+      <c r="AB72" s="21">
+        <v>0</v>
+      </c>
       <c r="AD72" s="13"/>
     </row>
     <row r="73" spans="1:30" ht="18" customHeight="1">
@@ -8047,6 +8270,9 @@
       <c r="AA73" s="12">
         <v>0</v>
       </c>
+      <c r="AB73" s="21">
+        <v>0</v>
+      </c>
       <c r="AD73" s="13"/>
     </row>
     <row r="74" spans="1:30" ht="18" customHeight="1">
@@ -8131,6 +8357,9 @@
       <c r="AA74" s="12">
         <v>0</v>
       </c>
+      <c r="AB74" s="21">
+        <v>0</v>
+      </c>
       <c r="AD74" s="13"/>
     </row>
     <row r="75" spans="1:30" ht="18" customHeight="1">
@@ -8215,6 +8444,9 @@
       <c r="AA75" s="12">
         <v>0</v>
       </c>
+      <c r="AB75" s="21">
+        <v>0</v>
+      </c>
       <c r="AD75" s="13"/>
     </row>
     <row r="76" spans="1:30" ht="18" customHeight="1">
@@ -8299,6 +8531,9 @@
       <c r="AA76" s="12">
         <v>0</v>
       </c>
+      <c r="AB76" s="21">
+        <v>0</v>
+      </c>
       <c r="AD76" s="13"/>
     </row>
     <row r="77" spans="1:30" ht="18" customHeight="1">
@@ -8383,6 +8618,9 @@
       <c r="AA77" s="12">
         <v>0</v>
       </c>
+      <c r="AB77" s="21">
+        <v>0</v>
+      </c>
       <c r="AD77" s="13"/>
     </row>
     <row r="78" spans="1:30" ht="18" customHeight="1">
@@ -8467,6 +8705,9 @@
       <c r="AA78" s="12">
         <v>0</v>
       </c>
+      <c r="AB78" s="21">
+        <v>0</v>
+      </c>
       <c r="AD78" s="13"/>
     </row>
     <row r="79" spans="1:30" ht="18" customHeight="1">
@@ -8551,6 +8792,9 @@
       <c r="AA79" s="12">
         <v>1</v>
       </c>
+      <c r="AB79" s="21">
+        <v>0</v>
+      </c>
       <c r="AD79" s="13"/>
     </row>
     <row r="80" spans="1:30" ht="18" customHeight="1">
@@ -8635,6 +8879,9 @@
       <c r="AA80" s="12">
         <v>1</v>
       </c>
+      <c r="AB80" s="21">
+        <v>0</v>
+      </c>
       <c r="AD80" s="13"/>
     </row>
     <row r="81" spans="1:30" ht="18" customHeight="1">
@@ -8719,6 +8966,9 @@
       <c r="AA81" s="12">
         <v>0</v>
       </c>
+      <c r="AB81" s="21">
+        <v>0</v>
+      </c>
       <c r="AD81" s="13"/>
     </row>
     <row r="82" spans="1:30" ht="18" customHeight="1">
@@ -8803,6 +9053,9 @@
       <c r="AA82" s="12">
         <v>1</v>
       </c>
+      <c r="AB82" s="21">
+        <v>0</v>
+      </c>
       <c r="AD82" s="13"/>
     </row>
     <row r="83" spans="1:30" ht="18" customHeight="1">
@@ -8887,6 +9140,9 @@
       <c r="AA83" s="12">
         <v>0</v>
       </c>
+      <c r="AB83" s="21">
+        <v>0</v>
+      </c>
       <c r="AD83" s="13"/>
     </row>
     <row r="84" spans="1:30" ht="18" customHeight="1">
@@ -8971,6 +9227,9 @@
       <c r="AA84" s="12">
         <v>0</v>
       </c>
+      <c r="AB84" s="21">
+        <v>0</v>
+      </c>
       <c r="AD84" s="13"/>
     </row>
     <row r="85" spans="1:30" ht="18" customHeight="1">
@@ -9055,6 +9314,9 @@
       <c r="AA85" s="12">
         <v>0</v>
       </c>
+      <c r="AB85" s="21">
+        <v>0</v>
+      </c>
       <c r="AD85" s="13"/>
     </row>
     <row r="86" spans="1:30" ht="18" customHeight="1">
@@ -9139,6 +9401,9 @@
       <c r="AA86" s="12">
         <v>0</v>
       </c>
+      <c r="AB86" s="21">
+        <v>0</v>
+      </c>
       <c r="AD86" s="13"/>
     </row>
     <row r="87" spans="1:30" ht="18" customHeight="1">
@@ -9223,6 +9488,9 @@
       <c r="AA87" s="12">
         <v>1</v>
       </c>
+      <c r="AB87" s="21">
+        <v>0</v>
+      </c>
       <c r="AD87" s="13"/>
     </row>
     <row r="88" spans="1:30" ht="18" customHeight="1">
@@ -9307,6 +9575,9 @@
       <c r="AA88" s="12">
         <v>0</v>
       </c>
+      <c r="AB88" s="21">
+        <v>0</v>
+      </c>
       <c r="AD88" s="13"/>
     </row>
     <row r="89" spans="1:30" ht="18" customHeight="1">
@@ -9391,6 +9662,9 @@
       <c r="AA89" s="12">
         <v>1</v>
       </c>
+      <c r="AB89" s="21">
+        <v>0</v>
+      </c>
       <c r="AD89" s="13"/>
     </row>
     <row r="90" spans="1:30" ht="18" customHeight="1">
@@ -9475,6 +9749,9 @@
       <c r="AA90" s="12">
         <v>1</v>
       </c>
+      <c r="AB90" s="21">
+        <v>0</v>
+      </c>
       <c r="AD90" s="13"/>
     </row>
     <row r="91" spans="1:30" ht="18" customHeight="1">
@@ -9559,6 +9836,9 @@
       <c r="AA91" s="12">
         <v>0</v>
       </c>
+      <c r="AB91" s="21">
+        <v>0</v>
+      </c>
       <c r="AD91" s="13"/>
     </row>
     <row r="92" spans="1:30" ht="18" customHeight="1">
@@ -9643,6 +9923,9 @@
       <c r="AA92" s="12">
         <v>1</v>
       </c>
+      <c r="AB92" s="21">
+        <v>0</v>
+      </c>
       <c r="AD92" s="13"/>
     </row>
     <row r="93" spans="1:30" ht="18" customHeight="1">
@@ -9727,6 +10010,9 @@
       <c r="AA93" s="12">
         <v>0</v>
       </c>
+      <c r="AB93" s="21">
+        <v>0</v>
+      </c>
       <c r="AD93" s="13"/>
     </row>
     <row r="94" spans="1:30" ht="18" customHeight="1">
@@ -9811,6 +10097,9 @@
       <c r="AA94" s="12">
         <v>0</v>
       </c>
+      <c r="AB94" s="21">
+        <v>0</v>
+      </c>
       <c r="AD94" s="13"/>
     </row>
     <row r="95" spans="1:30" ht="18" customHeight="1">
@@ -9895,6 +10184,9 @@
       <c r="AA95" s="12">
         <v>1</v>
       </c>
+      <c r="AB95" s="21">
+        <v>0</v>
+      </c>
       <c r="AD95" s="13"/>
     </row>
     <row r="96" spans="1:30" ht="18" customHeight="1">
@@ -9979,6 +10271,9 @@
       <c r="AA96" s="12">
         <v>0</v>
       </c>
+      <c r="AB96" s="21">
+        <v>0</v>
+      </c>
       <c r="AD96" s="13"/>
     </row>
     <row r="97" spans="1:30" ht="18" customHeight="1">
@@ -10063,6 +10358,9 @@
       <c r="AA97" s="12">
         <v>0</v>
       </c>
+      <c r="AB97" s="21">
+        <v>0</v>
+      </c>
       <c r="AD97" s="13"/>
     </row>
     <row r="98" spans="1:30" ht="18" customHeight="1">
@@ -10147,6 +10445,9 @@
       <c r="AA98" s="12">
         <v>1</v>
       </c>
+      <c r="AB98" s="21">
+        <v>0</v>
+      </c>
       <c r="AD98" s="13"/>
     </row>
     <row r="99" spans="1:30" ht="18" customHeight="1">
@@ -10231,6 +10532,9 @@
       <c r="AA99" s="12">
         <v>0</v>
       </c>
+      <c r="AB99" s="21">
+        <v>0</v>
+      </c>
       <c r="AD99" s="13"/>
     </row>
     <row r="100" spans="1:30" ht="18" customHeight="1">
@@ -10315,6 +10619,9 @@
       <c r="AA100" s="12">
         <v>1</v>
       </c>
+      <c r="AB100" s="21">
+        <v>0</v>
+      </c>
       <c r="AD100" s="13"/>
     </row>
     <row r="101" spans="1:30" ht="18" customHeight="1">
@@ -10399,6 +10706,9 @@
       <c r="AA101" s="12">
         <v>0</v>
       </c>
+      <c r="AB101" s="21">
+        <v>0</v>
+      </c>
       <c r="AD101" s="13"/>
     </row>
     <row r="102" spans="1:30" ht="18" customHeight="1">
@@ -10483,6 +10793,9 @@
       <c r="AA102" s="12">
         <v>0</v>
       </c>
+      <c r="AB102" s="21">
+        <v>0</v>
+      </c>
       <c r="AD102" s="13"/>
     </row>
     <row r="103" spans="1:30" ht="18" customHeight="1">
@@ -10567,6 +10880,9 @@
       <c r="AA103" s="12">
         <v>0</v>
       </c>
+      <c r="AB103" s="21">
+        <v>0</v>
+      </c>
       <c r="AD103" s="13"/>
     </row>
     <row r="104" spans="1:30" ht="18" customHeight="1">
@@ -10651,6 +10967,9 @@
       <c r="AA104" s="12">
         <v>0</v>
       </c>
+      <c r="AB104" s="21">
+        <v>0</v>
+      </c>
       <c r="AD104" s="13"/>
     </row>
     <row r="105" spans="1:30" ht="18" customHeight="1">
@@ -10735,6 +11054,9 @@
       <c r="AA105" s="12">
         <v>1</v>
       </c>
+      <c r="AB105" s="21">
+        <v>0</v>
+      </c>
       <c r="AD105" s="13"/>
     </row>
     <row r="106" spans="1:30" ht="18" customHeight="1">
@@ -10819,6 +11141,9 @@
       <c r="AA106" s="12">
         <v>1</v>
       </c>
+      <c r="AB106" s="21">
+        <v>0</v>
+      </c>
       <c r="AD106" s="13"/>
     </row>
     <row r="107" spans="1:30" ht="18" customHeight="1">
@@ -10903,6 +11228,9 @@
       <c r="AA107" s="12">
         <v>0</v>
       </c>
+      <c r="AB107" s="21">
+        <v>0</v>
+      </c>
       <c r="AD107" s="13"/>
     </row>
     <row r="108" spans="1:30" ht="18" customHeight="1">
@@ -10987,6 +11315,9 @@
       <c r="AA108" s="12">
         <v>0</v>
       </c>
+      <c r="AB108" s="21">
+        <v>0</v>
+      </c>
       <c r="AD108" s="13"/>
     </row>
     <row r="109" spans="1:30" ht="18" customHeight="1">
@@ -11071,6 +11402,9 @@
       <c r="AA109" s="12">
         <v>0</v>
       </c>
+      <c r="AB109" s="21">
+        <v>0</v>
+      </c>
       <c r="AD109" s="13"/>
     </row>
     <row r="110" spans="1:30" ht="18" customHeight="1">
@@ -11155,6 +11489,9 @@
       <c r="AA110" s="12">
         <v>0</v>
       </c>
+      <c r="AB110" s="21">
+        <v>0</v>
+      </c>
       <c r="AD110" s="13"/>
     </row>
     <row r="111" spans="1:30" ht="18" customHeight="1">
@@ -11239,6 +11576,9 @@
       <c r="AA111" s="12">
         <v>0</v>
       </c>
+      <c r="AB111" s="21">
+        <v>0</v>
+      </c>
       <c r="AD111" s="13"/>
     </row>
     <row r="112" spans="1:30" ht="18" customHeight="1">
@@ -11323,6 +11663,9 @@
       <c r="AA112" s="12">
         <v>0</v>
       </c>
+      <c r="AB112" s="21">
+        <v>0</v>
+      </c>
       <c r="AD112" s="13"/>
     </row>
     <row r="113" spans="1:30" ht="18" customHeight="1">
@@ -11407,6 +11750,9 @@
       <c r="AA113" s="12">
         <v>1</v>
       </c>
+      <c r="AB113" s="21">
+        <v>0</v>
+      </c>
       <c r="AD113" s="13"/>
     </row>
     <row r="114" spans="1:30" ht="18" customHeight="1">
@@ -11491,6 +11837,9 @@
       <c r="AA114" s="12">
         <v>0</v>
       </c>
+      <c r="AB114" s="21">
+        <v>0</v>
+      </c>
       <c r="AD114" s="13"/>
     </row>
     <row r="115" spans="1:30" ht="18" customHeight="1">
@@ -11575,6 +11924,9 @@
       <c r="AA115" s="12">
         <v>1</v>
       </c>
+      <c r="AB115" s="21">
+        <v>0</v>
+      </c>
       <c r="AD115" s="13"/>
     </row>
     <row r="116" spans="1:30" ht="18" customHeight="1">
@@ -11659,6 +12011,9 @@
       <c r="AA116" s="12">
         <v>0</v>
       </c>
+      <c r="AB116" s="21">
+        <v>0</v>
+      </c>
       <c r="AD116" s="13"/>
     </row>
     <row r="117" spans="1:30" ht="18" customHeight="1">
@@ -11743,6 +12098,9 @@
       <c r="AA117" s="12">
         <v>0</v>
       </c>
+      <c r="AB117" s="21">
+        <v>0</v>
+      </c>
       <c r="AD117" s="13"/>
     </row>
     <row r="118" spans="1:30" ht="18" customHeight="1">
@@ -11827,6 +12185,9 @@
       <c r="AA118" s="12">
         <v>0</v>
       </c>
+      <c r="AB118" s="21">
+        <v>0</v>
+      </c>
       <c r="AD118" s="13"/>
     </row>
     <row r="119" spans="1:30" ht="18" customHeight="1">
@@ -11911,6 +12272,9 @@
       <c r="AA119" s="12">
         <v>0</v>
       </c>
+      <c r="AB119" s="21">
+        <v>0</v>
+      </c>
       <c r="AD119" s="13"/>
     </row>
     <row r="120" spans="1:30" ht="18" customHeight="1">
@@ -11995,6 +12359,9 @@
       <c r="AA120" s="12">
         <v>0</v>
       </c>
+      <c r="AB120" s="21">
+        <v>0</v>
+      </c>
       <c r="AD120" s="13"/>
     </row>
     <row r="121" spans="1:30" ht="18" customHeight="1">
@@ -12079,6 +12446,9 @@
       <c r="AA121" s="12">
         <v>1</v>
       </c>
+      <c r="AB121" s="21">
+        <v>0</v>
+      </c>
       <c r="AD121" s="13"/>
     </row>
     <row r="122" spans="1:30" ht="18" customHeight="1">
@@ -12163,6 +12533,9 @@
       <c r="AA122" s="12">
         <v>0</v>
       </c>
+      <c r="AB122" s="21">
+        <v>0</v>
+      </c>
       <c r="AD122" s="13"/>
     </row>
     <row r="123" spans="1:30" ht="18" customHeight="1">
@@ -12247,6 +12620,9 @@
       <c r="AA123" s="12">
         <v>0</v>
       </c>
+      <c r="AB123" s="21">
+        <v>0</v>
+      </c>
       <c r="AD123" s="13"/>
     </row>
     <row r="124" spans="1:30" ht="18" customHeight="1">
@@ -12331,6 +12707,9 @@
       <c r="AA124" s="12">
         <v>0</v>
       </c>
+      <c r="AB124" s="21">
+        <v>0</v>
+      </c>
       <c r="AD124" s="13"/>
     </row>
     <row r="125" spans="1:30" ht="18" customHeight="1">
@@ -12415,6 +12794,9 @@
       <c r="AA125" s="12">
         <v>1</v>
       </c>
+      <c r="AB125" s="21">
+        <v>0</v>
+      </c>
       <c r="AD125" s="13"/>
     </row>
     <row r="126" spans="1:30" ht="18" customHeight="1">
@@ -12499,6 +12881,9 @@
       <c r="AA126" s="12">
         <v>1</v>
       </c>
+      <c r="AB126" s="21">
+        <v>0</v>
+      </c>
       <c r="AD126" s="13"/>
     </row>
     <row r="127" spans="1:30" ht="18" customHeight="1">
@@ -12583,6 +12968,9 @@
       <c r="AA127" s="12">
         <v>0</v>
       </c>
+      <c r="AB127" s="21">
+        <v>0</v>
+      </c>
       <c r="AD127" s="13"/>
     </row>
     <row r="128" spans="1:30" ht="18" customHeight="1">
@@ -12667,6 +13055,9 @@
       <c r="AA128" s="12">
         <v>1</v>
       </c>
+      <c r="AB128" s="21">
+        <v>0</v>
+      </c>
       <c r="AD128" s="13"/>
     </row>
     <row r="129" spans="1:30" ht="18" customHeight="1">
@@ -12751,6 +13142,9 @@
       <c r="AA129" s="12">
         <v>0</v>
       </c>
+      <c r="AB129" s="21">
+        <v>0</v>
+      </c>
       <c r="AD129" s="13"/>
     </row>
     <row r="130" spans="1:30" ht="18" customHeight="1">
@@ -12835,6 +13229,9 @@
       <c r="AA130" s="12">
         <v>0</v>
       </c>
+      <c r="AB130" s="21">
+        <v>0</v>
+      </c>
       <c r="AD130" s="13"/>
     </row>
     <row r="131" spans="1:30" ht="18" customHeight="1">
@@ -12919,6 +13316,9 @@
       <c r="AA131" s="12">
         <v>1</v>
       </c>
+      <c r="AB131" s="21">
+        <v>0</v>
+      </c>
       <c r="AD131" s="13"/>
     </row>
     <row r="132" spans="1:30" ht="18" customHeight="1">
@@ -13003,6 +13403,9 @@
       <c r="AA132" s="12">
         <v>0</v>
       </c>
+      <c r="AB132" s="21">
+        <v>0</v>
+      </c>
       <c r="AD132" s="13"/>
     </row>
     <row r="133" spans="1:30" ht="18" customHeight="1">
@@ -13087,6 +13490,9 @@
       <c r="AA133" s="12">
         <v>0</v>
       </c>
+      <c r="AB133" s="21">
+        <v>0</v>
+      </c>
       <c r="AD133" s="13"/>
     </row>
     <row r="134" spans="1:30" ht="18" customHeight="1">
@@ -13171,6 +13577,9 @@
       <c r="AA134" s="12">
         <v>0</v>
       </c>
+      <c r="AB134" s="21">
+        <v>0</v>
+      </c>
       <c r="AD134" s="13"/>
     </row>
     <row r="135" spans="1:30" ht="18" customHeight="1">
@@ -13255,6 +13664,9 @@
       <c r="AA135" s="12">
         <v>1</v>
       </c>
+      <c r="AB135" s="21">
+        <v>0</v>
+      </c>
       <c r="AD135" s="13"/>
     </row>
     <row r="136" spans="1:30" ht="18" customHeight="1">
@@ -13339,6 +13751,9 @@
       <c r="AA136" s="12">
         <v>0</v>
       </c>
+      <c r="AB136" s="21">
+        <v>0</v>
+      </c>
       <c r="AD136" s="13"/>
     </row>
     <row r="137" spans="1:30" ht="18" customHeight="1">
@@ -13423,6 +13838,9 @@
       <c r="AA137" s="12">
         <v>0</v>
       </c>
+      <c r="AB137" s="21">
+        <v>0</v>
+      </c>
       <c r="AD137" s="13"/>
     </row>
     <row r="138" spans="1:30" ht="18" customHeight="1">
@@ -13507,6 +13925,9 @@
       <c r="AA138" s="12">
         <v>1</v>
       </c>
+      <c r="AB138" s="21">
+        <v>0</v>
+      </c>
       <c r="AD138" s="13"/>
     </row>
     <row r="139" spans="1:30" ht="18" customHeight="1">
@@ -13591,6 +14012,9 @@
       <c r="AA139" s="12">
         <v>0</v>
       </c>
+      <c r="AB139" s="21">
+        <v>0</v>
+      </c>
       <c r="AD139" s="13"/>
     </row>
     <row r="140" spans="1:30" ht="18" customHeight="1">
@@ -13675,6 +14099,9 @@
       <c r="AA140" s="12">
         <v>0</v>
       </c>
+      <c r="AB140" s="21">
+        <v>0</v>
+      </c>
       <c r="AD140" s="13"/>
     </row>
     <row r="141" spans="1:30" ht="18" customHeight="1">
@@ -13759,6 +14186,9 @@
       <c r="AA141" s="12">
         <v>0</v>
       </c>
+      <c r="AB141" s="21">
+        <v>0</v>
+      </c>
       <c r="AD141" s="13"/>
     </row>
     <row r="142" spans="1:30" ht="18" customHeight="1">
@@ -13843,6 +14273,9 @@
       <c r="AA142" s="12">
         <v>1</v>
       </c>
+      <c r="AB142" s="21">
+        <v>0</v>
+      </c>
       <c r="AD142" s="13"/>
     </row>
     <row r="143" spans="1:30" ht="18" customHeight="1">
@@ -13927,6 +14360,9 @@
       <c r="AA143" s="12">
         <v>0</v>
       </c>
+      <c r="AB143" s="21">
+        <v>0</v>
+      </c>
       <c r="AD143" s="13"/>
     </row>
     <row r="144" spans="1:30" ht="18" customHeight="1">
@@ -14011,6 +14447,9 @@
       <c r="AA144" s="12">
         <v>0</v>
       </c>
+      <c r="AB144" s="21">
+        <v>0</v>
+      </c>
       <c r="AD144" s="13"/>
     </row>
     <row r="145" spans="1:30" ht="18" customHeight="1">
@@ -14095,6 +14534,9 @@
       <c r="AA145" s="12">
         <v>0</v>
       </c>
+      <c r="AB145" s="21">
+        <v>0</v>
+      </c>
       <c r="AD145" s="13"/>
     </row>
     <row r="146" spans="1:30" ht="18" customHeight="1">
@@ -14179,6 +14621,9 @@
       <c r="AA146" s="12">
         <v>0</v>
       </c>
+      <c r="AB146" s="21">
+        <v>0</v>
+      </c>
       <c r="AD146" s="13"/>
     </row>
     <row r="147" spans="1:30" ht="18" customHeight="1">
@@ -14263,6 +14708,9 @@
       <c r="AA147" s="12">
         <v>0</v>
       </c>
+      <c r="AB147" s="21">
+        <v>0</v>
+      </c>
       <c r="AD147" s="13"/>
     </row>
     <row r="148" spans="1:30" ht="18" customHeight="1">
@@ -14347,6 +14795,9 @@
       <c r="AA148" s="12">
         <v>0</v>
       </c>
+      <c r="AB148" s="21">
+        <v>0</v>
+      </c>
       <c r="AD148" s="13"/>
     </row>
     <row r="149" spans="1:30" ht="18" customHeight="1">
@@ -14431,6 +14882,9 @@
       <c r="AA149" s="12">
         <v>1</v>
       </c>
+      <c r="AB149" s="21">
+        <v>0</v>
+      </c>
       <c r="AD149" s="13"/>
     </row>
     <row r="150" spans="1:30" ht="18" customHeight="1">
@@ -14515,6 +14969,9 @@
       <c r="AA150" s="12">
         <v>1</v>
       </c>
+      <c r="AB150" s="21">
+        <v>0</v>
+      </c>
       <c r="AD150" s="13"/>
     </row>
     <row r="151" spans="1:30" ht="18" customHeight="1">
@@ -14599,6 +15056,9 @@
       <c r="AA151" s="12">
         <v>0</v>
       </c>
+      <c r="AB151" s="21">
+        <v>0</v>
+      </c>
       <c r="AD151" s="13"/>
     </row>
     <row r="152" spans="1:30" ht="18" customHeight="1">
@@ -14683,6 +15143,9 @@
       <c r="AA152" s="12">
         <v>0</v>
       </c>
+      <c r="AB152" s="21">
+        <v>0</v>
+      </c>
       <c r="AD152" s="13"/>
     </row>
     <row r="153" spans="1:30" ht="18" customHeight="1">
@@ -14767,6 +15230,9 @@
       <c r="AA153" s="12">
         <v>0</v>
       </c>
+      <c r="AB153" s="21">
+        <v>0</v>
+      </c>
       <c r="AD153" s="13"/>
     </row>
     <row r="154" spans="1:30" ht="18" customHeight="1">
@@ -14851,6 +15317,9 @@
       <c r="AA154" s="12">
         <v>0</v>
       </c>
+      <c r="AB154" s="21">
+        <v>0</v>
+      </c>
       <c r="AD154" s="13"/>
     </row>
     <row r="155" spans="1:30" ht="18" customHeight="1">
@@ -14935,6 +15404,9 @@
       <c r="AA155" s="12">
         <v>1</v>
       </c>
+      <c r="AB155" s="21">
+        <v>0</v>
+      </c>
       <c r="AD155" s="13"/>
     </row>
     <row r="156" spans="1:30" ht="18" customHeight="1">
@@ -15019,6 +15491,9 @@
       <c r="AA156" s="12">
         <v>1</v>
       </c>
+      <c r="AB156" s="21">
+        <v>0</v>
+      </c>
       <c r="AD156" s="13"/>
     </row>
     <row r="157" spans="1:30" ht="18" customHeight="1">
@@ -15103,6 +15578,9 @@
       <c r="AA157" s="12">
         <v>0</v>
       </c>
+      <c r="AB157" s="21">
+        <v>0</v>
+      </c>
       <c r="AD157" s="13"/>
     </row>
     <row r="158" spans="1:30" ht="18" customHeight="1">
@@ -15187,6 +15665,9 @@
       <c r="AA158" s="12">
         <v>0</v>
       </c>
+      <c r="AB158" s="21">
+        <v>0</v>
+      </c>
       <c r="AD158" s="13"/>
     </row>
     <row r="159" spans="1:30" ht="18" customHeight="1">
@@ -15271,6 +15752,9 @@
       <c r="AA159" s="12">
         <v>1</v>
       </c>
+      <c r="AB159" s="21">
+        <v>0</v>
+      </c>
       <c r="AD159" s="13"/>
     </row>
     <row r="160" spans="1:30" ht="18" customHeight="1">
@@ -15355,6 +15839,9 @@
       <c r="AA160" s="12">
         <v>0</v>
       </c>
+      <c r="AB160" s="21">
+        <v>0</v>
+      </c>
       <c r="AD160" s="13"/>
     </row>
     <row r="161" spans="1:30" ht="18" customHeight="1">
@@ -15439,6 +15926,9 @@
       <c r="AA161" s="12">
         <v>0</v>
       </c>
+      <c r="AB161" s="21">
+        <v>0</v>
+      </c>
       <c r="AD161" s="13"/>
     </row>
     <row r="162" spans="1:30" ht="18" customHeight="1">
@@ -15523,6 +16013,9 @@
       <c r="AA162" s="12">
         <v>0</v>
       </c>
+      <c r="AB162" s="21">
+        <v>0</v>
+      </c>
       <c r="AD162" s="13"/>
     </row>
     <row r="163" spans="1:30" ht="18" customHeight="1">
@@ -15607,6 +16100,9 @@
       <c r="AA163" s="12">
         <v>0</v>
       </c>
+      <c r="AB163" s="21">
+        <v>0</v>
+      </c>
       <c r="AD163" s="13"/>
     </row>
     <row r="164" spans="1:30" ht="18" customHeight="1">
@@ -15691,6 +16187,9 @@
       <c r="AA164" s="12">
         <v>1</v>
       </c>
+      <c r="AB164" s="21">
+        <v>0</v>
+      </c>
       <c r="AD164" s="13"/>
     </row>
     <row r="165" spans="1:30" ht="18" customHeight="1">
@@ -15775,6 +16274,9 @@
       <c r="AA165" s="12">
         <v>0</v>
       </c>
+      <c r="AB165" s="21">
+        <v>0</v>
+      </c>
       <c r="AD165" s="13"/>
     </row>
     <row r="166" spans="1:30" ht="18" customHeight="1">
@@ -15859,6 +16361,9 @@
       <c r="AA166" s="12">
         <v>0</v>
       </c>
+      <c r="AB166" s="21">
+        <v>0</v>
+      </c>
       <c r="AD166" s="13"/>
     </row>
     <row r="167" spans="1:30" ht="18" customHeight="1">
@@ -15943,6 +16448,9 @@
       <c r="AA167" s="12">
         <v>0</v>
       </c>
+      <c r="AB167" s="21">
+        <v>0</v>
+      </c>
       <c r="AD167" s="13"/>
     </row>
     <row r="168" spans="1:30" ht="18" customHeight="1">
@@ -16027,6 +16535,9 @@
       <c r="AA168" s="12">
         <v>0</v>
       </c>
+      <c r="AB168" s="21">
+        <v>0</v>
+      </c>
       <c r="AD168" s="13"/>
     </row>
     <row r="169" spans="1:30" ht="18" customHeight="1">
@@ -16111,6 +16622,9 @@
       <c r="AA169" s="12">
         <v>0</v>
       </c>
+      <c r="AB169" s="21">
+        <v>0</v>
+      </c>
       <c r="AD169" s="13"/>
     </row>
     <row r="170" spans="1:30" ht="18" customHeight="1">
@@ -16195,6 +16709,9 @@
       <c r="AA170" s="12">
         <v>0</v>
       </c>
+      <c r="AB170" s="21">
+        <v>0</v>
+      </c>
       <c r="AD170" s="13"/>
     </row>
     <row r="171" spans="1:30" ht="18" customHeight="1">
@@ -16279,6 +16796,9 @@
       <c r="AA171" s="12">
         <v>0</v>
       </c>
+      <c r="AB171" s="21">
+        <v>0</v>
+      </c>
       <c r="AD171" s="13"/>
     </row>
     <row r="172" spans="1:30" ht="18" customHeight="1">
@@ -16363,6 +16883,9 @@
       <c r="AA172" s="12">
         <v>1</v>
       </c>
+      <c r="AB172" s="21">
+        <v>0</v>
+      </c>
       <c r="AD172" s="13"/>
     </row>
     <row r="173" spans="1:30" ht="18" customHeight="1">
@@ -16447,6 +16970,9 @@
       <c r="AA173" s="12">
         <v>1</v>
       </c>
+      <c r="AB173" s="21">
+        <v>0</v>
+      </c>
       <c r="AD173" s="13"/>
     </row>
     <row r="174" spans="1:30" ht="18" customHeight="1">
@@ -16531,6 +17057,9 @@
       <c r="AA174" s="12">
         <v>0</v>
       </c>
+      <c r="AB174" s="21">
+        <v>0</v>
+      </c>
       <c r="AD174" s="13"/>
     </row>
     <row r="175" spans="1:30" ht="18" customHeight="1">
@@ -16615,6 +17144,9 @@
       <c r="AA175" s="12">
         <v>0</v>
       </c>
+      <c r="AB175" s="21">
+        <v>0</v>
+      </c>
       <c r="AD175" s="13"/>
     </row>
     <row r="176" spans="1:30" ht="18" customHeight="1">
@@ -16699,6 +17231,9 @@
       <c r="AA176" s="12">
         <v>0</v>
       </c>
+      <c r="AB176" s="21">
+        <v>0</v>
+      </c>
       <c r="AD176" s="13"/>
     </row>
     <row r="177" spans="1:30" ht="18" customHeight="1">
@@ -16783,6 +17318,9 @@
       <c r="AA177" s="12">
         <v>0</v>
       </c>
+      <c r="AB177" s="21">
+        <v>0</v>
+      </c>
       <c r="AD177" s="13"/>
     </row>
     <row r="178" spans="1:30" ht="18" customHeight="1">
@@ -16867,6 +17405,9 @@
       <c r="AA178" s="12">
         <v>0</v>
       </c>
+      <c r="AB178" s="21">
+        <v>0</v>
+      </c>
       <c r="AD178" s="13"/>
     </row>
     <row r="179" spans="1:30" ht="18" customHeight="1">
@@ -16951,6 +17492,9 @@
       <c r="AA179" s="12">
         <v>0</v>
       </c>
+      <c r="AB179" s="21">
+        <v>0</v>
+      </c>
       <c r="AD179" s="13"/>
     </row>
     <row r="180" spans="1:30" ht="18" customHeight="1">
@@ -17035,6 +17579,9 @@
       <c r="AA180" s="12">
         <v>1</v>
       </c>
+      <c r="AB180" s="21">
+        <v>0</v>
+      </c>
       <c r="AD180" s="13"/>
     </row>
     <row r="181" spans="1:30" ht="18" customHeight="1">
@@ -17119,6 +17666,9 @@
       <c r="AA181" s="12">
         <v>0</v>
       </c>
+      <c r="AB181" s="21">
+        <v>0</v>
+      </c>
       <c r="AD181" s="13"/>
     </row>
     <row r="182" spans="1:30" ht="18" customHeight="1">
@@ -17203,6 +17753,9 @@
       <c r="AA182" s="12">
         <v>0</v>
       </c>
+      <c r="AB182" s="21">
+        <v>0</v>
+      </c>
       <c r="AD182" s="13"/>
     </row>
     <row r="183" spans="1:30" ht="18" customHeight="1">
@@ -17287,6 +17840,9 @@
       <c r="AA183" s="12">
         <v>0</v>
       </c>
+      <c r="AB183" s="21">
+        <v>0</v>
+      </c>
       <c r="AD183" s="13"/>
     </row>
     <row r="184" spans="1:30" ht="18" customHeight="1">
@@ -17371,6 +17927,9 @@
       <c r="AA184" s="12">
         <v>0</v>
       </c>
+      <c r="AB184" s="21">
+        <v>0</v>
+      </c>
       <c r="AD184" s="13"/>
     </row>
     <row r="185" spans="1:30" ht="18" customHeight="1">
@@ -17455,6 +18014,9 @@
       <c r="AA185" s="12">
         <v>0</v>
       </c>
+      <c r="AB185" s="21">
+        <v>0</v>
+      </c>
       <c r="AD185" s="13"/>
     </row>
     <row r="186" spans="1:30" ht="18" customHeight="1">
@@ -17539,6 +18101,9 @@
       <c r="AA186" s="12">
         <v>0</v>
       </c>
+      <c r="AB186" s="21">
+        <v>0</v>
+      </c>
       <c r="AD186" s="13"/>
     </row>
     <row r="187" spans="1:30" ht="18" customHeight="1">
@@ -17623,6 +18188,9 @@
       <c r="AA187" s="12">
         <v>1</v>
       </c>
+      <c r="AB187" s="21">
+        <v>0</v>
+      </c>
       <c r="AD187" s="13"/>
     </row>
     <row r="188" spans="1:30" ht="18" customHeight="1">
@@ -17707,6 +18275,9 @@
       <c r="AA188" s="12">
         <v>0</v>
       </c>
+      <c r="AB188" s="21">
+        <v>0</v>
+      </c>
       <c r="AD188" s="13"/>
     </row>
     <row r="189" spans="1:30" ht="18" customHeight="1">
@@ -17791,6 +18362,9 @@
       <c r="AA189" s="12">
         <v>1</v>
       </c>
+      <c r="AB189" s="21">
+        <v>0</v>
+      </c>
       <c r="AD189" s="13"/>
     </row>
     <row r="190" spans="1:30" ht="18" customHeight="1">
@@ -17875,6 +18449,9 @@
       <c r="AA190" s="12">
         <v>0</v>
       </c>
+      <c r="AB190" s="21">
+        <v>0</v>
+      </c>
       <c r="AD190" s="13"/>
     </row>
     <row r="191" spans="1:30" ht="18" customHeight="1">
@@ -17959,6 +18536,9 @@
       <c r="AA191" s="12">
         <v>0</v>
       </c>
+      <c r="AB191" s="21">
+        <v>0</v>
+      </c>
       <c r="AD191" s="13"/>
     </row>
     <row r="192" spans="1:30" ht="18" customHeight="1">
@@ -18043,6 +18623,9 @@
       <c r="AA192" s="12">
         <v>0</v>
       </c>
+      <c r="AB192" s="21">
+        <v>0</v>
+      </c>
       <c r="AD192" s="13"/>
     </row>
     <row r="193" spans="1:30" ht="18" customHeight="1">
@@ -18127,6 +18710,9 @@
       <c r="AA193" s="12">
         <v>0</v>
       </c>
+      <c r="AB193" s="21">
+        <v>0</v>
+      </c>
       <c r="AD193" s="13"/>
     </row>
     <row r="194" spans="1:30" ht="18" customHeight="1">
@@ -18211,6 +18797,9 @@
       <c r="AA194" s="12">
         <v>0</v>
       </c>
+      <c r="AB194" s="21">
+        <v>0</v>
+      </c>
       <c r="AD194" s="13"/>
     </row>
     <row r="195" spans="1:30" ht="18" customHeight="1">
@@ -18295,6 +18884,9 @@
       <c r="AA195" s="12">
         <v>0</v>
       </c>
+      <c r="AB195" s="21">
+        <v>0</v>
+      </c>
       <c r="AD195" s="13"/>
     </row>
     <row r="196" spans="1:30" ht="18" customHeight="1">
@@ -18379,6 +18971,9 @@
       <c r="AA196" s="12">
         <v>1</v>
       </c>
+      <c r="AB196" s="21">
+        <v>0</v>
+      </c>
       <c r="AD196" s="13"/>
     </row>
     <row r="197" spans="1:30" ht="18" customHeight="1">
@@ -18463,6 +19058,9 @@
       <c r="AA197" s="12">
         <v>1</v>
       </c>
+      <c r="AB197" s="21">
+        <v>0</v>
+      </c>
       <c r="AD197" s="13"/>
     </row>
     <row r="198" spans="1:30" ht="18" customHeight="1">
@@ -18547,6 +19145,9 @@
       <c r="AA198" s="12">
         <v>0</v>
       </c>
+      <c r="AB198" s="21">
+        <v>0</v>
+      </c>
       <c r="AD198" s="13"/>
     </row>
     <row r="199" spans="1:30" ht="18" customHeight="1">
@@ -18631,6 +19232,9 @@
       <c r="AA199" s="12">
         <v>0</v>
       </c>
+      <c r="AB199" s="21">
+        <v>0</v>
+      </c>
       <c r="AD199" s="13"/>
     </row>
     <row r="200" spans="1:30" ht="18" customHeight="1">
@@ -18715,6 +19319,9 @@
       <c r="AA200" s="12">
         <v>1</v>
       </c>
+      <c r="AB200" s="21">
+        <v>0</v>
+      </c>
       <c r="AD200" s="13"/>
     </row>
     <row r="201" spans="1:30" ht="18" customHeight="1">
@@ -18799,6 +19406,9 @@
       <c r="AA201" s="12">
         <v>0</v>
       </c>
+      <c r="AB201" s="21">
+        <v>0</v>
+      </c>
       <c r="AD201" s="13"/>
     </row>
     <row r="202" spans="1:30" ht="18" customHeight="1">
@@ -18883,6 +19493,9 @@
       <c r="AA202" s="12">
         <v>0</v>
       </c>
+      <c r="AB202" s="21">
+        <v>0</v>
+      </c>
       <c r="AD202" s="13"/>
     </row>
     <row r="203" spans="1:30" ht="18" customHeight="1">
@@ -18967,6 +19580,9 @@
       <c r="AA203" s="12">
         <v>0</v>
       </c>
+      <c r="AB203" s="21">
+        <v>0</v>
+      </c>
       <c r="AD203" s="13"/>
     </row>
     <row r="204" spans="1:30" ht="18" customHeight="1">
@@ -19051,6 +19667,9 @@
       <c r="AA204" s="12">
         <v>0</v>
       </c>
+      <c r="AB204" s="21">
+        <v>0</v>
+      </c>
       <c r="AD204" s="13"/>
     </row>
     <row r="205" spans="1:30" ht="18" customHeight="1">
@@ -19135,6 +19754,9 @@
       <c r="AA205" s="12">
         <v>0</v>
       </c>
+      <c r="AB205" s="21">
+        <v>0</v>
+      </c>
       <c r="AD205" s="13"/>
     </row>
     <row r="206" spans="1:30" ht="18" customHeight="1">
@@ -19219,6 +19841,9 @@
       <c r="AA206" s="12">
         <v>0</v>
       </c>
+      <c r="AB206" s="21">
+        <v>0</v>
+      </c>
       <c r="AD206" s="13"/>
     </row>
     <row r="207" spans="1:30" ht="18" customHeight="1">
@@ -19303,6 +19928,9 @@
       <c r="AA207" s="12">
         <v>1</v>
       </c>
+      <c r="AB207" s="21">
+        <v>0</v>
+      </c>
       <c r="AD207" s="13"/>
     </row>
     <row r="208" spans="1:30" ht="18" customHeight="1">
@@ -19387,6 +20015,9 @@
       <c r="AA208" s="12">
         <v>0</v>
       </c>
+      <c r="AB208" s="21">
+        <v>0</v>
+      </c>
       <c r="AD208" s="13"/>
     </row>
     <row r="209" spans="1:30" ht="18" customHeight="1">
@@ -19471,6 +20102,9 @@
       <c r="AA209" s="12">
         <v>1</v>
       </c>
+      <c r="AB209" s="21">
+        <v>0</v>
+      </c>
       <c r="AD209" s="13"/>
     </row>
     <row r="210" spans="1:30" ht="18" customHeight="1">
@@ -19555,6 +20189,9 @@
       <c r="AA210" s="12">
         <v>1</v>
       </c>
+      <c r="AB210" s="21">
+        <v>0</v>
+      </c>
       <c r="AD210" s="13"/>
     </row>
     <row r="211" spans="1:30" ht="18" customHeight="1">
@@ -19639,6 +20276,9 @@
       <c r="AA211" s="12">
         <v>0</v>
       </c>
+      <c r="AB211" s="21">
+        <v>0</v>
+      </c>
       <c r="AD211" s="13"/>
     </row>
     <row r="212" spans="1:30" ht="18" customHeight="1">
@@ -19723,6 +20363,9 @@
       <c r="AA212" s="12">
         <v>1</v>
       </c>
+      <c r="AB212" s="21">
+        <v>0</v>
+      </c>
       <c r="AD212" s="13"/>
     </row>
     <row r="213" spans="1:30" ht="18" customHeight="1">
@@ -19807,6 +20450,9 @@
       <c r="AA213" s="12">
         <v>1</v>
       </c>
+      <c r="AB213" s="21">
+        <v>0</v>
+      </c>
       <c r="AD213" s="13"/>
     </row>
     <row r="214" spans="1:30" ht="18" customHeight="1">
@@ -19891,6 +20537,9 @@
       <c r="AA214" s="12">
         <v>0</v>
       </c>
+      <c r="AB214" s="21">
+        <v>0</v>
+      </c>
       <c r="AD214" s="13"/>
     </row>
     <row r="215" spans="1:30" ht="18" customHeight="1">
@@ -19975,6 +20624,9 @@
       <c r="AA215" s="12">
         <v>0</v>
       </c>
+      <c r="AB215" s="21">
+        <v>0</v>
+      </c>
       <c r="AD215" s="13"/>
     </row>
     <row r="216" spans="1:30" ht="18" customHeight="1">
@@ -20059,6 +20711,9 @@
       <c r="AA216" s="12">
         <v>0</v>
       </c>
+      <c r="AB216" s="21">
+        <v>0</v>
+      </c>
       <c r="AD216" s="13"/>
     </row>
     <row r="217" spans="1:30" ht="18" customHeight="1">
@@ -20143,6 +20798,9 @@
       <c r="AA217" s="12">
         <v>0</v>
       </c>
+      <c r="AB217" s="21">
+        <v>0</v>
+      </c>
       <c r="AD217" s="13"/>
     </row>
     <row r="218" spans="1:30" ht="18" customHeight="1">
@@ -20225,6 +20883,9 @@
         <v>1</v>
       </c>
       <c r="AA218" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB218" s="21">
         <v>0</v>
       </c>
       <c r="AD218" s="13"/>
